--- a/gBuse/!_Маршруты_!/Жодино (глобальная переделка)/Помощник по составлению машрутов для СИТ.xlsx
+++ b/gBuse/!_Маршруты_!/Жодино (глобальная переделка)/Помощник по составлению машрутов для СИТ.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22266" windowHeight="12648" firstSheet="12" activeTab="19"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22266" windowHeight="12648" firstSheet="16" activeTab="24"/>
   </bookViews>
   <sheets>
     <sheet name="Настройки" sheetId="2" r:id="rId1"/>
@@ -27,6 +27,11 @@
     <sheet name="raduga" sheetId="29" r:id="rId18"/>
     <sheet name="rodnik" sheetId="30" r:id="rId19"/>
     <sheet name="stroit" sheetId="31" r:id="rId20"/>
+    <sheet name="sluzhebn" sheetId="32" r:id="rId21"/>
+    <sheet name="zakaz" sheetId="33" r:id="rId22"/>
+    <sheet name="snekpro" sheetId="34" r:id="rId23"/>
+    <sheet name="deti" sheetId="35" r:id="rId24"/>
+    <sheet name="v_park" sheetId="36" r:id="rId25"/>
   </sheets>
   <definedNames>
     <definedName name="NomZagMar">Настройки!$B$2</definedName>
@@ -42,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="82">
   <si>
     <t>Номер маршрута</t>
   </si>
@@ -1261,7 +1266,7 @@
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -1724,6 +1729,9 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="12">
+        <v>316</v>
+      </c>
       <c r="B38" t="s">
         <v>69</v>
       </c>
@@ -1736,6 +1744,9 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="12">
+        <v>201</v>
+      </c>
       <c r="B39" t="s">
         <v>75</v>
       </c>
@@ -1748,6 +1759,9 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="12">
+        <v>618</v>
+      </c>
       <c r="B40" t="s">
         <v>70</v>
       </c>
@@ -1760,6 +1774,9 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="12">
+        <v>202</v>
+      </c>
       <c r="B41" t="s">
         <v>63</v>
       </c>
@@ -1772,6 +1789,9 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="12">
+        <v>203</v>
+      </c>
       <c r="B42" t="s">
         <v>74</v>
       </c>
@@ -1793,6 +1813,276 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="2">
+        <v>36</v>
+      </c>
+      <c r="C1" s="13"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="str">
+        <f ca="1">INDIRECT(ADDRESS($B$1,3,4,1,"route"))</f>
+        <v>stroit</v>
+      </c>
+      <c r="E2" s="15" t="str">
+        <f ca="1">"&lt;unit"&amp;NomZagMar&amp;"&gt; """&amp;$A$3&amp;""""&amp;" {i 0, t 002, l "&amp;$A$4&amp;" "&amp;$A$4&amp;", d 000}"</f>
+        <v>&lt;unit100&gt; "с/т Строитель" {i 0, t 002, l 307 307, d 000}</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="str">
+        <f ca="1">INDIRECT(ADDRESS($B$1,2,4,1,"route"))</f>
+        <v>с/т Строитель</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="str">
+        <f ca="1">TEXT(INDIRECT(ADDRESS($B$1,1,4,1,"route")),"000")</f>
+        <v>307</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="2">
+        <v>38</v>
+      </c>
+      <c r="C1" s="13"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="str">
+        <f ca="1">INDIRECT(ADDRESS($B$1,3,4,1,"route"))</f>
+        <v>sluzhebn</v>
+      </c>
+      <c r="E2" s="15" t="str">
+        <f ca="1">"&lt;unit"&amp;NomZagMar&amp;"&gt; """&amp;$A$3&amp;""""&amp;" {i 0, t 002, l "&amp;$A$4&amp;" "&amp;$A$4&amp;", d 000}"</f>
+        <v>&lt;unit100&gt; "СЛУЖЕБНЫЙ" {i 0, t 002, l 316 316, d 000}</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="str">
+        <f ca="1">INDIRECT(ADDRESS($B$1,2,4,1,"route"))</f>
+        <v>СЛУЖЕБНЫЙ</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="str">
+        <f ca="1">TEXT(INDIRECT(ADDRESS($B$1,1,4,1,"route")),"000")</f>
+        <v>316</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="2">
+        <v>39</v>
+      </c>
+      <c r="C1" s="13"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="str">
+        <f ca="1">INDIRECT(ADDRESS($B$1,3,4,1,"route"))</f>
+        <v>zakaz</v>
+      </c>
+      <c r="E2" s="15" t="str">
+        <f ca="1">"&lt;unit"&amp;NomZagMar&amp;"&gt; """&amp;$A$3&amp;""""&amp;" {i 0, t 002, l "&amp;$A$4&amp;" "&amp;$A$4&amp;", d 000}"</f>
+        <v>&lt;unit100&gt; "ЗАКАЗНОЙ" {i 0, t 002, l 201 201, d 000}</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="str">
+        <f ca="1">INDIRECT(ADDRESS($B$1,2,4,1,"route"))</f>
+        <v>ЗАКАЗНОЙ</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="str">
+        <f ca="1">TEXT(INDIRECT(ADDRESS($B$1,1,4,1,"route")),"000")</f>
+        <v>201</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="2">
+        <v>40</v>
+      </c>
+      <c r="C1" s="13"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="str">
+        <f ca="1">INDIRECT(ADDRESS($B$1,3,4,1,"route"))</f>
+        <v>snekpro</v>
+      </c>
+      <c r="E2" s="15" t="str">
+        <f ca="1">"&lt;unit"&amp;NomZagMar&amp;"&gt; """&amp;$A$3&amp;""""&amp;" {i 0, t 002, l "&amp;$A$4&amp;" "&amp;$A$4&amp;", d 000}"</f>
+        <v>&lt;unit100&gt; "СНЕКПРО" {i 0, t 002, l 618 618, d 000}</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="str">
+        <f ca="1">INDIRECT(ADDRESS($B$1,2,4,1,"route"))</f>
+        <v>СНЕКПРО</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="str">
+        <f ca="1">TEXT(INDIRECT(ADDRESS($B$1,1,4,1,"route")),"000")</f>
+        <v>618</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="2">
+        <v>41</v>
+      </c>
+      <c r="C1" s="13"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="str">
+        <f ca="1">INDIRECT(ADDRESS($B$1,3,4,1,"route"))</f>
+        <v>deti</v>
+      </c>
+      <c r="E2" s="15" t="str">
+        <f ca="1">"&lt;unit"&amp;NomZagMar&amp;"&gt; """&amp;$A$3&amp;""""&amp;" {i 0, t 002, l "&amp;$A$4&amp;" "&amp;$A$4&amp;", d 000}"</f>
+        <v>&lt;unit100&gt; "ДЕТИ" {i 0, t 002, l 202 202, d 000}</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="str">
+        <f ca="1">INDIRECT(ADDRESS($B$1,2,4,1,"route"))</f>
+        <v>ДЕТИ</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="str">
+        <f ca="1">TEXT(INDIRECT(ADDRESS($B$1,1,4,1,"route")),"000")</f>
+        <v>202</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -1811,7 +2101,7 @@
         <v>81</v>
       </c>
       <c r="B1" s="2">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="2"/>
@@ -1822,23 +2112,23 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,3,4,1,"route"))</f>
-        <v>stroit</v>
+        <v>v_park</v>
       </c>
       <c r="E2" s="15" t="str">
         <f ca="1">"&lt;unit"&amp;NomZagMar&amp;"&gt; """&amp;$A$3&amp;""""&amp;" {i 0, t 002, l "&amp;$A$4&amp;" "&amp;$A$4&amp;", d 000}"</f>
-        <v>&lt;unit100&gt; "с/т Строитель" {i 0, t 002, l 307 307, d 000}</v>
+        <v>&lt;unit100&gt; "В ПАРК" {i 0, t 002, l 203 203, d 000}</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,2,4,1,"route"))</f>
-        <v>с/т Строитель</v>
+        <v>В ПАРК</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="str">
         <f ca="1">TEXT(INDIRECT(ADDRESS($B$1,1,4,1,"route")),"000")</f>
-        <v>307</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>

--- a/gBuse/!_Маршруты_!/Жодино (глобальная переделка)/Помощник по составлению машрутов для СИТ.xlsx
+++ b/gBuse/!_Маршруты_!/Жодино (глобальная переделка)/Помощник по составлению машрутов для СИТ.xlsx
@@ -1,53 +1,65 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3929C125-E161-4750-A794-524E0B0AF517}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22266" windowHeight="12648" firstSheet="16" activeTab="24"/>
+    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13759" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Настройки" sheetId="2" r:id="rId1"/>
-    <sheet name="route" sheetId="1" r:id="rId2"/>
-    <sheet name="1" sheetId="4" r:id="rId3"/>
-    <sheet name="barsuki" sheetId="3" r:id="rId4"/>
-    <sheet name="budagovo" sheetId="16" r:id="rId5"/>
-    <sheet name="zamlinie" sheetId="17" r:id="rId6"/>
-    <sheet name="zel_bor" sheetId="18" r:id="rId7"/>
-    <sheet name="logoisk" sheetId="19" r:id="rId8"/>
-    <sheet name="ljutka" sheetId="20" r:id="rId9"/>
-    <sheet name="napalki" sheetId="21" r:id="rId10"/>
-    <sheet name="sutoki" sheetId="22" r:id="rId11"/>
-    <sheet name="tochil" sheetId="23" r:id="rId12"/>
-    <sheet name="uzefovo" sheetId="24" r:id="rId13"/>
-    <sheet name="jalov" sheetId="25" r:id="rId14"/>
-    <sheet name="automob" sheetId="26" r:id="rId15"/>
-    <sheet name="zhurav" sheetId="27" r:id="rId16"/>
-    <sheet name="pov_zur" sheetId="28" r:id="rId17"/>
-    <sheet name="raduga" sheetId="29" r:id="rId18"/>
-    <sheet name="rodnik" sheetId="30" r:id="rId19"/>
-    <sheet name="stroit" sheetId="31" r:id="rId20"/>
-    <sheet name="sluzhebn" sheetId="32" r:id="rId21"/>
-    <sheet name="zakaz" sheetId="33" r:id="rId22"/>
-    <sheet name="snekpro" sheetId="34" r:id="rId23"/>
-    <sheet name="deti" sheetId="35" r:id="rId24"/>
-    <sheet name="v_park" sheetId="36" r:id="rId25"/>
+    <sheet name="Константы" sheetId="37" r:id="rId2"/>
+    <sheet name="Остановки" sheetId="38" r:id="rId3"/>
+    <sheet name="route" sheetId="1" r:id="rId4"/>
+    <sheet name="1" sheetId="4" r:id="rId5"/>
+    <sheet name="barsuki" sheetId="3" r:id="rId6"/>
+    <sheet name="budagovo" sheetId="16" r:id="rId7"/>
+    <sheet name="zamlinie" sheetId="17" r:id="rId8"/>
+    <sheet name="zel_bor" sheetId="18" r:id="rId9"/>
+    <sheet name="logoisk" sheetId="19" r:id="rId10"/>
+    <sheet name="ljutka" sheetId="20" r:id="rId11"/>
+    <sheet name="napalki" sheetId="21" r:id="rId12"/>
+    <sheet name="sutoki" sheetId="22" r:id="rId13"/>
+    <sheet name="tochil" sheetId="23" r:id="rId14"/>
+    <sheet name="uzefovo" sheetId="24" r:id="rId15"/>
+    <sheet name="jalov" sheetId="25" r:id="rId16"/>
+    <sheet name="automob" sheetId="26" r:id="rId17"/>
+    <sheet name="zhurav" sheetId="27" r:id="rId18"/>
+    <sheet name="pov_zur" sheetId="28" r:id="rId19"/>
+    <sheet name="raduga" sheetId="29" r:id="rId20"/>
+    <sheet name="rodnik" sheetId="30" r:id="rId21"/>
+    <sheet name="stroit" sheetId="31" r:id="rId22"/>
+    <sheet name="sluzhebn" sheetId="32" r:id="rId23"/>
+    <sheet name="zakaz" sheetId="33" r:id="rId24"/>
+    <sheet name="snekpro" sheetId="34" r:id="rId25"/>
+    <sheet name="deti" sheetId="35" r:id="rId26"/>
+    <sheet name="v_park" sheetId="36" r:id="rId27"/>
   </sheets>
   <definedNames>
+    <definedName name="mp3_knst">Настройки!$B$3</definedName>
+    <definedName name="mp3_ost">Настройки!$B$4</definedName>
     <definedName name="NomZagMar">Настройки!$B$2</definedName>
     <definedName name="NumRoute">Настройки!$B$1</definedName>
+    <definedName name="Pref_Punktov">Константы!$A$2:$A$12</definedName>
+    <definedName name="Punkti">Константы!$A$2:$B$12</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="296">
   <si>
     <t>Номер маршрута</t>
   </si>
@@ -293,13 +305,656 @@
   </si>
   <si>
     <t>Строка на листе route</t>
+  </si>
+  <si>
+    <t>Пункт</t>
+  </si>
+  <si>
+    <t>Заголовок</t>
+  </si>
+  <si>
+    <t>Звук</t>
+  </si>
+  <si>
+    <t>Остановка</t>
+  </si>
+  <si>
+    <t>Конечная</t>
+  </si>
+  <si>
+    <t>Автовокзал</t>
+  </si>
+  <si>
+    <t>Диспетчерская станция</t>
+  </si>
+  <si>
+    <t>Гостиница</t>
+  </si>
+  <si>
+    <t>Площадь</t>
+  </si>
+  <si>
+    <t>Проспект</t>
+  </si>
+  <si>
+    <t>Станция метро</t>
+  </si>
+  <si>
+    <t>Улица</t>
+  </si>
+  <si>
+    <t>ostor</t>
+  </si>
+  <si>
+    <t>kanc</t>
+  </si>
+  <si>
+    <t>av</t>
+  </si>
+  <si>
+    <t>ds</t>
+  </si>
+  <si>
+    <t>gos</t>
+  </si>
+  <si>
+    <t>ko</t>
+  </si>
+  <si>
+    <t>pl</t>
+  </si>
+  <si>
+    <t>pr</t>
+  </si>
+  <si>
+    <t>sm</t>
+  </si>
+  <si>
+    <t>ul</t>
+  </si>
+  <si>
+    <t>Папка с озвучкой констант</t>
+  </si>
+  <si>
+    <t>Папка с озвучкой остановок</t>
+  </si>
+  <si>
+    <t>mp3_knst</t>
+  </si>
+  <si>
+    <t>mp3_ost</t>
+  </si>
+  <si>
+    <t>ost</t>
+  </si>
+  <si>
+    <t>Остор., дв. закр. След. ост.</t>
+  </si>
+  <si>
+    <t>5ssh</t>
+  </si>
+  <si>
+    <t>8marta</t>
+  </si>
+  <si>
+    <t>8mikra</t>
+  </si>
+  <si>
+    <t>8ssh</t>
+  </si>
+  <si>
+    <t>50letokt</t>
+  </si>
+  <si>
+    <t>avtomobi</t>
+  </si>
+  <si>
+    <t>avtostan</t>
+  </si>
+  <si>
+    <t>azs</t>
+  </si>
+  <si>
+    <t>bajora</t>
+  </si>
+  <si>
+    <t>belaz</t>
+  </si>
+  <si>
+    <t>boguslav</t>
+  </si>
+  <si>
+    <t>bol`nica</t>
+  </si>
+  <si>
+    <t>carkva</t>
+  </si>
+  <si>
+    <t>darojnay</t>
+  </si>
+  <si>
+    <t>elseti</t>
+  </si>
+  <si>
+    <t>gagarina</t>
+  </si>
+  <si>
+    <t>gdk</t>
+  </si>
+  <si>
+    <t>inst-zem</t>
+  </si>
+  <si>
+    <t>inst-zve</t>
+  </si>
+  <si>
+    <t>itk</t>
+  </si>
+  <si>
+    <t>jd</t>
+  </si>
+  <si>
+    <t>jen-gimn</t>
+  </si>
+  <si>
+    <t>kalinina</t>
+  </si>
+  <si>
+    <t>kastel</t>
+  </si>
+  <si>
+    <t>kladbvos</t>
+  </si>
+  <si>
+    <t>kupriyan</t>
+  </si>
+  <si>
+    <t>kztsh</t>
+  </si>
+  <si>
+    <t>lag</t>
+  </si>
+  <si>
+    <t>lenina</t>
+  </si>
+  <si>
+    <t>leninska</t>
+  </si>
+  <si>
+    <t>lesnaya</t>
+  </si>
+  <si>
+    <t>lesoceh</t>
+  </si>
+  <si>
+    <t>magazin</t>
+  </si>
+  <si>
+    <t>magistra</t>
+  </si>
+  <si>
+    <t>mira</t>
+  </si>
+  <si>
+    <t>moskovsk</t>
+  </si>
+  <si>
+    <t>nagornay</t>
+  </si>
+  <si>
+    <t>ostrovsk</t>
+  </si>
+  <si>
+    <t>paliklin</t>
+  </si>
+  <si>
+    <t>partizan</t>
+  </si>
+  <si>
+    <t>pochta</t>
+  </si>
+  <si>
+    <t>pojarnay</t>
+  </si>
+  <si>
+    <t>pyaschan</t>
+  </si>
+  <si>
+    <t>rokosovs</t>
+  </si>
+  <si>
+    <t>rwnok</t>
+  </si>
+  <si>
+    <t>sberbank</t>
+  </si>
+  <si>
+    <t>skarwnw</t>
+  </si>
+  <si>
+    <t>sudob-kl</t>
+  </si>
+  <si>
+    <t>suhogrya</t>
+  </si>
+  <si>
+    <t>svitanak</t>
+  </si>
+  <si>
+    <t>swrokvas</t>
+  </si>
+  <si>
+    <t>tamoj</t>
+  </si>
+  <si>
+    <t>tc</t>
+  </si>
+  <si>
+    <t>tec</t>
+  </si>
+  <si>
+    <t>truda</t>
+  </si>
+  <si>
+    <t>universa</t>
+  </si>
+  <si>
+    <t>vch</t>
+  </si>
+  <si>
+    <t>venis`e</t>
+  </si>
+  <si>
+    <t>yunost`</t>
+  </si>
+  <si>
+    <t>Наименование</t>
+  </si>
+  <si>
+    <t>ИТК-8</t>
+  </si>
+  <si>
+    <t>Женская гимназия</t>
+  </si>
+  <si>
+    <t>ЖД Вокзал</t>
+  </si>
+  <si>
+    <t>ул.Калинина</t>
+  </si>
+  <si>
+    <t>ул.Московская</t>
+  </si>
+  <si>
+    <t>ул.Партизанская</t>
+  </si>
+  <si>
+    <t>ул.Сырокваша</t>
+  </si>
+  <si>
+    <t>пр-т Мира</t>
+  </si>
+  <si>
+    <t>ул.Гагарина</t>
+  </si>
+  <si>
+    <t>СШ № 5</t>
+  </si>
+  <si>
+    <t>ул.Рокоссовского</t>
+  </si>
+  <si>
+    <t>ул.Бажора</t>
+  </si>
+  <si>
+    <t>8 микрорайон</t>
+  </si>
+  <si>
+    <t>СШ № 8</t>
+  </si>
+  <si>
+    <t>Магазин</t>
+  </si>
+  <si>
+    <t>Перекресток</t>
+  </si>
+  <si>
+    <t>Автостанция</t>
+  </si>
+  <si>
+    <t>АЗС</t>
+  </si>
+  <si>
+    <t>Бажора</t>
+  </si>
+  <si>
+    <t>Больница</t>
+  </si>
+  <si>
+    <t>Что звучит</t>
+  </si>
+  <si>
+    <t>Пятая сярэдняя школа</t>
+  </si>
+  <si>
+    <t>Восьмага сакавiка</t>
+  </si>
+  <si>
+    <t>Озвучка</t>
+  </si>
+  <si>
+    <t>проф.</t>
+  </si>
+  <si>
+    <t>любит.</t>
+  </si>
+  <si>
+    <t>Восьмы мiкрараён</t>
+  </si>
+  <si>
+    <t>Восьмая сярэдняя школа</t>
+  </si>
+  <si>
+    <t>Пятiдзесяцiгодзя кастрычнiка</t>
+  </si>
+  <si>
+    <t>Магазiн</t>
+  </si>
+  <si>
+    <t>Перакрыжаванне</t>
+  </si>
+  <si>
+    <t>метро</t>
+  </si>
+  <si>
+    <t>Аутамабiлiстау</t>
+  </si>
+  <si>
+    <t>Аутастанцыя</t>
+  </si>
+  <si>
+    <t>Транспартная прахадная БелАЗ</t>
+  </si>
+  <si>
+    <t>Багуслау Поле</t>
+  </si>
+  <si>
+    <t>Гарадская бальнiца</t>
+  </si>
+  <si>
+    <t>Царква</t>
+  </si>
+  <si>
+    <t>Церковь</t>
+  </si>
+  <si>
+    <t>Дарожная</t>
+  </si>
+  <si>
+    <t>Электрасецi</t>
+  </si>
+  <si>
+    <t>Электросети</t>
+  </si>
+  <si>
+    <t>Гагарына</t>
+  </si>
+  <si>
+    <t>Гарадскi палац культуры i адпачынку</t>
+  </si>
+  <si>
+    <t>Дом культуры</t>
+  </si>
+  <si>
+    <t>Беларускi iнстытут земляробства</t>
+  </si>
+  <si>
+    <t>Беларускi iнстытут жывёлагадоулi</t>
+  </si>
+  <si>
+    <t>Выпрауленчая установа нумар восем</t>
+  </si>
+  <si>
+    <t>Чыгуначны вакзал</t>
+  </si>
+  <si>
+    <t>Жаночая гiмназiя</t>
+  </si>
+  <si>
+    <t>Калiнiна</t>
+  </si>
+  <si>
+    <t>Костел</t>
+  </si>
+  <si>
+    <t>Вост.кладб.</t>
+  </si>
+  <si>
+    <t>КЗТШ</t>
+  </si>
+  <si>
+    <t>пр-т Ленина</t>
+  </si>
+  <si>
+    <t>Праспект Ленiна</t>
+  </si>
+  <si>
+    <t>Ленинская</t>
+  </si>
+  <si>
+    <t>Лясная</t>
+  </si>
+  <si>
+    <t>Лесоцех</t>
+  </si>
+  <si>
+    <t>Магазин Рублевский</t>
+  </si>
+  <si>
+    <t>Магiстральная</t>
+  </si>
+  <si>
+    <t>Праспект Мiру</t>
+  </si>
+  <si>
+    <t>Маскоуская</t>
+  </si>
+  <si>
+    <t>Нагорная</t>
+  </si>
+  <si>
+    <t>Астроускага</t>
+  </si>
+  <si>
+    <t>Поликлиника</t>
+  </si>
+  <si>
+    <t>Палiклiнiка</t>
+  </si>
+  <si>
+    <t>Касцёл</t>
+  </si>
+  <si>
+    <t>Купрыянава</t>
+  </si>
+  <si>
+    <t>Кузнечны завод цяжкiх штамповак</t>
+  </si>
+  <si>
+    <t>Лагойская</t>
+  </si>
+  <si>
+    <t>Лесацех</t>
+  </si>
+  <si>
+    <t>Партызанская</t>
+  </si>
+  <si>
+    <t>Почта</t>
+  </si>
+  <si>
+    <t>Адзяленне паштовай сувязi</t>
+  </si>
+  <si>
+    <t>Пожарная</t>
+  </si>
+  <si>
+    <t>Пажарная</t>
+  </si>
+  <si>
+    <t>Пясчаная</t>
+  </si>
+  <si>
+    <t>Ракасоускага</t>
+  </si>
+  <si>
+    <t>Стодедовский</t>
+  </si>
+  <si>
+    <t>Рынак Стадедаускi</t>
+  </si>
+  <si>
+    <t>Сбербанк</t>
+  </si>
+  <si>
+    <t>пр-т Скорины</t>
+  </si>
+  <si>
+    <t>Праспект Скарыны</t>
+  </si>
+  <si>
+    <t>Могiлкi Усходняе</t>
+  </si>
+  <si>
+    <t>Судоб.кладб.</t>
+  </si>
+  <si>
+    <t>Могiлкi Судабоускае</t>
+  </si>
+  <si>
+    <t>Сухаградская</t>
+  </si>
+  <si>
+    <t>Свитанок</t>
+  </si>
+  <si>
+    <t>Акцыянернае таварыства Свiтанак</t>
+  </si>
+  <si>
+    <t>Дзьмiтрыя Сыракваша</t>
+  </si>
+  <si>
+    <t>Таможня</t>
+  </si>
+  <si>
+    <t>Мытны</t>
+  </si>
+  <si>
+    <t>Торг.центр</t>
+  </si>
+  <si>
+    <t>Тарговы цэнтр</t>
+  </si>
+  <si>
+    <t>ТЭЦ</t>
+  </si>
+  <si>
+    <t>Жодзiнская ТЭЦ</t>
+  </si>
+  <si>
+    <t>Працы</t>
+  </si>
+  <si>
+    <t>Универсам</t>
+  </si>
+  <si>
+    <t>Унiверсам центральны</t>
+  </si>
+  <si>
+    <t>Воинская часть</t>
+  </si>
+  <si>
+    <t>Вайсковая часць</t>
+  </si>
+  <si>
+    <t>пр-т Венисье</t>
+  </si>
+  <si>
+    <t>Праспект Венiс'е</t>
+  </si>
+  <si>
+    <t>к/т Юность</t>
+  </si>
+  <si>
+    <t>Кінатэатр Юнасць</t>
+  </si>
+  <si>
+    <t>Инст. земледелия</t>
+  </si>
+  <si>
+    <t>Инст. животновод.</t>
+  </si>
+  <si>
+    <t>маг. Рублевский</t>
+  </si>
+  <si>
+    <t>Транс.прох. БелАЗ</t>
+  </si>
+  <si>
+    <t>Префикс
+озвучки</t>
+  </si>
+  <si>
+    <t>ул.50 лет Октяб.</t>
+  </si>
+  <si>
+    <t>ул.8 Марта</t>
+  </si>
+  <si>
+    <t>ул.Автомобилист.</t>
+  </si>
+  <si>
+    <t>ул.Богуслав Поле</t>
+  </si>
+  <si>
+    <t>ул.Дорожная</t>
+  </si>
+  <si>
+    <t>ул.Куприянова</t>
+  </si>
+  <si>
+    <t>ул.Ленинская</t>
+  </si>
+  <si>
+    <t>ул.Лесная</t>
+  </si>
+  <si>
+    <t>ул.Логойская</t>
+  </si>
+  <si>
+    <t>ул.Магистральная</t>
+  </si>
+  <si>
+    <t>ул.Нагорная</t>
+  </si>
+  <si>
+    <t>ул.Островская</t>
+  </si>
+  <si>
+    <t>ул.Песчаная</t>
+  </si>
+  <si>
+    <t>ул.Сухогрядская</t>
+  </si>
+  <si>
+    <t>ул.Труда</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -341,6 +996,13 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -368,7 +1030,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -409,6 +1071,14 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -688,19 +1358,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="45.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>77</v>
       </c>
@@ -708,12 +1378,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>78</v>
       </c>
       <c r="B2">
         <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -722,25 +1408,25 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="60.625" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>81</v>
       </c>
       <c r="B1" s="2">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="2"/>
@@ -748,26 +1434,26 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,3,4,1,"route"))</f>
-        <v>napalki</v>
-      </c>
-      <c r="E2" s="15" t="str">
+        <v>logoisk</v>
+      </c>
+      <c r="E2" s="16" t="str">
         <f ca="1">"&lt;unit"&amp;NomZagMar&amp;"&gt; """&amp;$A$3&amp;""""&amp;" {i 0, t 002, l "&amp;$A$4&amp;" "&amp;$A$4&amp;", d 000}"</f>
-        <v>&lt;unit100&gt; "Напалки" {i 0, t 002, l 211 211, d 000}</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>&lt;unit100&gt; "Логойск" {i 0, t 002, l 209 209, d 000}</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,2,4,1,"route"))</f>
-        <v>Напалки</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>Логойск</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="str">
         <f ca="1">TEXT(INDIRECT(ADDRESS($B$1,1,4,1,"route")),"000")</f>
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -776,25 +1462,25 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="60.625" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>81</v>
       </c>
       <c r="B1" s="2">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="2"/>
@@ -802,26 +1488,26 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,3,4,1,"route"))</f>
-        <v>sutoki</v>
-      </c>
-      <c r="E2" s="15" t="str">
+        <v>ljutka</v>
+      </c>
+      <c r="E2" s="16" t="str">
         <f ca="1">"&lt;unit"&amp;NomZagMar&amp;"&gt; """&amp;$A$3&amp;""""&amp;" {i 0, t 002, l "&amp;$A$4&amp;" "&amp;$A$4&amp;", d 000}"</f>
-        <v>&lt;unit100&gt; "Сутоки" {i 0, t 002, l 205 205, d 000}</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>&lt;unit100&gt; "Лютка" {i 0, t 002, l 213 213, d 000}</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,2,4,1,"route"))</f>
-        <v>Сутоки</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>Лютка</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="str">
         <f ca="1">TEXT(INDIRECT(ADDRESS($B$1,1,4,1,"route")),"000")</f>
-        <v>205</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -830,25 +1516,25 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="60.625" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>81</v>
       </c>
       <c r="B1" s="2">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="2"/>
@@ -856,26 +1542,26 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,3,4,1,"route"))</f>
-        <v>tochil</v>
-      </c>
-      <c r="E2" s="15" t="str">
+        <v>napalki</v>
+      </c>
+      <c r="E2" s="16" t="str">
         <f ca="1">"&lt;unit"&amp;NomZagMar&amp;"&gt; """&amp;$A$3&amp;""""&amp;" {i 0, t 002, l "&amp;$A$4&amp;" "&amp;$A$4&amp;", d 000}"</f>
-        <v>&lt;unit100&gt; "Точилище" {i 0, t 002, l 207 207, d 000}</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>&lt;unit100&gt; "Напалки" {i 0, t 002, l 211 211, d 000}</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,2,4,1,"route"))</f>
-        <v>Точилище</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>Напалки</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="str">
         <f ca="1">TEXT(INDIRECT(ADDRESS($B$1,1,4,1,"route")),"000")</f>
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -884,25 +1570,25 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="60.625" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>81</v>
       </c>
       <c r="B1" s="2">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="2"/>
@@ -910,26 +1596,26 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,3,4,1,"route"))</f>
-        <v>uzefovo</v>
-      </c>
-      <c r="E2" s="15" t="str">
+        <v>sutoki</v>
+      </c>
+      <c r="E2" s="16" t="str">
         <f ca="1">"&lt;unit"&amp;NomZagMar&amp;"&gt; """&amp;$A$3&amp;""""&amp;" {i 0, t 002, l "&amp;$A$4&amp;" "&amp;$A$4&amp;", d 000}"</f>
-        <v>&lt;unit100&gt; "Юзефово" {i 0, t 002, l 212 212, d 000}</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>&lt;unit100&gt; "Сутоки" {i 0, t 002, l 205 205, d 000}</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,2,4,1,"route"))</f>
-        <v>Юзефово</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>Сутоки</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="str">
         <f ca="1">TEXT(INDIRECT(ADDRESS($B$1,1,4,1,"route")),"000")</f>
-        <v>212</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -938,25 +1624,25 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="60.625" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>81</v>
       </c>
       <c r="B1" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="2"/>
@@ -964,26 +1650,26 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,3,4,1,"route"))</f>
-        <v>jalov</v>
-      </c>
-      <c r="E2" s="15" t="str">
+        <v>tochil</v>
+      </c>
+      <c r="E2" s="16" t="str">
         <f ca="1">"&lt;unit"&amp;NomZagMar&amp;"&gt; """&amp;$A$3&amp;""""&amp;" {i 0, t 002, l "&amp;$A$4&amp;" "&amp;$A$4&amp;", d 000}"</f>
-        <v>&lt;unit100&gt; "Яловица" {i 0, t 002, l 215 215, d 000}</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>&lt;unit100&gt; "Точилище" {i 0, t 002, l 207 207, d 000}</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,2,4,1,"route"))</f>
-        <v>Яловица</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>Точилище</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="str">
         <f ca="1">TEXT(INDIRECT(ADDRESS($B$1,1,4,1,"route")),"000")</f>
-        <v>215</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -992,25 +1678,25 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="60.625" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>81</v>
       </c>
       <c r="B1" s="2">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="2"/>
@@ -1018,26 +1704,26 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,3,4,1,"route"))</f>
-        <v>automob</v>
-      </c>
-      <c r="E2" s="15" t="str">
+        <v>uzefovo</v>
+      </c>
+      <c r="E2" s="16" t="str">
         <f ca="1">"&lt;unit"&amp;NomZagMar&amp;"&gt; """&amp;$A$3&amp;""""&amp;" {i 0, t 002, l "&amp;$A$4&amp;" "&amp;$A$4&amp;", d 000}"</f>
-        <v>&lt;unit100&gt; "с/т Автомобилист" {i 0, t 002, l 217 217, d 000}</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>&lt;unit100&gt; "Юзефово" {i 0, t 002, l 212 212, d 000}</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,2,4,1,"route"))</f>
-        <v>с/т Автомобилист</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>Юзефово</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="str">
         <f ca="1">TEXT(INDIRECT(ADDRESS($B$1,1,4,1,"route")),"000")</f>
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -1046,25 +1732,25 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="60.625" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>81</v>
       </c>
       <c r="B1" s="2">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="2"/>
@@ -1072,26 +1758,26 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,3,4,1,"route"))</f>
-        <v>zhurav</v>
-      </c>
-      <c r="E2" s="15" t="str">
+        <v>jalov</v>
+      </c>
+      <c r="E2" s="16" t="str">
         <f ca="1">"&lt;unit"&amp;NomZagMar&amp;"&gt; """&amp;$A$3&amp;""""&amp;" {i 0, t 002, l "&amp;$A$4&amp;" "&amp;$A$4&amp;", d 000}"</f>
-        <v>&lt;unit100&gt; "с/т Журавинка" {i 0, t 002, l 218 218, d 000}</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>&lt;unit100&gt; "Яловица" {i 0, t 002, l 215 215, d 000}</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,2,4,1,"route"))</f>
-        <v>с/т Журавинка</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>Яловица</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="str">
         <f ca="1">TEXT(INDIRECT(ADDRESS($B$1,1,4,1,"route")),"000")</f>
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -1100,25 +1786,25 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="60.625" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>81</v>
       </c>
       <c r="B1" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="2"/>
@@ -1126,26 +1812,26 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,3,4,1,"route"))</f>
-        <v>pov_zur</v>
-      </c>
-      <c r="E2" s="15" t="str">
+        <v>automob</v>
+      </c>
+      <c r="E2" s="16" t="str">
         <f ca="1">"&lt;unit"&amp;NomZagMar&amp;"&gt; """&amp;$A$3&amp;""""&amp;" {i 0, t 002, l "&amp;$A$4&amp;" "&amp;$A$4&amp;", d 000}"</f>
-        <v>&lt;unit100&gt; "пов. с/т Журавинка" {i 0, t 002, l 318 318, d 000}</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>&lt;unit100&gt; "с/т Автомобилист" {i 0, t 002, l 217 217, d 000}</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,2,4,1,"route"))</f>
-        <v>пов. с/т Журавинка</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>с/т Автомобилист</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="str">
         <f ca="1">TEXT(INDIRECT(ADDRESS($B$1,1,4,1,"route")),"000")</f>
-        <v>318</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -1154,25 +1840,25 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="60.625" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>81</v>
       </c>
       <c r="B1" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="2"/>
@@ -1180,26 +1866,26 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,3,4,1,"route"))</f>
-        <v>raduga</v>
-      </c>
-      <c r="E2" s="15" t="str">
+        <v>zhurav</v>
+      </c>
+      <c r="E2" s="16" t="str">
         <f ca="1">"&lt;unit"&amp;NomZagMar&amp;"&gt; """&amp;$A$3&amp;""""&amp;" {i 0, t 002, l "&amp;$A$4&amp;" "&amp;$A$4&amp;", d 000}"</f>
-        <v>&lt;unit100&gt; "с/т Радуга" {i 0, t 002, l 040 040, d 000}</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>&lt;unit100&gt; "с/т Журавинка" {i 0, t 002, l 218 218, d 000}</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,2,4,1,"route"))</f>
-        <v>с/т Радуга</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>с/т Журавинка</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="str">
         <f ca="1">TEXT(INDIRECT(ADDRESS($B$1,1,4,1,"route")),"000")</f>
-        <v>040</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -1208,25 +1894,25 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="60.625" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>81</v>
       </c>
       <c r="B1" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="2"/>
@@ -1234,26 +1920,26 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,3,4,1,"route"))</f>
-        <v>rodnik</v>
-      </c>
-      <c r="E2" s="15" t="str">
+        <v>pov_zur</v>
+      </c>
+      <c r="E2" s="16" t="str">
         <f ca="1">"&lt;unit"&amp;NomZagMar&amp;"&gt; """&amp;$A$3&amp;""""&amp;" {i 0, t 002, l "&amp;$A$4&amp;" "&amp;$A$4&amp;", d 000}"</f>
-        <v>&lt;unit100&gt; "с/т Родничок" {i 0, t 002, l 214 214, d 000}</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>&lt;unit100&gt; "пов. с/т Журавинка" {i 0, t 002, l 318 318, d 000}</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,2,4,1,"route"))</f>
-        <v>с/т Родничок</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>пов. с/т Журавинка</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="str">
         <f ca="1">TEXT(INDIRECT(ADDRESS($B$1,1,4,1,"route")),"000")</f>
-        <v>214</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -1262,22 +1948,2356 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9B3545D-4820-44C8-A8E6-9D0F72BE936B}">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60.77734375" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2">
+        <v>921</v>
+      </c>
+      <c r="C2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" s="16" t="str">
+        <f>"&lt;unit"&amp;B2&amp;"&gt; """&amp;A2&amp;""""&amp;" {v ""\"&amp;mp3_knst&amp;"\"&amp;C2&amp;".mp3"", w 01}"</f>
+        <v>&lt;unit921&gt; "Автовокзал" {v "\mp3_knst\av.mp3", w 01}</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3">
+        <v>923</v>
+      </c>
+      <c r="C3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" s="16" t="str">
+        <f>"&lt;unit"&amp;B3&amp;"&gt; """&amp;A3&amp;""""&amp;" {v ""\"&amp;mp3_knst&amp;"\"&amp;C3&amp;".mp3"", w 01}"</f>
+        <v>&lt;unit923&gt; "Гостиница" {v "\mp3_knst\gos.mp3", w 01}</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4">
+        <v>922</v>
+      </c>
+      <c r="C4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4" s="16" t="str">
+        <f>"&lt;unit"&amp;B4&amp;"&gt; """&amp;A4&amp;""""&amp;" {v ""\"&amp;mp3_knst&amp;"\"&amp;C4&amp;".mp3"", w 01}"</f>
+        <v>&lt;unit922&gt; "Диспетчерская станция" {v "\mp3_knst\ds.mp3", w 01}</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5">
+        <v>903</v>
+      </c>
+      <c r="C5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="16" t="str">
+        <f>"&lt;unit"&amp;B5&amp;"&gt; """&amp;A5&amp;""""&amp;" {v ""\"&amp;mp3_knst&amp;"\"&amp;C5&amp;".mp3"", w 01}"</f>
+        <v>&lt;unit903&gt; "Конечная" {v "\mp3_knst\kanc.mp3", w 01}</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6">
+        <v>924</v>
+      </c>
+      <c r="C6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" s="16" t="str">
+        <f>"&lt;unit"&amp;B6&amp;"&gt; """&amp;A6&amp;""""&amp;" {v ""\"&amp;mp3_knst&amp;"\"&amp;C6&amp;".mp3"", w 01}"</f>
+        <v>&lt;unit924&gt; "Конечная" {v "\mp3_knst\ko.mp3", w 01}</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7">
+        <v>902</v>
+      </c>
+      <c r="C7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E7" s="16" t="str">
+        <f>"&lt;unit"&amp;B7&amp;"&gt; """&amp;A7&amp;""""&amp;" {v ""\"&amp;mp3_knst&amp;"\"&amp;C7&amp;".mp3"", w 01}"</f>
+        <v>&lt;unit902&gt; "Остановка" {v "\mp3_knst\ost.mp3", w 01}</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B8">
+        <v>900</v>
+      </c>
+      <c r="C8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8" s="16" t="str">
+        <f>"&lt;unit"&amp;B8&amp;"&gt; """&amp;A8&amp;""""&amp;" {v ""\"&amp;mp3_knst&amp;"\"&amp;C8&amp;".mp3"", w 01}"</f>
+        <v>&lt;unit900&gt; "Остор., дв. закр. След. ост." {v "\mp3_knst\ostor.mp3", w 01}</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9">
+        <v>925</v>
+      </c>
+      <c r="C9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" s="16" t="str">
+        <f>"&lt;unit"&amp;B9&amp;"&gt; """&amp;A9&amp;""""&amp;" {v ""\"&amp;mp3_knst&amp;"\"&amp;C9&amp;".mp3"", w 01}"</f>
+        <v>&lt;unit925&gt; "Площадь" {v "\mp3_knst\pl.mp3", w 01}</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10">
+        <v>926</v>
+      </c>
+      <c r="C10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E10" s="16" t="str">
+        <f>"&lt;unit"&amp;B10&amp;"&gt; """&amp;A10&amp;""""&amp;" {v ""\"&amp;mp3_knst&amp;"\"&amp;C10&amp;".mp3"", w 01}"</f>
+        <v>&lt;unit926&gt; "Проспект" {v "\mp3_knst\pr.mp3", w 01}</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B11">
+        <v>927</v>
+      </c>
+      <c r="C11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E11" s="16" t="str">
+        <f>"&lt;unit"&amp;B11&amp;"&gt; """&amp;A11&amp;""""&amp;" {v ""\"&amp;mp3_knst&amp;"\"&amp;C11&amp;".mp3"", w 01}"</f>
+        <v>&lt;unit927&gt; "Станция метро" {v "\mp3_knst\sm.mp3", w 01}</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12">
+        <v>928</v>
+      </c>
+      <c r="C12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E12" s="16" t="str">
+        <f>"&lt;unit"&amp;B12&amp;"&gt; """&amp;A12&amp;""""&amp;" {v ""\"&amp;mp3_knst&amp;"\"&amp;C12&amp;".mp3"", w 01}"</f>
+        <v>&lt;unit928&gt; "Улица" {v "\mp3_knst\ul.mp3", w 01}</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:E12">
+    <sortCondition ref="A2:A12"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="2">
+        <v>34</v>
+      </c>
+      <c r="C1" s="13"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="str">
+        <f ca="1">INDIRECT(ADDRESS($B$1,3,4,1,"route"))</f>
+        <v>raduga</v>
+      </c>
+      <c r="E2" s="16" t="str">
+        <f ca="1">"&lt;unit"&amp;NomZagMar&amp;"&gt; """&amp;$A$3&amp;""""&amp;" {i 0, t 002, l "&amp;$A$4&amp;" "&amp;$A$4&amp;", d 000}"</f>
+        <v>&lt;unit100&gt; "с/т Радуга" {i 0, t 002, l 040 040, d 000}</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="str">
+        <f ca="1">INDIRECT(ADDRESS($B$1,2,4,1,"route"))</f>
+        <v>с/т Радуга</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="str">
+        <f ca="1">TEXT(INDIRECT(ADDRESS($B$1,1,4,1,"route")),"000")</f>
+        <v>040</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="2">
+        <v>35</v>
+      </c>
+      <c r="C1" s="13"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="str">
+        <f ca="1">INDIRECT(ADDRESS($B$1,3,4,1,"route"))</f>
+        <v>rodnik</v>
+      </c>
+      <c r="E2" s="16" t="str">
+        <f ca="1">"&lt;unit"&amp;NomZagMar&amp;"&gt; """&amp;$A$3&amp;""""&amp;" {i 0, t 002, l "&amp;$A$4&amp;" "&amp;$A$4&amp;", d 000}"</f>
+        <v>&lt;unit100&gt; "с/т Родничок" {i 0, t 002, l 214 214, d 000}</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="str">
+        <f ca="1">INDIRECT(ADDRESS($B$1,2,4,1,"route"))</f>
+        <v>с/т Родничок</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="str">
+        <f ca="1">TEXT(INDIRECT(ADDRESS($B$1,1,4,1,"route")),"000")</f>
+        <v>214</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="2">
+        <v>36</v>
+      </c>
+      <c r="C1" s="13"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="str">
+        <f ca="1">INDIRECT(ADDRESS($B$1,3,4,1,"route"))</f>
+        <v>stroit</v>
+      </c>
+      <c r="E2" s="16" t="str">
+        <f ca="1">"&lt;unit"&amp;NomZagMar&amp;"&gt; """&amp;$A$3&amp;""""&amp;" {i 0, t 002, l "&amp;$A$4&amp;" "&amp;$A$4&amp;", d 000}"</f>
+        <v>&lt;unit100&gt; "с/т Строитель" {i 0, t 002, l 307 307, d 000}</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="str">
+        <f ca="1">INDIRECT(ADDRESS($B$1,2,4,1,"route"))</f>
+        <v>с/т Строитель</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="str">
+        <f ca="1">TEXT(INDIRECT(ADDRESS($B$1,1,4,1,"route")),"000")</f>
+        <v>307</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="2">
+        <v>38</v>
+      </c>
+      <c r="C1" s="13"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="str">
+        <f ca="1">INDIRECT(ADDRESS($B$1,3,4,1,"route"))</f>
+        <v>sluzhebn</v>
+      </c>
+      <c r="E2" s="16" t="str">
+        <f ca="1">"&lt;unit"&amp;NomZagMar&amp;"&gt; """&amp;$A$3&amp;""""&amp;" {i 0, t 002, l "&amp;$A$4&amp;" "&amp;$A$4&amp;", d 000}"</f>
+        <v>&lt;unit100&gt; "СЛУЖЕБНЫЙ" {i 0, t 002, l 316 316, d 000}</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="str">
+        <f ca="1">INDIRECT(ADDRESS($B$1,2,4,1,"route"))</f>
+        <v>СЛУЖЕБНЫЙ</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="str">
+        <f ca="1">TEXT(INDIRECT(ADDRESS($B$1,1,4,1,"route")),"000")</f>
+        <v>316</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="2">
+        <v>39</v>
+      </c>
+      <c r="C1" s="13"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="str">
+        <f ca="1">INDIRECT(ADDRESS($B$1,3,4,1,"route"))</f>
+        <v>zakaz</v>
+      </c>
+      <c r="E2" s="16" t="str">
+        <f ca="1">"&lt;unit"&amp;NomZagMar&amp;"&gt; """&amp;$A$3&amp;""""&amp;" {i 0, t 002, l "&amp;$A$4&amp;" "&amp;$A$4&amp;", d 000}"</f>
+        <v>&lt;unit100&gt; "ЗАКАЗНОЙ" {i 0, t 002, l 201 201, d 000}</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="str">
+        <f ca="1">INDIRECT(ADDRESS($B$1,2,4,1,"route"))</f>
+        <v>ЗАКАЗНОЙ</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="str">
+        <f ca="1">TEXT(INDIRECT(ADDRESS($B$1,1,4,1,"route")),"000")</f>
+        <v>201</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="2">
+        <v>40</v>
+      </c>
+      <c r="C1" s="13"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="str">
+        <f ca="1">INDIRECT(ADDRESS($B$1,3,4,1,"route"))</f>
+        <v>snekpro</v>
+      </c>
+      <c r="E2" s="16" t="str">
+        <f ca="1">"&lt;unit"&amp;NomZagMar&amp;"&gt; """&amp;$A$3&amp;""""&amp;" {i 0, t 002, l "&amp;$A$4&amp;" "&amp;$A$4&amp;", d 000}"</f>
+        <v>&lt;unit100&gt; "СНЕКПРО" {i 0, t 002, l 618 618, d 000}</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="str">
+        <f ca="1">INDIRECT(ADDRESS($B$1,2,4,1,"route"))</f>
+        <v>СНЕКПРО</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="str">
+        <f ca="1">TEXT(INDIRECT(ADDRESS($B$1,1,4,1,"route")),"000")</f>
+        <v>618</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="2">
+        <v>41</v>
+      </c>
+      <c r="C1" s="13"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="str">
+        <f ca="1">INDIRECT(ADDRESS($B$1,3,4,1,"route"))</f>
+        <v>deti</v>
+      </c>
+      <c r="E2" s="16" t="str">
+        <f ca="1">"&lt;unit"&amp;NomZagMar&amp;"&gt; """&amp;$A$3&amp;""""&amp;" {i 0, t 002, l "&amp;$A$4&amp;" "&amp;$A$4&amp;", d 000}"</f>
+        <v>&lt;unit100&gt; "ДЕТИ" {i 0, t 002, l 202 202, d 000}</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="str">
+        <f ca="1">INDIRECT(ADDRESS($B$1,2,4,1,"route"))</f>
+        <v>ДЕТИ</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="str">
+        <f ca="1">TEXT(INDIRECT(ADDRESS($B$1,1,4,1,"route")),"000")</f>
+        <v>202</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="2">
+        <v>42</v>
+      </c>
+      <c r="C1" s="13"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="str">
+        <f ca="1">INDIRECT(ADDRESS($B$1,3,4,1,"route"))</f>
+        <v>v_park</v>
+      </c>
+      <c r="E2" s="16" t="str">
+        <f ca="1">"&lt;unit"&amp;NomZagMar&amp;"&gt; """&amp;$A$3&amp;""""&amp;" {i 0, t 002, l "&amp;$A$4&amp;" "&amp;$A$4&amp;", d 000}"</f>
+        <v>&lt;unit100&gt; "В ПАРК" {i 0, t 002, l 203 203, d 000}</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="str">
+        <f ca="1">INDIRECT(ADDRESS($B$1,2,4,1,"route"))</f>
+        <v>В ПАРК</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="str">
+        <f ca="1">TEXT(INDIRECT(ADDRESS($B$1,1,4,1,"route")),"000")</f>
+        <v>203</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97F22EDD-E432-4467-B015-C349DE7ACC0C}">
+  <dimension ref="A1:H62"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="H52" sqref="H52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.88671875" style="19" customWidth="1"/>
+    <col min="7" max="7" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="30.15" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>280</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" s="18"/>
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F2" s="19" t="str">
+        <f>IFERROR("c "&amp;VLOOKUP(A2,Punkti,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G2" t="str">
+        <f>"v ""\"&amp;mp3_ost&amp;"\"&amp;E2&amp;".mp3"""</f>
+        <v>v "\mp3_ost\8mikra.mp3"</v>
+      </c>
+      <c r="H2" t="str">
+        <f t="shared" ref="H2:H62" si="0">_xlfn.TEXTJOIN(", ",TRUE,F2:G2)</f>
+        <v>v "\mp3_ost\8mikra.mp3"</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="F3" s="19" t="str">
+        <f>IFERROR("c "&amp;VLOOKUP(A3,Punkti,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G3" t="str">
+        <f>"v ""\"&amp;mp3_ost&amp;"\"&amp;E3&amp;".mp3"""</f>
+        <v>v "\mp3_ost\avtostan.mp3"</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" si="0"/>
+        <v>v "\mp3_ost\avtostan.mp3"</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D4" t="s">
+        <v>194</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="F4" s="19" t="str">
+        <f>IFERROR("c "&amp;VLOOKUP(A4,Punkti,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G4" t="str">
+        <f>"v ""\"&amp;mp3_ost&amp;"\"&amp;E4&amp;".mp3"""</f>
+        <v>v "\mp3_ost\azs.mp3"</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="0"/>
+        <v>v "\mp3_ost\azs.mp3"</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C5" t="s">
+        <v>206</v>
+      </c>
+      <c r="D5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="F5" s="19" t="str">
+        <f>IFERROR("c "&amp;VLOOKUP(A5,Punkti,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G5" t="str">
+        <f>"v ""\"&amp;mp3_ost&amp;"\"&amp;E5&amp;".mp3"""</f>
+        <v>v "\mp3_ost\bol`nica.mp3"</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="0"/>
+        <v>v "\mp3_ost\bol`nica.mp3"</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>270</v>
+      </c>
+      <c r="C6" t="s">
+        <v>271</v>
+      </c>
+      <c r="D6" t="s">
+        <v>194</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="F6" s="19" t="str">
+        <f>IFERROR("c "&amp;VLOOKUP(A6,Punkti,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G6" t="str">
+        <f>"v ""\"&amp;mp3_ost&amp;"\"&amp;E6&amp;".mp3"""</f>
+        <v>v "\mp3_ost\vch.mp3"</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="0"/>
+        <v>v "\mp3_ost\vch.mp3"</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C7" t="s">
+        <v>254</v>
+      </c>
+      <c r="D7" t="s">
+        <v>194</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="F7" s="19" t="str">
+        <f>IFERROR("c "&amp;VLOOKUP(A7,Punkti,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G7" t="str">
+        <f>"v ""\"&amp;mp3_ost&amp;"\"&amp;E7&amp;".mp3"""</f>
+        <v>v "\mp3_ost\kladbvos.mp3"</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="0"/>
+        <v>v "\mp3_ost\kladbvos.mp3"</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>214</v>
+      </c>
+      <c r="C8" t="s">
+        <v>213</v>
+      </c>
+      <c r="D8" t="s">
+        <v>194</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="F8" s="19" t="str">
+        <f>IFERROR("c "&amp;VLOOKUP(A8,Punkti,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G8" t="str">
+        <f>"v ""\"&amp;mp3_ost&amp;"\"&amp;E8&amp;".mp3"""</f>
+        <v>v "\mp3_ost\gdk.mp3"</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="0"/>
+        <v>v "\mp3_ost\gdk.mp3"</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>172</v>
+      </c>
+      <c r="C9" t="s">
+        <v>218</v>
+      </c>
+      <c r="D9" t="s">
+        <v>194</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="F9" s="19" t="str">
+        <f>IFERROR("c "&amp;VLOOKUP(A9,Punkti,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G9" t="str">
+        <f>"v ""\"&amp;mp3_ost&amp;"\"&amp;E9&amp;".mp3"""</f>
+        <v>v "\mp3_ost\jd.mp3"</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="0"/>
+        <v>v "\mp3_ost\jd.mp3"</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>171</v>
+      </c>
+      <c r="C10" t="s">
+        <v>219</v>
+      </c>
+      <c r="D10" t="s">
+        <v>194</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="F10" s="19" t="str">
+        <f>IFERROR("c "&amp;VLOOKUP(A10,Punkti,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G10" t="str">
+        <f>"v ""\"&amp;mp3_ost&amp;"\"&amp;E10&amp;".mp3"""</f>
+        <v>v "\mp3_ost\jen-gimn.mp3"</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="0"/>
+        <v>v "\mp3_ost\jen-gimn.mp3"</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>277</v>
+      </c>
+      <c r="C11" t="s">
+        <v>216</v>
+      </c>
+      <c r="D11" t="s">
+        <v>194</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="F11" s="19" t="str">
+        <f>IFERROR("c "&amp;VLOOKUP(A11,Punkti,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G11" t="str">
+        <f>"v ""\"&amp;mp3_ost&amp;"\"&amp;E11&amp;".mp3"""</f>
+        <v>v "\mp3_ost\inst-zve.mp3"</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="0"/>
+        <v>v "\mp3_ost\inst-zve.mp3"</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>276</v>
+      </c>
+      <c r="C12" t="s">
+        <v>215</v>
+      </c>
+      <c r="D12" t="s">
+        <v>194</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="F12" s="19" t="str">
+        <f>IFERROR("c "&amp;VLOOKUP(A12,Punkti,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G12" t="str">
+        <f>"v ""\"&amp;mp3_ost&amp;"\"&amp;E12&amp;".mp3"""</f>
+        <v>v "\mp3_ost\inst-zem.mp3"</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="0"/>
+        <v>v "\mp3_ost\inst-zem.mp3"</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>170</v>
+      </c>
+      <c r="C13" t="s">
+        <v>217</v>
+      </c>
+      <c r="D13" t="s">
+        <v>194</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F13" s="19" t="str">
+        <f>IFERROR("c "&amp;VLOOKUP(A13,Punkti,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G13" t="str">
+        <f>"v ""\"&amp;mp3_ost&amp;"\"&amp;E13&amp;".mp3"""</f>
+        <v>v "\mp3_ost\itk.mp3"</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="0"/>
+        <v>v "\mp3_ost\itk.mp3"</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>274</v>
+      </c>
+      <c r="C14" t="s">
+        <v>275</v>
+      </c>
+      <c r="D14" t="s">
+        <v>194</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="F14" s="19" t="str">
+        <f>IFERROR("c "&amp;VLOOKUP(A14,Punkti,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G14" t="str">
+        <f>"v ""\"&amp;mp3_ost&amp;"\"&amp;E14&amp;".mp3"""</f>
+        <v>v "\mp3_ost\yunost`.mp3"</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="0"/>
+        <v>v "\mp3_ost\yunost`.mp3"</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>223</v>
+      </c>
+      <c r="C15" t="s">
+        <v>239</v>
+      </c>
+      <c r="D15" t="s">
+        <v>194</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="F15" s="19" t="str">
+        <f>IFERROR("c "&amp;VLOOKUP(A15,Punkti,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G15" t="str">
+        <f>"v ""\"&amp;mp3_ost&amp;"\"&amp;E15&amp;".mp3"""</f>
+        <v>v "\mp3_ost\kztsh.mp3"</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="0"/>
+        <v>v "\mp3_ost\kztsh.mp3"</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>221</v>
+      </c>
+      <c r="C16" t="s">
+        <v>237</v>
+      </c>
+      <c r="D16" t="s">
+        <v>194</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="F16" s="19" t="str">
+        <f>IFERROR("c "&amp;VLOOKUP(A16,Punkti,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G16" t="str">
+        <f>"v ""\"&amp;mp3_ost&amp;"\"&amp;E16&amp;".mp3"""</f>
+        <v>v "\mp3_ost\kastel.mp3"</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="0"/>
+        <v>v "\mp3_ost\kastel.mp3"</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>228</v>
+      </c>
+      <c r="C17" t="s">
+        <v>241</v>
+      </c>
+      <c r="D17" t="s">
+        <v>194</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F17" s="19" t="str">
+        <f>IFERROR("c "&amp;VLOOKUP(A17,Punkti,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G17" t="str">
+        <f>"v ""\"&amp;mp3_ost&amp;"\"&amp;E17&amp;".mp3"""</f>
+        <v>v "\mp3_ost\lesoceh.mp3"</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="0"/>
+        <v>v "\mp3_ost\lesoceh.mp3"</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>278</v>
+      </c>
+      <c r="C18" t="s">
+        <v>229</v>
+      </c>
+      <c r="D18" t="s">
+        <v>195</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="F18" s="19" t="str">
+        <f>IFERROR("c "&amp;VLOOKUP(A18,Punkti,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G18" t="str">
+        <f>"v ""\"&amp;mp3_ost&amp;"\"&amp;E18&amp;".mp3"""</f>
+        <v>v "\mp3_ost\magazin.mp3"</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="0"/>
+        <v>v "\mp3_ost\magazin.mp3"</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>184</v>
+      </c>
+      <c r="C19" t="s">
+        <v>199</v>
+      </c>
+      <c r="D19" t="s">
+        <v>201</v>
+      </c>
+      <c r="E19" s="9">
+        <v>308</v>
+      </c>
+      <c r="F19" s="19" t="str">
+        <f>IFERROR("c "&amp;VLOOKUP(A19,Punkti,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G19" t="str">
+        <f>"v ""\"&amp;mp3_ost&amp;"\"&amp;E19&amp;".mp3"""</f>
+        <v>v "\mp3_ost\308.mp3"</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="0"/>
+        <v>v "\mp3_ost\308.mp3"</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>185</v>
+      </c>
+      <c r="C20" t="s">
+        <v>200</v>
+      </c>
+      <c r="D20" t="s">
+        <v>201</v>
+      </c>
+      <c r="E20" s="9">
+        <v>936</v>
+      </c>
+      <c r="F20" s="19" t="str">
+        <f>IFERROR("c "&amp;VLOOKUP(A20,Punkti,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G20" t="str">
+        <f>"v ""\"&amp;mp3_ost&amp;"\"&amp;E20&amp;".mp3"""</f>
+        <v>v "\mp3_ost\936.mp3"</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="0"/>
+        <v>v "\mp3_ost\936.mp3"</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>245</v>
+      </c>
+      <c r="C21" t="s">
+        <v>246</v>
+      </c>
+      <c r="D21" t="s">
+        <v>194</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="F21" s="19" t="str">
+        <f>IFERROR("c "&amp;VLOOKUP(A21,Punkti,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G21" t="str">
+        <f>"v ""\"&amp;mp3_ost&amp;"\"&amp;E21&amp;".mp3"""</f>
+        <v>v "\mp3_ost\pojarnay.mp3"</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="0"/>
+        <v>v "\mp3_ost\pojarnay.mp3"</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>235</v>
+      </c>
+      <c r="C22" t="s">
+        <v>236</v>
+      </c>
+      <c r="D22" t="s">
+        <v>194</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="F22" s="19" t="str">
+        <f>IFERROR("c "&amp;VLOOKUP(A22,Punkti,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G22" t="str">
+        <f>"v ""\"&amp;mp3_ost&amp;"\"&amp;E22&amp;".mp3"""</f>
+        <v>v "\mp3_ost\paliklin.mp3"</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="0"/>
+        <v>v "\mp3_ost\paliklin.mp3"</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>243</v>
+      </c>
+      <c r="C23" t="s">
+        <v>244</v>
+      </c>
+      <c r="D23" t="s">
+        <v>194</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="F23" s="19" t="str">
+        <f>IFERROR("c "&amp;VLOOKUP(A23,Punkti,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G23" t="str">
+        <f>"v ""\"&amp;mp3_ost&amp;"\"&amp;E23&amp;".mp3"""</f>
+        <v>v "\mp3_ost\pochta.mp3"</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="0"/>
+        <v>v "\mp3_ost\pochta.mp3"</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>272</v>
+      </c>
+      <c r="C24" t="s">
+        <v>273</v>
+      </c>
+      <c r="D24" t="s">
+        <v>194</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="F24" s="19" t="str">
+        <f>IFERROR("c "&amp;VLOOKUP(A24,Punkti,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G24" t="str">
+        <f>"v ""\"&amp;mp3_ost&amp;"\"&amp;E24&amp;".mp3"""</f>
+        <v>v "\mp3_ost\venis`e.mp3"</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="0"/>
+        <v>v "\mp3_ost\venis`e.mp3"</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>224</v>
+      </c>
+      <c r="C25" t="s">
+        <v>225</v>
+      </c>
+      <c r="D25" t="s">
+        <v>194</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F25" s="19" t="str">
+        <f>IFERROR("c "&amp;VLOOKUP(A25,Punkti,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G25" t="str">
+        <f>"v ""\"&amp;mp3_ost&amp;"\"&amp;E25&amp;".mp3"""</f>
+        <v>v "\mp3_ost\lenina.mp3"</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="0"/>
+        <v>v "\mp3_ost\lenina.mp3"</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>177</v>
+      </c>
+      <c r="C26" t="s">
+        <v>231</v>
+      </c>
+      <c r="D26" t="s">
+        <v>194</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="F26" s="19" t="str">
+        <f>IFERROR("c "&amp;VLOOKUP(A26,Punkti,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G26" t="str">
+        <f>"v ""\"&amp;mp3_ost&amp;"\"&amp;E26&amp;".mp3"""</f>
+        <v>v "\mp3_ost\mira.mp3"</v>
+      </c>
+      <c r="H26" t="str">
+        <f t="shared" si="0"/>
+        <v>v "\mp3_ost\mira.mp3"</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>252</v>
+      </c>
+      <c r="C27" t="s">
+        <v>253</v>
+      </c>
+      <c r="D27" t="s">
+        <v>194</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="F27" s="19" t="str">
+        <f>IFERROR("c "&amp;VLOOKUP(A27,Punkti,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G27" t="str">
+        <f>"v ""\"&amp;mp3_ost&amp;"\"&amp;E27&amp;".mp3"""</f>
+        <v>v "\mp3_ost\skarwnw.mp3"</v>
+      </c>
+      <c r="H27" t="str">
+        <f t="shared" si="0"/>
+        <v>v "\mp3_ost\skarwnw.mp3"</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>251</v>
+      </c>
+      <c r="C28" t="s">
+        <v>251</v>
+      </c>
+      <c r="D28" t="s">
+        <v>194</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="F28" s="19" t="str">
+        <f>IFERROR("c "&amp;VLOOKUP(A28,Punkti,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G28" t="str">
+        <f>"v ""\"&amp;mp3_ost&amp;"\"&amp;E28&amp;".mp3"""</f>
+        <v>v "\mp3_ost\sberbank.mp3"</v>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" si="0"/>
+        <v>v "\mp3_ost\sberbank.mp3"</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>258</v>
+      </c>
+      <c r="C29" t="s">
+        <v>259</v>
+      </c>
+      <c r="D29" t="s">
+        <v>194</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="F29" s="19" t="str">
+        <f>IFERROR("c "&amp;VLOOKUP(A29,Punkti,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G29" t="str">
+        <f>"v ""\"&amp;mp3_ost&amp;"\"&amp;E29&amp;".mp3"""</f>
+        <v>v "\mp3_ost\svitanak.mp3"</v>
+      </c>
+      <c r="H29" t="str">
+        <f t="shared" si="0"/>
+        <v>v "\mp3_ost\svitanak.mp3"</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>249</v>
+      </c>
+      <c r="C30" t="s">
+        <v>250</v>
+      </c>
+      <c r="D30" t="s">
+        <v>194</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="F30" s="19" t="str">
+        <f>IFERROR("c "&amp;VLOOKUP(A30,Punkti,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G30" t="str">
+        <f>"v ""\"&amp;mp3_ost&amp;"\"&amp;E30&amp;".mp3"""</f>
+        <v>v "\mp3_ost\rwnok.mp3"</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" si="0"/>
+        <v>v "\mp3_ost\rwnok.mp3"</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>255</v>
+      </c>
+      <c r="C31" t="s">
+        <v>256</v>
+      </c>
+      <c r="D31" t="s">
+        <v>194</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="F31" s="19" t="str">
+        <f>IFERROR("c "&amp;VLOOKUP(A31,Punkti,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G31" t="str">
+        <f>"v ""\"&amp;mp3_ost&amp;"\"&amp;E31&amp;".mp3"""</f>
+        <v>v "\mp3_ost\sudob-kl.mp3"</v>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" si="0"/>
+        <v>v "\mp3_ost\sudob-kl.mp3"</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>179</v>
+      </c>
+      <c r="C32" t="s">
+        <v>191</v>
+      </c>
+      <c r="D32" t="s">
+        <v>194</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F32" s="19" t="str">
+        <f>IFERROR("c "&amp;VLOOKUP(A32,Punkti,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G32" t="str">
+        <f>"v ""\"&amp;mp3_ost&amp;"\"&amp;E32&amp;".mp3"""</f>
+        <v>v "\mp3_ost\5ssh.mp3"</v>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" si="0"/>
+        <v>v "\mp3_ost\5ssh.mp3"</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>183</v>
+      </c>
+      <c r="C33" t="s">
+        <v>197</v>
+      </c>
+      <c r="D33" t="s">
+        <v>194</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F33" s="19" t="str">
+        <f>IFERROR("c "&amp;VLOOKUP(A33,Punkti,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G33" t="str">
+        <f>"v ""\"&amp;mp3_ost&amp;"\"&amp;E33&amp;".mp3"""</f>
+        <v>v "\mp3_ost\8ssh.mp3"</v>
+      </c>
+      <c r="H33" t="str">
+        <f t="shared" si="0"/>
+        <v>v "\mp3_ost\8ssh.mp3"</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>261</v>
+      </c>
+      <c r="C34" t="s">
+        <v>262</v>
+      </c>
+      <c r="D34" t="s">
+        <v>194</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="F34" s="19" t="str">
+        <f>IFERROR("c "&amp;VLOOKUP(A34,Punkti,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G34" t="str">
+        <f>"v ""\"&amp;mp3_ost&amp;"\"&amp;E34&amp;".mp3"""</f>
+        <v>v "\mp3_ost\tamoj.mp3"</v>
+      </c>
+      <c r="H34" t="str">
+        <f t="shared" si="0"/>
+        <v>v "\mp3_ost\tamoj.mp3"</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>263</v>
+      </c>
+      <c r="C35" t="s">
+        <v>264</v>
+      </c>
+      <c r="D35" t="s">
+        <v>194</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="F35" s="19" t="str">
+        <f>IFERROR("c "&amp;VLOOKUP(A35,Punkti,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G35" t="str">
+        <f>"v ""\"&amp;mp3_ost&amp;"\"&amp;E35&amp;".mp3"""</f>
+        <v>v "\mp3_ost\tc.mp3"</v>
+      </c>
+      <c r="H35" t="str">
+        <f t="shared" si="0"/>
+        <v>v "\mp3_ost\tc.mp3"</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>279</v>
+      </c>
+      <c r="C36" t="s">
+        <v>204</v>
+      </c>
+      <c r="D36" t="s">
+        <v>194</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="F36" s="19" t="str">
+        <f>IFERROR("c "&amp;VLOOKUP(A36,Punkti,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G36" t="str">
+        <f>"v ""\"&amp;mp3_ost&amp;"\"&amp;E36&amp;".mp3"""</f>
+        <v>v "\mp3_ost\belaz.mp3"</v>
+      </c>
+      <c r="H36" t="str">
+        <f t="shared" si="0"/>
+        <v>v "\mp3_ost\belaz.mp3"</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>265</v>
+      </c>
+      <c r="C37" t="s">
+        <v>266</v>
+      </c>
+      <c r="D37" t="s">
+        <v>194</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="F37" s="19" t="str">
+        <f>IFERROR("c "&amp;VLOOKUP(A37,Punkti,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G37" t="str">
+        <f>"v ""\"&amp;mp3_ost&amp;"\"&amp;E37&amp;".mp3"""</f>
+        <v>v "\mp3_ost\tec.mp3"</v>
+      </c>
+      <c r="H37" t="str">
+        <f t="shared" si="0"/>
+        <v>v "\mp3_ost\tec.mp3"</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>93</v>
+      </c>
+      <c r="B38" t="s">
+        <v>281</v>
+      </c>
+      <c r="C38" t="s">
+        <v>198</v>
+      </c>
+      <c r="D38" t="s">
+        <v>194</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F38" s="19" t="str">
+        <f>IFERROR("c "&amp;VLOOKUP(A38,Punkti,2,FALSE),"")</f>
+        <v>c 928</v>
+      </c>
+      <c r="G38" t="str">
+        <f>"v ""\"&amp;mp3_ost&amp;"\"&amp;E38&amp;".mp3"""</f>
+        <v>v "\mp3_ost\50letokt.mp3"</v>
+      </c>
+      <c r="H38" t="str">
+        <f t="shared" si="0"/>
+        <v>c 928, v "\mp3_ost\50letokt.mp3"</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>93</v>
+      </c>
+      <c r="B39" t="s">
+        <v>282</v>
+      </c>
+      <c r="C39" t="s">
+        <v>192</v>
+      </c>
+      <c r="D39" t="s">
+        <v>194</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="F39" s="19" t="str">
+        <f>IFERROR("c "&amp;VLOOKUP(A39,Punkti,2,FALSE),"")</f>
+        <v>c 928</v>
+      </c>
+      <c r="G39" t="str">
+        <f>"v ""\"&amp;mp3_ost&amp;"\"&amp;E39&amp;".mp3"""</f>
+        <v>v "\mp3_ost\8marta.mp3"</v>
+      </c>
+      <c r="H39" t="str">
+        <f t="shared" si="0"/>
+        <v>c 928, v "\mp3_ost\8marta.mp3"</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>93</v>
+      </c>
+      <c r="B40" t="s">
+        <v>283</v>
+      </c>
+      <c r="C40" t="s">
+        <v>202</v>
+      </c>
+      <c r="D40" t="s">
+        <v>194</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="F40" s="19" t="str">
+        <f>IFERROR("c "&amp;VLOOKUP(A40,Punkti,2,FALSE),"")</f>
+        <v>c 928</v>
+      </c>
+      <c r="G40" t="str">
+        <f>"v ""\"&amp;mp3_ost&amp;"\"&amp;E40&amp;".mp3"""</f>
+        <v>v "\mp3_ost\avtomobi.mp3"</v>
+      </c>
+      <c r="H40" t="str">
+        <f t="shared" si="0"/>
+        <v>c 928, v "\mp3_ost\avtomobi.mp3"</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>93</v>
+      </c>
+      <c r="B41" t="s">
+        <v>181</v>
+      </c>
+      <c r="C41" t="s">
+        <v>188</v>
+      </c>
+      <c r="D41" t="s">
+        <v>194</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="F41" s="19" t="str">
+        <f>IFERROR("c "&amp;VLOOKUP(A41,Punkti,2,FALSE),"")</f>
+        <v>c 928</v>
+      </c>
+      <c r="G41" t="str">
+        <f>"v ""\"&amp;mp3_ost&amp;"\"&amp;E41&amp;".mp3"""</f>
+        <v>v "\mp3_ost\bajora.mp3"</v>
+      </c>
+      <c r="H41" t="str">
+        <f t="shared" si="0"/>
+        <v>c 928, v "\mp3_ost\bajora.mp3"</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>93</v>
+      </c>
+      <c r="B42" t="s">
+        <v>284</v>
+      </c>
+      <c r="C42" t="s">
+        <v>205</v>
+      </c>
+      <c r="D42" t="s">
+        <v>194</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F42" s="19" t="str">
+        <f>IFERROR("c "&amp;VLOOKUP(A42,Punkti,2,FALSE),"")</f>
+        <v>c 928</v>
+      </c>
+      <c r="G42" t="str">
+        <f>"v ""\"&amp;mp3_ost&amp;"\"&amp;E42&amp;".mp3"""</f>
+        <v>v "\mp3_ost\boguslav.mp3"</v>
+      </c>
+      <c r="H42" t="str">
+        <f t="shared" si="0"/>
+        <v>c 928, v "\mp3_ost\boguslav.mp3"</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>93</v>
+      </c>
+      <c r="B43" t="s">
+        <v>178</v>
+      </c>
+      <c r="C43" t="s">
+        <v>212</v>
+      </c>
+      <c r="D43" t="s">
+        <v>194</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="F43" s="19" t="str">
+        <f>IFERROR("c "&amp;VLOOKUP(A43,Punkti,2,FALSE),"")</f>
+        <v>c 928</v>
+      </c>
+      <c r="G43" t="str">
+        <f>"v ""\"&amp;mp3_ost&amp;"\"&amp;E43&amp;".mp3"""</f>
+        <v>v "\mp3_ost\gagarina.mp3"</v>
+      </c>
+      <c r="H43" t="str">
+        <f t="shared" si="0"/>
+        <v>c 928, v "\mp3_ost\gagarina.mp3"</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>93</v>
+      </c>
+      <c r="B44" t="s">
+        <v>285</v>
+      </c>
+      <c r="C44" t="s">
+        <v>209</v>
+      </c>
+      <c r="D44" t="s">
+        <v>194</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="F44" s="19" t="str">
+        <f>IFERROR("c "&amp;VLOOKUP(A44,Punkti,2,FALSE),"")</f>
+        <v>c 928</v>
+      </c>
+      <c r="G44" t="str">
+        <f>"v ""\"&amp;mp3_ost&amp;"\"&amp;E44&amp;".mp3"""</f>
+        <v>v "\mp3_ost\darojnay.mp3"</v>
+      </c>
+      <c r="H44" t="str">
+        <f t="shared" si="0"/>
+        <v>c 928, v "\mp3_ost\darojnay.mp3"</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>93</v>
+      </c>
+      <c r="B45" t="s">
+        <v>173</v>
+      </c>
+      <c r="C45" t="s">
+        <v>220</v>
+      </c>
+      <c r="D45" t="s">
+        <v>194</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="F45" s="19" t="str">
+        <f>IFERROR("c "&amp;VLOOKUP(A45,Punkti,2,FALSE),"")</f>
+        <v>c 928</v>
+      </c>
+      <c r="G45" t="str">
+        <f>"v ""\"&amp;mp3_ost&amp;"\"&amp;E45&amp;".mp3"""</f>
+        <v>v "\mp3_ost\kalinina.mp3"</v>
+      </c>
+      <c r="H45" t="str">
+        <f t="shared" si="0"/>
+        <v>c 928, v "\mp3_ost\kalinina.mp3"</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>93</v>
+      </c>
+      <c r="B46" t="s">
+        <v>286</v>
+      </c>
+      <c r="C46" t="s">
+        <v>238</v>
+      </c>
+      <c r="D46" t="s">
+        <v>194</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="F46" s="19" t="str">
+        <f>IFERROR("c "&amp;VLOOKUP(A46,Punkti,2,FALSE),"")</f>
+        <v>c 928</v>
+      </c>
+      <c r="G46" t="str">
+        <f>"v ""\"&amp;mp3_ost&amp;"\"&amp;E46&amp;".mp3"""</f>
+        <v>v "\mp3_ost\kupriyan.mp3"</v>
+      </c>
+      <c r="H46" t="str">
+        <f t="shared" si="0"/>
+        <v>c 928, v "\mp3_ost\kupriyan.mp3"</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>93</v>
+      </c>
+      <c r="B47" t="s">
+        <v>287</v>
+      </c>
+      <c r="C47" t="s">
+        <v>226</v>
+      </c>
+      <c r="D47" t="s">
+        <v>195</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F47" s="19" t="str">
+        <f>IFERROR("c "&amp;VLOOKUP(A47,Punkti,2,FALSE),"")</f>
+        <v>c 928</v>
+      </c>
+      <c r="G47" t="str">
+        <f>"v ""\"&amp;mp3_ost&amp;"\"&amp;E47&amp;".mp3"""</f>
+        <v>v "\mp3_ost\leninska.mp3"</v>
+      </c>
+      <c r="H47" t="str">
+        <f t="shared" si="0"/>
+        <v>c 928, v "\mp3_ost\leninska.mp3"</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48" t="s">
+        <v>288</v>
+      </c>
+      <c r="C48" t="s">
+        <v>227</v>
+      </c>
+      <c r="D48" t="s">
+        <v>194</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="F48" s="19" t="str">
+        <f>IFERROR("c "&amp;VLOOKUP(A48,Punkti,2,FALSE),"")</f>
+        <v>c 928</v>
+      </c>
+      <c r="G48" t="str">
+        <f>"v ""\"&amp;mp3_ost&amp;"\"&amp;E48&amp;".mp3"""</f>
+        <v>v "\mp3_ost\lesnaya.mp3"</v>
+      </c>
+      <c r="H48" t="str">
+        <f t="shared" si="0"/>
+        <v>c 928, v "\mp3_ost\lesnaya.mp3"</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>93</v>
+      </c>
+      <c r="B49" t="s">
+        <v>289</v>
+      </c>
+      <c r="C49" t="s">
+        <v>240</v>
+      </c>
+      <c r="D49" t="s">
+        <v>195</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F49" s="19" t="str">
+        <f>IFERROR("c "&amp;VLOOKUP(A49,Punkti,2,FALSE),"")</f>
+        <v>c 928</v>
+      </c>
+      <c r="G49" t="str">
+        <f>"v ""\"&amp;mp3_ost&amp;"\"&amp;E49&amp;".mp3"""</f>
+        <v>v "\mp3_ost\lag.mp3"</v>
+      </c>
+      <c r="H49" t="str">
+        <f t="shared" si="0"/>
+        <v>c 928, v "\mp3_ost\lag.mp3"</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>93</v>
+      </c>
+      <c r="B50" t="s">
+        <v>290</v>
+      </c>
+      <c r="C50" t="s">
+        <v>230</v>
+      </c>
+      <c r="D50" t="s">
+        <v>194</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="F50" s="19" t="str">
+        <f>IFERROR("c "&amp;VLOOKUP(A50,Punkti,2,FALSE),"")</f>
+        <v>c 928</v>
+      </c>
+      <c r="G50" t="str">
+        <f>"v ""\"&amp;mp3_ost&amp;"\"&amp;E50&amp;".mp3"""</f>
+        <v>v "\mp3_ost\magistra.mp3"</v>
+      </c>
+      <c r="H50" t="str">
+        <f t="shared" si="0"/>
+        <v>c 928, v "\mp3_ost\magistra.mp3"</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>93</v>
+      </c>
+      <c r="B51" t="s">
+        <v>174</v>
+      </c>
+      <c r="C51" t="s">
+        <v>232</v>
+      </c>
+      <c r="D51" t="s">
+        <v>194</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="F51" s="19" t="str">
+        <f>IFERROR("c "&amp;VLOOKUP(A51,Punkti,2,FALSE),"")</f>
+        <v>c 928</v>
+      </c>
+      <c r="G51" t="str">
+        <f>"v ""\"&amp;mp3_ost&amp;"\"&amp;E51&amp;".mp3"""</f>
+        <v>v "\mp3_ost\moskovsk.mp3"</v>
+      </c>
+      <c r="H51" t="str">
+        <f t="shared" si="0"/>
+        <v>c 928, v "\mp3_ost\moskovsk.mp3"</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>93</v>
+      </c>
+      <c r="B52" t="s">
+        <v>291</v>
+      </c>
+      <c r="C52" t="s">
+        <v>233</v>
+      </c>
+      <c r="D52" t="s">
+        <v>194</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="F52" s="19" t="str">
+        <f>IFERROR("c "&amp;VLOOKUP(A52,Punkti,2,FALSE),"")</f>
+        <v>c 928</v>
+      </c>
+      <c r="G52" t="str">
+        <f>"v ""\"&amp;mp3_ost&amp;"\"&amp;E52&amp;".mp3"""</f>
+        <v>v "\mp3_ost\nagornay.mp3"</v>
+      </c>
+      <c r="H52" t="str">
+        <f t="shared" si="0"/>
+        <v>c 928, v "\mp3_ost\nagornay.mp3"</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>93</v>
+      </c>
+      <c r="B53" t="s">
+        <v>292</v>
+      </c>
+      <c r="C53" t="s">
+        <v>234</v>
+      </c>
+      <c r="D53" t="s">
+        <v>194</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="F53" s="19" t="str">
+        <f>IFERROR("c "&amp;VLOOKUP(A53,Punkti,2,FALSE),"")</f>
+        <v>c 928</v>
+      </c>
+      <c r="G53" t="str">
+        <f>"v ""\"&amp;mp3_ost&amp;"\"&amp;E53&amp;".mp3"""</f>
+        <v>v "\mp3_ost\ostrovsk.mp3"</v>
+      </c>
+      <c r="H53" t="str">
+        <f t="shared" si="0"/>
+        <v>c 928, v "\mp3_ost\ostrovsk.mp3"</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>93</v>
+      </c>
+      <c r="B54" t="s">
+        <v>175</v>
+      </c>
+      <c r="C54" t="s">
+        <v>242</v>
+      </c>
+      <c r="D54" t="s">
+        <v>194</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="F54" s="19" t="str">
+        <f>IFERROR("c "&amp;VLOOKUP(A54,Punkti,2,FALSE),"")</f>
+        <v>c 928</v>
+      </c>
+      <c r="G54" t="str">
+        <f>"v ""\"&amp;mp3_ost&amp;"\"&amp;E54&amp;".mp3"""</f>
+        <v>v "\mp3_ost\partizan.mp3"</v>
+      </c>
+      <c r="H54" t="str">
+        <f t="shared" si="0"/>
+        <v>c 928, v "\mp3_ost\partizan.mp3"</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>93</v>
+      </c>
+      <c r="B55" t="s">
+        <v>293</v>
+      </c>
+      <c r="C55" t="s">
+        <v>247</v>
+      </c>
+      <c r="D55" t="s">
+        <v>194</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="F55" s="19" t="str">
+        <f>IFERROR("c "&amp;VLOOKUP(A55,Punkti,2,FALSE),"")</f>
+        <v>c 928</v>
+      </c>
+      <c r="G55" t="str">
+        <f>"v ""\"&amp;mp3_ost&amp;"\"&amp;E55&amp;".mp3"""</f>
+        <v>v "\mp3_ost\pyaschan.mp3"</v>
+      </c>
+      <c r="H55" t="str">
+        <f t="shared" si="0"/>
+        <v>c 928, v "\mp3_ost\pyaschan.mp3"</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>93</v>
+      </c>
+      <c r="B56" t="s">
+        <v>180</v>
+      </c>
+      <c r="C56" t="s">
+        <v>248</v>
+      </c>
+      <c r="D56" t="s">
+        <v>194</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="F56" s="19" t="str">
+        <f>IFERROR("c "&amp;VLOOKUP(A56,Punkti,2,FALSE),"")</f>
+        <v>c 928</v>
+      </c>
+      <c r="G56" t="str">
+        <f>"v ""\"&amp;mp3_ost&amp;"\"&amp;E56&amp;".mp3"""</f>
+        <v>v "\mp3_ost\rokosovs.mp3"</v>
+      </c>
+      <c r="H56" t="str">
+        <f t="shared" si="0"/>
+        <v>c 928, v "\mp3_ost\rokosovs.mp3"</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>93</v>
+      </c>
+      <c r="B57" t="s">
+        <v>294</v>
+      </c>
+      <c r="C57" t="s">
+        <v>257</v>
+      </c>
+      <c r="D57" t="s">
+        <v>194</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="F57" s="19" t="str">
+        <f>IFERROR("c "&amp;VLOOKUP(A57,Punkti,2,FALSE),"")</f>
+        <v>c 928</v>
+      </c>
+      <c r="G57" t="str">
+        <f>"v ""\"&amp;mp3_ost&amp;"\"&amp;E57&amp;".mp3"""</f>
+        <v>v "\mp3_ost\suhogrya.mp3"</v>
+      </c>
+      <c r="H57" t="str">
+        <f t="shared" si="0"/>
+        <v>c 928, v "\mp3_ost\suhogrya.mp3"</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>93</v>
+      </c>
+      <c r="B58" t="s">
+        <v>176</v>
+      </c>
+      <c r="C58" t="s">
+        <v>260</v>
+      </c>
+      <c r="D58" t="s">
+        <v>194</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="F58" s="19" t="str">
+        <f>IFERROR("c "&amp;VLOOKUP(A58,Punkti,2,FALSE),"")</f>
+        <v>c 928</v>
+      </c>
+      <c r="G58" t="str">
+        <f>"v ""\"&amp;mp3_ost&amp;"\"&amp;E58&amp;".mp3"""</f>
+        <v>v "\mp3_ost\swrokvas.mp3"</v>
+      </c>
+      <c r="H58" t="str">
+        <f t="shared" si="0"/>
+        <v>c 928, v "\mp3_ost\swrokvas.mp3"</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>93</v>
+      </c>
+      <c r="B59" t="s">
+        <v>295</v>
+      </c>
+      <c r="C59" t="s">
+        <v>267</v>
+      </c>
+      <c r="D59" t="s">
+        <v>194</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="F59" s="19" t="str">
+        <f>IFERROR("c "&amp;VLOOKUP(A59,Punkti,2,FALSE),"")</f>
+        <v>c 928</v>
+      </c>
+      <c r="G59" t="str">
+        <f>"v ""\"&amp;mp3_ost&amp;"\"&amp;E59&amp;".mp3"""</f>
+        <v>v "\mp3_ost\truda.mp3"</v>
+      </c>
+      <c r="H59" t="str">
+        <f t="shared" si="0"/>
+        <v>c 928, v "\mp3_ost\truda.mp3"</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>268</v>
+      </c>
+      <c r="C60" t="s">
+        <v>269</v>
+      </c>
+      <c r="D60" t="s">
+        <v>194</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="F60" s="19" t="str">
+        <f>IFERROR("c "&amp;VLOOKUP(A60,Punkti,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G60" t="str">
+        <f>"v ""\"&amp;mp3_ost&amp;"\"&amp;E60&amp;".mp3"""</f>
+        <v>v "\mp3_ost\universa.mp3"</v>
+      </c>
+      <c r="H60" t="str">
+        <f t="shared" si="0"/>
+        <v>v "\mp3_ost\universa.mp3"</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
+        <v>208</v>
+      </c>
+      <c r="C61" t="s">
+        <v>207</v>
+      </c>
+      <c r="D61" t="s">
+        <v>195</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F61" s="19" t="str">
+        <f>IFERROR("c "&amp;VLOOKUP(A61,Punkti,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G61" t="str">
+        <f>"v ""\"&amp;mp3_ost&amp;"\"&amp;E61&amp;".mp3"""</f>
+        <v>v "\mp3_ost\carkva.mp3"</v>
+      </c>
+      <c r="H61" t="str">
+        <f t="shared" si="0"/>
+        <v>v "\mp3_ost\carkva.mp3"</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
+        <v>211</v>
+      </c>
+      <c r="C62" t="s">
+        <v>210</v>
+      </c>
+      <c r="D62" t="s">
+        <v>194</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F62" s="19" t="str">
+        <f>IFERROR("c "&amp;VLOOKUP(A62,Punkti,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="G62" t="str">
+        <f>"v ""\"&amp;mp3_ost&amp;"\"&amp;E62&amp;".mp3"""</f>
+        <v>v "\mp3_ost\elseti.mp3"</v>
+      </c>
+      <c r="H62" t="str">
+        <f t="shared" si="0"/>
+        <v>v "\mp3_ost\elseti.mp3"</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A62" xr:uid="{E5E950AE-C261-41B6-B07F-B741432F5CAD}">
+      <formula1>Pref_Punktov</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.25" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.21875" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="60.625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="60.6640625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1291,7 +4311,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="3" customFormat="1" ht="11.55" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" s="3" customFormat="1" ht="12.45" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>79</v>
       </c>
@@ -1305,175 +4325,181 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="9">
         <v>1</v>
       </c>
-      <c r="E3" s="6" t="str">
+      <c r="E3" s="16" t="str">
         <f t="shared" ref="E3:E15" si="0">"&lt;type"&amp;TEXT(ROW()+NumRoute-3,"00")&amp;"&gt; """&amp;B3&amp;""""&amp;" {"&amp;C3&amp;".ini}"</f>
         <v>&lt;type00&gt; "1 Труда - КЗТШ" {1.ini}</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>32</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="6" t="str">
+      <c r="E4" s="16" t="str">
         <f t="shared" si="0"/>
         <v>&lt;type01&gt; "2 Бажора-Пож. часть" {2.ini}</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>31</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="6" t="str">
+      <c r="E5" s="16" t="str">
         <f t="shared" si="0"/>
         <v>&lt;type02&gt; "3 Кузн.3-Новогрядск." {3.ini}</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="6" t="str">
+      <c r="E6" s="16" t="str">
         <f t="shared" si="0"/>
         <v>&lt;type03&gt; "4 Советская-Косьё" {4.ini}</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="6" t="str">
+      <c r="E7" s="16" t="str">
         <f t="shared" si="0"/>
         <v>&lt;type04&gt; "5 в/ч-Рокосовского" {5.ini}</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>34</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="6" t="str">
+      <c r="E8" s="16" t="str">
         <f t="shared" si="0"/>
         <v>&lt;type05&gt; "6 Советск.-Пож.часть" {6.ini}</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>33</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="6" t="str">
+      <c r="E9" s="16" t="str">
         <f t="shared" si="0"/>
         <v>&lt;type06&gt; "6а Советск.-9 мр-н" {6a.ini}</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="6" t="str">
+      <c r="E10" s="16" t="str">
         <f t="shared" si="0"/>
         <v>&lt;type07&gt; "7 в/ч-Магистральная" {7.ini}</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="6" t="str">
+      <c r="E11" s="16" t="str">
         <f t="shared" si="0"/>
         <v>&lt;type08&gt; "8 АС Жодино-КЗТШ" {8.ini}</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="6" t="str">
+      <c r="E12" s="16" t="str">
         <f t="shared" si="0"/>
         <v>&lt;type09&gt; "8a АС Жодино-КЗТШ" {8a.ini}</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="6" t="str">
+      <c r="E13" s="16" t="str">
         <f t="shared" si="0"/>
         <v>&lt;type10&gt; "8_ КЗТШ-АС Жодино" {8_.ini}</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="6" t="str">
+      <c r="E14" s="16" t="str">
         <f t="shared" si="0"/>
         <v>&lt;type11&gt; "9 Бажора-КЗТШ" {9.ini}</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>35</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="6" t="str">
+      <c r="E15" s="16" t="str">
         <f t="shared" si="0"/>
         <v>&lt;type12&gt; "11 Труда-Вост.кладб." {11.ini}</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E16" s="16"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>56</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="6" t="str">
+      <c r="E17" s="16" t="str">
         <f>"&lt;type"&amp;TEXT(ROW()+NumRoute-3,"00")&amp;"&gt; """&amp;B17&amp;""""&amp;" {"&amp;C17&amp;".ini}"</f>
         <v>&lt;type14&gt; "Город 1 Смолевичи" {gor1smol.ini}</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E18" s="16"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="12">
         <v>208</v>
       </c>
@@ -1483,12 +4509,12 @@
       <c r="C19" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="6" t="str">
+      <c r="E19" s="16" t="str">
         <f t="shared" ref="E19:E29" si="1">"&lt;type"&amp;TEXT(ROW()+NumRoute-3,"00")&amp;"&gt; """&amp;B19&amp;""""&amp;" {"&amp;C19&amp;".ini}"</f>
         <v>&lt;type16&gt; "Барсуки" {barsuki.ini}</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="12">
         <v>216</v>
       </c>
@@ -1498,12 +4524,12 @@
       <c r="C20" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="6" t="str">
+      <c r="E20" s="16" t="str">
         <f t="shared" si="1"/>
         <v>&lt;type17&gt; "Будагово" {budagovo.ini}</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="12">
         <v>219</v>
       </c>
@@ -1513,12 +4539,12 @@
       <c r="C21" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="6" t="str">
+      <c r="E21" s="16" t="str">
         <f t="shared" si="1"/>
         <v>&lt;type18&gt; "Замлынье" {zamlinie.ini}</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="12">
         <v>204</v>
       </c>
@@ -1528,12 +4554,12 @@
       <c r="C22" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E22" s="6" t="str">
+      <c r="E22" s="16" t="str">
         <f t="shared" si="1"/>
         <v>&lt;type19&gt; "Зеленый Бор" {zel_bor.ini}</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="12">
         <v>209</v>
       </c>
@@ -1543,12 +4569,12 @@
       <c r="C23" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E23" s="6" t="str">
+      <c r="E23" s="16" t="str">
         <f t="shared" si="1"/>
         <v>&lt;type20&gt; "Логойск" {logoisk.ini}</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="12">
         <v>213</v>
       </c>
@@ -1558,12 +4584,12 @@
       <c r="C24" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E24" s="6" t="str">
+      <c r="E24" s="16" t="str">
         <f t="shared" si="1"/>
         <v>&lt;type21&gt; "Лютка" {ljutka.ini}</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="12">
         <v>211</v>
       </c>
@@ -1573,12 +4599,12 @@
       <c r="C25" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E25" s="6" t="str">
+      <c r="E25" s="16" t="str">
         <f t="shared" si="1"/>
         <v>&lt;type22&gt; "Напалки" {napalki.ini}</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="12">
         <v>205</v>
       </c>
@@ -1588,12 +4614,12 @@
       <c r="C26" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E26" s="6" t="str">
+      <c r="E26" s="16" t="str">
         <f t="shared" si="1"/>
         <v>&lt;type23&gt; "Сутоки" {sutoki.ini}</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="12">
         <v>207</v>
       </c>
@@ -1603,12 +4629,12 @@
       <c r="C27" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E27" s="6" t="str">
+      <c r="E27" s="16" t="str">
         <f t="shared" si="1"/>
         <v>&lt;type24&gt; "Точилище" {tochil.ini}</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="12">
         <v>212</v>
       </c>
@@ -1618,12 +4644,12 @@
       <c r="C28" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E28" s="6" t="str">
+      <c r="E28" s="16" t="str">
         <f t="shared" si="1"/>
         <v>&lt;type25&gt; "Юзефово" {uzefovo.ini}</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="12">
         <v>215</v>
       </c>
@@ -1633,12 +4659,15 @@
       <c r="C29" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E29" s="6" t="str">
+      <c r="E29" s="16" t="str">
         <f t="shared" si="1"/>
         <v>&lt;type26&gt; "Яловица" {jalov.ini}</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E30" s="16"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="12">
         <v>217</v>
       </c>
@@ -1648,12 +4677,12 @@
       <c r="C31" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E31" s="6" t="str">
+      <c r="E31" s="16" t="str">
         <f t="shared" ref="E31:E36" si="2">"&lt;type"&amp;TEXT(ROW()+NumRoute-3,"00")&amp;"&gt; """&amp;B31&amp;""""&amp;" {"&amp;C31&amp;".ini}"</f>
         <v>&lt;type28&gt; "с/т Автомобилист" {automob.ini}</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="12">
         <v>218</v>
       </c>
@@ -1663,12 +4692,12 @@
       <c r="C32" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E32" s="6" t="str">
+      <c r="E32" s="16" t="str">
         <f t="shared" si="2"/>
         <v>&lt;type29&gt; "с/т Журавинка" {zhurav.ini}</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="12">
         <v>318</v>
       </c>
@@ -1678,12 +4707,12 @@
       <c r="C33" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E33" s="6" t="str">
+      <c r="E33" s="16" t="str">
         <f t="shared" si="2"/>
         <v>&lt;type30&gt; "пов. с/т Журавинка" {pov_zur.ini}</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="12">
         <v>40</v>
       </c>
@@ -1693,12 +4722,12 @@
       <c r="C34" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E34" s="6" t="str">
+      <c r="E34" s="16" t="str">
         <f t="shared" si="2"/>
         <v>&lt;type31&gt; "с/т Радуга" {raduga.ini}</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="12">
         <v>214</v>
       </c>
@@ -1708,12 +4737,12 @@
       <c r="C35" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E35" s="6" t="str">
+      <c r="E35" s="16" t="str">
         <f t="shared" si="2"/>
         <v>&lt;type32&gt; "с/т Родничок" {rodnik.ini}</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="12">
         <v>307</v>
       </c>
@@ -1723,12 +4752,15 @@
       <c r="C36" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E36" s="6" t="str">
+      <c r="E36" s="16" t="str">
         <f t="shared" si="2"/>
         <v>&lt;type33&gt; "с/т Строитель" {stroit.ini}</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E37" s="16"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="12">
         <v>316</v>
       </c>
@@ -1738,12 +4770,12 @@
       <c r="C38" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E38" s="6" t="str">
+      <c r="E38" s="16" t="str">
         <f>"&lt;type"&amp;TEXT(ROW()+NumRoute-3,"00")&amp;"&gt; """&amp;B38&amp;""""&amp;" {"&amp;C38&amp;".ini}"</f>
         <v>&lt;type35&gt; "СЛУЖЕБНЫЙ" {sluzhebn.ini}</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="12">
         <v>201</v>
       </c>
@@ -1753,12 +4785,12 @@
       <c r="C39" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E39" s="6" t="str">
+      <c r="E39" s="16" t="str">
         <f>"&lt;type"&amp;TEXT(ROW()+NumRoute-3,"00")&amp;"&gt; """&amp;B39&amp;""""&amp;" {"&amp;C39&amp;".ini}"</f>
         <v>&lt;type36&gt; "ЗАКАЗНОЙ" {zakaz.ini}</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="12">
         <v>618</v>
       </c>
@@ -1768,12 +4800,12 @@
       <c r="C40" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E40" s="6" t="str">
+      <c r="E40" s="16" t="str">
         <f>"&lt;type"&amp;TEXT(ROW()+NumRoute-3,"00")&amp;"&gt; """&amp;B40&amp;""""&amp;" {"&amp;C40&amp;".ini}"</f>
         <v>&lt;type37&gt; "СНЕКПРО" {snekpro.ini}</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="12">
         <v>202</v>
       </c>
@@ -1783,12 +4815,12 @@
       <c r="C41" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E41" s="6" t="str">
+      <c r="E41" s="16" t="str">
         <f>"&lt;type"&amp;TEXT(ROW()+NumRoute-3,"00")&amp;"&gt; """&amp;B41&amp;""""&amp;" {"&amp;C41&amp;".ini}"</f>
         <v>&lt;type38&gt; "ДЕТИ" {deti.ini}</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="12">
         <v>203</v>
       </c>
@@ -1798,7 +4830,7 @@
       <c r="C42" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E42" s="6" t="str">
+      <c r="E42" s="16" t="str">
         <f>"&lt;type"&amp;TEXT(ROW()+NumRoute-3,"00")&amp;"&gt; """&amp;B42&amp;""""&amp;" {"&amp;C42&amp;".ini}"</f>
         <v>&lt;type39&gt; "В ПАРК" {v_park.ini}</v>
       </c>
@@ -1809,360 +4841,39 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="C4:C15" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="60.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="B1" s="2">
-        <v>36</v>
-      </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="str">
-        <f ca="1">INDIRECT(ADDRESS($B$1,3,4,1,"route"))</f>
-        <v>stroit</v>
-      </c>
-      <c r="E2" s="15" t="str">
-        <f ca="1">"&lt;unit"&amp;NomZagMar&amp;"&gt; """&amp;$A$3&amp;""""&amp;" {i 0, t 002, l "&amp;$A$4&amp;" "&amp;$A$4&amp;", d 000}"</f>
-        <v>&lt;unit100&gt; "с/т Строитель" {i 0, t 002, l 307 307, d 000}</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="str">
-        <f ca="1">INDIRECT(ADDRESS($B$1,2,4,1,"route"))</f>
-        <v>с/т Строитель</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="str">
-        <f ca="1">TEXT(INDIRECT(ADDRESS($B$1,1,4,1,"route")),"000")</f>
-        <v>307</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="60.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="B1" s="2">
-        <v>38</v>
-      </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="str">
-        <f ca="1">INDIRECT(ADDRESS($B$1,3,4,1,"route"))</f>
-        <v>sluzhebn</v>
-      </c>
-      <c r="E2" s="15" t="str">
-        <f ca="1">"&lt;unit"&amp;NomZagMar&amp;"&gt; """&amp;$A$3&amp;""""&amp;" {i 0, t 002, l "&amp;$A$4&amp;" "&amp;$A$4&amp;", d 000}"</f>
-        <v>&lt;unit100&gt; "СЛУЖЕБНЫЙ" {i 0, t 002, l 316 316, d 000}</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="str">
-        <f ca="1">INDIRECT(ADDRESS($B$1,2,4,1,"route"))</f>
-        <v>СЛУЖЕБНЫЙ</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="str">
-        <f ca="1">TEXT(INDIRECT(ADDRESS($B$1,1,4,1,"route")),"000")</f>
-        <v>316</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="60.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="B1" s="2">
-        <v>39</v>
-      </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="str">
-        <f ca="1">INDIRECT(ADDRESS($B$1,3,4,1,"route"))</f>
-        <v>zakaz</v>
-      </c>
-      <c r="E2" s="15" t="str">
-        <f ca="1">"&lt;unit"&amp;NomZagMar&amp;"&gt; """&amp;$A$3&amp;""""&amp;" {i 0, t 002, l "&amp;$A$4&amp;" "&amp;$A$4&amp;", d 000}"</f>
-        <v>&lt;unit100&gt; "ЗАКАЗНОЙ" {i 0, t 002, l 201 201, d 000}</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="str">
-        <f ca="1">INDIRECT(ADDRESS($B$1,2,4,1,"route"))</f>
-        <v>ЗАКАЗНОЙ</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="str">
-        <f ca="1">TEXT(INDIRECT(ADDRESS($B$1,1,4,1,"route")),"000")</f>
-        <v>201</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="60.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="B1" s="2">
-        <v>40</v>
-      </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="str">
-        <f ca="1">INDIRECT(ADDRESS($B$1,3,4,1,"route"))</f>
-        <v>snekpro</v>
-      </c>
-      <c r="E2" s="15" t="str">
-        <f ca="1">"&lt;unit"&amp;NomZagMar&amp;"&gt; """&amp;$A$3&amp;""""&amp;" {i 0, t 002, l "&amp;$A$4&amp;" "&amp;$A$4&amp;", d 000}"</f>
-        <v>&lt;unit100&gt; "СНЕКПРО" {i 0, t 002, l 618 618, d 000}</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="str">
-        <f ca="1">INDIRECT(ADDRESS($B$1,2,4,1,"route"))</f>
-        <v>СНЕКПРО</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="str">
-        <f ca="1">TEXT(INDIRECT(ADDRESS($B$1,1,4,1,"route")),"000")</f>
-        <v>618</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="60.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="B1" s="2">
-        <v>41</v>
-      </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="str">
-        <f ca="1">INDIRECT(ADDRESS($B$1,3,4,1,"route"))</f>
-        <v>deti</v>
-      </c>
-      <c r="E2" s="15" t="str">
-        <f ca="1">"&lt;unit"&amp;NomZagMar&amp;"&gt; """&amp;$A$3&amp;""""&amp;" {i 0, t 002, l "&amp;$A$4&amp;" "&amp;$A$4&amp;", d 000}"</f>
-        <v>&lt;unit100&gt; "ДЕТИ" {i 0, t 002, l 202 202, d 000}</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="str">
-        <f ca="1">INDIRECT(ADDRESS($B$1,2,4,1,"route"))</f>
-        <v>ДЕТИ</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="str">
-        <f ca="1">TEXT(INDIRECT(ADDRESS($B$1,1,4,1,"route")),"000")</f>
-        <v>202</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="60.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="B1" s="2">
-        <v>42</v>
-      </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="str">
-        <f ca="1">INDIRECT(ADDRESS($B$1,3,4,1,"route"))</f>
-        <v>v_park</v>
-      </c>
-      <c r="E2" s="15" t="str">
-        <f ca="1">"&lt;unit"&amp;NomZagMar&amp;"&gt; """&amp;$A$3&amp;""""&amp;" {i 0, t 002, l "&amp;$A$4&amp;" "&amp;$A$4&amp;", d 000}"</f>
-        <v>&lt;unit100&gt; "В ПАРК" {i 0, t 002, l 203 203, d 000}</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="str">
-        <f ca="1">INDIRECT(ADDRESS($B$1,2,4,1,"route"))</f>
-        <v>В ПАРК</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="str">
-        <f ca="1">TEXT(INDIRECT(ADDRESS($B$1,1,4,1,"route")),"000")</f>
-        <v>203</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="60.625" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>81</v>
       </c>
@@ -2175,134 +4886,26 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,3,4,1,"route"))</f>
         <v>barsuki</v>
       </c>
-      <c r="E2" s="15" t="str">
+      <c r="E2" s="16" t="str">
         <f ca="1">"&lt;unit"&amp;NomZagMar&amp;"&gt; """&amp;$A$3&amp;""""&amp;" {i 0, t 002, l "&amp;$A$4&amp;" "&amp;$A$4&amp;", d 000}"</f>
         <v>&lt;unit100&gt; "Барсуки" {i 0, t 002, l 208 208, d 000}</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,2,4,1,"route"))</f>
         <v>Барсуки</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="str">
         <f ca="1">TEXT(INDIRECT(ADDRESS($B$1,1,4,1,"route")),"000")</f>
         <v>208</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="60.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="B1" s="2">
-        <v>20</v>
-      </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="str">
-        <f ca="1">INDIRECT(ADDRESS($B$1,3,4,1,"route"))</f>
-        <v>budagovo</v>
-      </c>
-      <c r="E2" s="15" t="str">
-        <f ca="1">"&lt;unit"&amp;NomZagMar&amp;"&gt; """&amp;$A$3&amp;""""&amp;" {i 0, t 002, l "&amp;$A$4&amp;" "&amp;$A$4&amp;", d 000}"</f>
-        <v>&lt;unit100&gt; "Будагово" {i 0, t 002, l 216 216, d 000}</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="str">
-        <f ca="1">INDIRECT(ADDRESS($B$1,2,4,1,"route"))</f>
-        <v>Будагово</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="str">
-        <f ca="1">TEXT(INDIRECT(ADDRESS($B$1,1,4,1,"route")),"000")</f>
-        <v>216</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="60.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="B1" s="2">
-        <v>21</v>
-      </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="str">
-        <f ca="1">INDIRECT(ADDRESS($B$1,3,4,1,"route"))</f>
-        <v>zamlinie</v>
-      </c>
-      <c r="E2" s="15" t="str">
-        <f ca="1">"&lt;unit"&amp;NomZagMar&amp;"&gt; """&amp;$A$3&amp;""""&amp;" {i 0, t 002, l "&amp;$A$4&amp;" "&amp;$A$4&amp;", d 000}"</f>
-        <v>&lt;unit100&gt; "Замлынье" {i 0, t 002, l 219 219, d 000}</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="str">
-        <f ca="1">INDIRECT(ADDRESS($B$1,2,4,1,"route"))</f>
-        <v>Замлынье</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="str">
-        <f ca="1">TEXT(INDIRECT(ADDRESS($B$1,1,4,1,"route")),"000")</f>
-        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -2311,25 +4914,25 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="60.625" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>81</v>
       </c>
       <c r="B1" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="2"/>
@@ -2337,26 +4940,26 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,3,4,1,"route"))</f>
-        <v>zel_bor</v>
-      </c>
-      <c r="E2" s="15" t="str">
+        <v>budagovo</v>
+      </c>
+      <c r="E2" s="16" t="str">
         <f ca="1">"&lt;unit"&amp;NomZagMar&amp;"&gt; """&amp;$A$3&amp;""""&amp;" {i 0, t 002, l "&amp;$A$4&amp;" "&amp;$A$4&amp;", d 000}"</f>
-        <v>&lt;unit100&gt; "Зеленый Бор" {i 0, t 002, l 204 204, d 000}</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>&lt;unit100&gt; "Будагово" {i 0, t 002, l 216 216, d 000}</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,2,4,1,"route"))</f>
-        <v>Зеленый Бор</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>Будагово</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="str">
         <f ca="1">TEXT(INDIRECT(ADDRESS($B$1,1,4,1,"route")),"000")</f>
-        <v>204</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -2365,25 +4968,25 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="60.625" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>81</v>
       </c>
       <c r="B1" s="2">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="2"/>
@@ -2391,26 +4994,26 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,3,4,1,"route"))</f>
-        <v>logoisk</v>
-      </c>
-      <c r="E2" s="15" t="str">
+        <v>zamlinie</v>
+      </c>
+      <c r="E2" s="16" t="str">
         <f ca="1">"&lt;unit"&amp;NomZagMar&amp;"&gt; """&amp;$A$3&amp;""""&amp;" {i 0, t 002, l "&amp;$A$4&amp;" "&amp;$A$4&amp;", d 000}"</f>
-        <v>&lt;unit100&gt; "Логойск" {i 0, t 002, l 209 209, d 000}</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>&lt;unit100&gt; "Замлынье" {i 0, t 002, l 219 219, d 000}</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,2,4,1,"route"))</f>
-        <v>Логойск</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>Замлынье</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="str">
         <f ca="1">TEXT(INDIRECT(ADDRESS($B$1,1,4,1,"route")),"000")</f>
-        <v>209</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -2419,25 +5022,25 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="60.625" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>81</v>
       </c>
       <c r="B1" s="2">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="2"/>
@@ -2445,26 +5048,26 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,3,4,1,"route"))</f>
-        <v>ljutka</v>
-      </c>
-      <c r="E2" s="15" t="str">
+        <v>zel_bor</v>
+      </c>
+      <c r="E2" s="16" t="str">
         <f ca="1">"&lt;unit"&amp;NomZagMar&amp;"&gt; """&amp;$A$3&amp;""""&amp;" {i 0, t 002, l "&amp;$A$4&amp;" "&amp;$A$4&amp;", d 000}"</f>
-        <v>&lt;unit100&gt; "Лютка" {i 0, t 002, l 213 213, d 000}</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>&lt;unit100&gt; "Зеленый Бор" {i 0, t 002, l 204 204, d 000}</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,2,4,1,"route"))</f>
-        <v>Лютка</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>Зеленый Бор</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="str">
         <f ca="1">TEXT(INDIRECT(ADDRESS($B$1,1,4,1,"route")),"000")</f>
-        <v>213</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>

--- a/gBuse/!_Маршруты_!/Жодино (глобальная переделка)/Помощник по составлению машрутов для СИТ.xlsx
+++ b/gBuse/!_Маршруты_!/Жодино (глобальная переделка)/Помощник по составлению машрутов для СИТ.xlsx
@@ -1,40 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3929C125-E161-4750-A794-524E0B0AF517}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13759" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-122" yWindow="-122" windowWidth="25377" windowHeight="13762" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Настройки" sheetId="2" r:id="rId1"/>
     <sheet name="Константы" sheetId="37" r:id="rId2"/>
     <sheet name="Остановки" sheetId="38" r:id="rId3"/>
     <sheet name="route" sheetId="1" r:id="rId4"/>
-    <sheet name="1" sheetId="4" r:id="rId5"/>
-    <sheet name="barsuki" sheetId="3" r:id="rId6"/>
-    <sheet name="budagovo" sheetId="16" r:id="rId7"/>
-    <sheet name="zamlinie" sheetId="17" r:id="rId8"/>
-    <sheet name="zel_bor" sheetId="18" r:id="rId9"/>
-    <sheet name="logoisk" sheetId="19" r:id="rId10"/>
-    <sheet name="ljutka" sheetId="20" r:id="rId11"/>
-    <sheet name="napalki" sheetId="21" r:id="rId12"/>
-    <sheet name="sutoki" sheetId="22" r:id="rId13"/>
-    <sheet name="tochil" sheetId="23" r:id="rId14"/>
-    <sheet name="uzefovo" sheetId="24" r:id="rId15"/>
-    <sheet name="jalov" sheetId="25" r:id="rId16"/>
-    <sheet name="automob" sheetId="26" r:id="rId17"/>
-    <sheet name="zhurav" sheetId="27" r:id="rId18"/>
-    <sheet name="pov_zur" sheetId="28" r:id="rId19"/>
-    <sheet name="raduga" sheetId="29" r:id="rId20"/>
-    <sheet name="rodnik" sheetId="30" r:id="rId21"/>
-    <sheet name="stroit" sheetId="31" r:id="rId22"/>
-    <sheet name="sluzhebn" sheetId="32" r:id="rId23"/>
-    <sheet name="zakaz" sheetId="33" r:id="rId24"/>
-    <sheet name="snekpro" sheetId="34" r:id="rId25"/>
-    <sheet name="deti" sheetId="35" r:id="rId26"/>
-    <sheet name="v_park" sheetId="36" r:id="rId27"/>
+    <sheet name="Табло" sheetId="40" r:id="rId5"/>
+    <sheet name="1" sheetId="4" r:id="rId6"/>
+    <sheet name="barsuki" sheetId="3" r:id="rId7"/>
+    <sheet name="budagovo" sheetId="16" r:id="rId8"/>
+    <sheet name="zamlinie" sheetId="17" r:id="rId9"/>
+    <sheet name="zel_bor" sheetId="18" r:id="rId10"/>
+    <sheet name="logoisk" sheetId="19" r:id="rId11"/>
+    <sheet name="ljutka" sheetId="20" r:id="rId12"/>
+    <sheet name="napalki" sheetId="21" r:id="rId13"/>
+    <sheet name="sutoki" sheetId="22" r:id="rId14"/>
+    <sheet name="tochil" sheetId="23" r:id="rId15"/>
+    <sheet name="uzefovo" sheetId="24" r:id="rId16"/>
+    <sheet name="jalov" sheetId="25" r:id="rId17"/>
+    <sheet name="automob" sheetId="26" r:id="rId18"/>
+    <sheet name="zhurav" sheetId="27" r:id="rId19"/>
+    <sheet name="pov_zur" sheetId="28" r:id="rId20"/>
+    <sheet name="raduga" sheetId="29" r:id="rId21"/>
+    <sheet name="rodnik" sheetId="30" r:id="rId22"/>
+    <sheet name="stroit" sheetId="31" r:id="rId23"/>
+    <sheet name="sluzhebn" sheetId="32" r:id="rId24"/>
+    <sheet name="zakaz" sheetId="33" r:id="rId25"/>
+    <sheet name="snekpro" sheetId="34" r:id="rId26"/>
+    <sheet name="deti" sheetId="35" r:id="rId27"/>
+    <sheet name="v_park" sheetId="36" r:id="rId28"/>
   </sheets>
   <definedNames>
     <definedName name="mp3_knst">Настройки!$B$3</definedName>
@@ -44,7 +44,7 @@
     <definedName name="Pref_Punktov">Константы!$A$2:$A$12</definedName>
     <definedName name="Punkti">Константы!$A$2:$B$12</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="341">
   <si>
     <t>Номер маршрута</t>
   </si>
@@ -948,12 +948,147 @@
   </si>
   <si>
     <t>ул.Труда</t>
+  </si>
+  <si>
+    <t>Номер</t>
+  </si>
+  <si>
+    <t>1 строка</t>
+  </si>
+  <si>
+    <t>2 строка</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>ул. Труда</t>
+  </si>
+  <si>
+    <t>ул. Бажора</t>
+  </si>
+  <si>
+    <t>ул. Советская</t>
+  </si>
+  <si>
+    <t>Косьё</t>
+  </si>
+  <si>
+    <t>Пожарная часть</t>
+  </si>
+  <si>
+    <t>Кузнечный-3</t>
+  </si>
+  <si>
+    <t>Новогрядская</t>
+  </si>
+  <si>
+    <t>АС Жодино</t>
+  </si>
+  <si>
+    <t>В/ЧАСТЬ</t>
+  </si>
+  <si>
+    <t>Рокоссовского</t>
+  </si>
+  <si>
+    <t>6А</t>
+  </si>
+  <si>
+    <t>9-й микрорайон</t>
+  </si>
+  <si>
+    <t>ул. Магистральная</t>
+  </si>
+  <si>
+    <t>8А</t>
+  </si>
+  <si>
+    <t>КЗТШ-АС Жодино</t>
+  </si>
+  <si>
+    <t>ч/з Рокоссовск.</t>
+  </si>
+  <si>
+    <t>Восточное кладб.</t>
+  </si>
+  <si>
+    <t>Город-1</t>
+  </si>
+  <si>
+    <t>СМОЛЕВИЧИ</t>
+  </si>
+  <si>
+    <t>208С</t>
+  </si>
+  <si>
+    <t>ЖОДИНО</t>
+  </si>
+  <si>
+    <t>212С</t>
+  </si>
+  <si>
+    <t>219С</t>
+  </si>
+  <si>
+    <t>204С</t>
+  </si>
+  <si>
+    <t>211С</t>
+  </si>
+  <si>
+    <t>209С</t>
+  </si>
+  <si>
+    <t>205С</t>
+  </si>
+  <si>
+    <t>197С</t>
+  </si>
+  <si>
+    <t>ТОЧИЛИЩЕ</t>
+  </si>
+  <si>
+    <t>216С</t>
+  </si>
+  <si>
+    <t>202С</t>
+  </si>
+  <si>
+    <t>210С</t>
+  </si>
+  <si>
+    <t>207Э</t>
+  </si>
+  <si>
+    <t>214Э</t>
+  </si>
+  <si>
+    <t>201Э</t>
+  </si>
+  <si>
+    <t>213Э</t>
+  </si>
+  <si>
+    <t>203Э</t>
+  </si>
+  <si>
+    <t>Автомобилист</t>
+  </si>
+  <si>
+    <t>пов.Журавинка</t>
+  </si>
+  <si>
+    <t>АВТОБУС</t>
+  </si>
+  <si>
+    <t>СЛЕДУЕТ В ПАРК</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1030,7 +1165,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1079,6 +1214,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1358,19 +1504,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>77</v>
       </c>
@@ -1378,7 +1524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>78</v>
       </c>
@@ -1386,7 +1532,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>104</v>
       </c>
@@ -1394,7 +1540,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>105</v>
       </c>
@@ -1408,25 +1554,25 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="60.6640625" customWidth="1"/>
+    <col min="1" max="1" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>81</v>
       </c>
       <c r="B1" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="2"/>
@@ -1434,26 +1580,26 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,3,4,1,"route"))</f>
-        <v>logoisk</v>
+        <v>zel_bor</v>
       </c>
       <c r="E2" s="16" t="str">
         <f ca="1">"&lt;unit"&amp;NomZagMar&amp;"&gt; """&amp;$A$3&amp;""""&amp;" {i 0, t 002, l "&amp;$A$4&amp;" "&amp;$A$4&amp;", d 000}"</f>
-        <v>&lt;unit100&gt; "Логойск" {i 0, t 002, l 209 209, d 000}</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>&lt;unit100&gt; "Зеленый Бор" {i 0, t 002, l 211 211, d 000}</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,2,4,1,"route"))</f>
-        <v>Логойск</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>Зеленый Бор</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="str">
         <f ca="1">TEXT(INDIRECT(ADDRESS($B$1,1,4,1,"route")),"000")</f>
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -1462,25 +1608,25 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="60.6640625" customWidth="1"/>
+    <col min="1" max="1" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>81</v>
       </c>
       <c r="B1" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="2"/>
@@ -1488,26 +1634,26 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,3,4,1,"route"))</f>
-        <v>ljutka</v>
+        <v>logoisk</v>
       </c>
       <c r="E2" s="16" t="str">
         <f ca="1">"&lt;unit"&amp;NomZagMar&amp;"&gt; """&amp;$A$3&amp;""""&amp;" {i 0, t 002, l "&amp;$A$4&amp;" "&amp;$A$4&amp;", d 000}"</f>
-        <v>&lt;unit100&gt; "Лютка" {i 0, t 002, l 213 213, d 000}</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>&lt;unit100&gt; "Логойск" {i 0, t 002, l 197 197, d 000}</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,2,4,1,"route"))</f>
-        <v>Лютка</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>Логойск</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="str">
         <f ca="1">TEXT(INDIRECT(ADDRESS($B$1,1,4,1,"route")),"000")</f>
-        <v>213</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -1516,25 +1662,25 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="60.6640625" customWidth="1"/>
+    <col min="1" max="1" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>81</v>
       </c>
       <c r="B1" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="2"/>
@@ -1542,26 +1688,26 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,3,4,1,"route"))</f>
-        <v>napalki</v>
+        <v>ljutka</v>
       </c>
       <c r="E2" s="16" t="str">
         <f ca="1">"&lt;unit"&amp;NomZagMar&amp;"&gt; """&amp;$A$3&amp;""""&amp;" {i 0, t 002, l "&amp;$A$4&amp;" "&amp;$A$4&amp;", d 000}"</f>
-        <v>&lt;unit100&gt; "Напалки" {i 0, t 002, l 211 211, d 000}</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>&lt;unit100&gt; "Лютка" {i 0, t 002, l 204 204, d 000}</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,2,4,1,"route"))</f>
-        <v>Напалки</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>Лютка</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="str">
         <f ca="1">TEXT(INDIRECT(ADDRESS($B$1,1,4,1,"route")),"000")</f>
-        <v>211</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -1570,25 +1716,25 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="60.6640625" customWidth="1"/>
+    <col min="1" max="1" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>81</v>
       </c>
       <c r="B1" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="2"/>
@@ -1596,23 +1742,23 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,3,4,1,"route"))</f>
-        <v>sutoki</v>
+        <v>napalki</v>
       </c>
       <c r="E2" s="16" t="str">
         <f ca="1">"&lt;unit"&amp;NomZagMar&amp;"&gt; """&amp;$A$3&amp;""""&amp;" {i 0, t 002, l "&amp;$A$4&amp;" "&amp;$A$4&amp;", d 000}"</f>
-        <v>&lt;unit100&gt; "Сутоки" {i 0, t 002, l 205 205, d 000}</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>&lt;unit100&gt; "Напалки" {i 0, t 002, l 205 205, d 000}</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,2,4,1,"route"))</f>
-        <v>Сутоки</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>Напалки</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="str">
         <f ca="1">TEXT(INDIRECT(ADDRESS($B$1,1,4,1,"route")),"000")</f>
         <v>205</v>
@@ -1624,25 +1770,25 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="60.6640625" customWidth="1"/>
+    <col min="1" max="1" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>81</v>
       </c>
       <c r="B1" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="2"/>
@@ -1650,26 +1796,26 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,3,4,1,"route"))</f>
-        <v>tochil</v>
+        <v>sutoki</v>
       </c>
       <c r="E2" s="16" t="str">
         <f ca="1">"&lt;unit"&amp;NomZagMar&amp;"&gt; """&amp;$A$3&amp;""""&amp;" {i 0, t 002, l "&amp;$A$4&amp;" "&amp;$A$4&amp;", d 000}"</f>
-        <v>&lt;unit100&gt; "Точилище" {i 0, t 002, l 207 207, d 000}</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>&lt;unit100&gt; "Сутоки" {i 0, t 002, l 216 216, d 000}</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,2,4,1,"route"))</f>
-        <v>Точилище</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>Сутоки</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="str">
         <f ca="1">TEXT(INDIRECT(ADDRESS($B$1,1,4,1,"route")),"000")</f>
-        <v>207</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -1678,25 +1824,25 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="60.6640625" customWidth="1"/>
+    <col min="1" max="1" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>81</v>
       </c>
       <c r="B1" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="2"/>
@@ -1704,26 +1850,26 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,3,4,1,"route"))</f>
-        <v>uzefovo</v>
+        <v>tochil</v>
       </c>
       <c r="E2" s="16" t="str">
         <f ca="1">"&lt;unit"&amp;NomZagMar&amp;"&gt; """&amp;$A$3&amp;""""&amp;" {i 0, t 002, l "&amp;$A$4&amp;" "&amp;$A$4&amp;", d 000}"</f>
-        <v>&lt;unit100&gt; "Юзефово" {i 0, t 002, l 212 212, d 000}</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>&lt;unit100&gt; "Точилище" {i 0, t 002, l 209 209, d 000}</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,2,4,1,"route"))</f>
-        <v>Юзефово</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>Точилище</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="str">
         <f ca="1">TEXT(INDIRECT(ADDRESS($B$1,1,4,1,"route")),"000")</f>
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -1732,25 +1878,25 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="60.6640625" customWidth="1"/>
+    <col min="1" max="1" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>81</v>
       </c>
       <c r="B1" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="2"/>
@@ -1758,26 +1904,26 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,3,4,1,"route"))</f>
-        <v>jalov</v>
+        <v>uzefovo</v>
       </c>
       <c r="E2" s="16" t="str">
         <f ca="1">"&lt;unit"&amp;NomZagMar&amp;"&gt; """&amp;$A$3&amp;""""&amp;" {i 0, t 002, l "&amp;$A$4&amp;" "&amp;$A$4&amp;", d 000}"</f>
-        <v>&lt;unit100&gt; "Яловица" {i 0, t 002, l 215 215, d 000}</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>&lt;unit100&gt; "Юзефово" {i 0, t 002, l 202 202, d 000}</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,2,4,1,"route"))</f>
-        <v>Яловица</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>Юзефово</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="str">
         <f ca="1">TEXT(INDIRECT(ADDRESS($B$1,1,4,1,"route")),"000")</f>
-        <v>215</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -1786,25 +1932,25 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="60.6640625" customWidth="1"/>
+    <col min="1" max="1" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>81</v>
       </c>
       <c r="B1" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="2"/>
@@ -1812,26 +1958,26 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,3,4,1,"route"))</f>
-        <v>automob</v>
+        <v>jalov</v>
       </c>
       <c r="E2" s="16" t="str">
         <f ca="1">"&lt;unit"&amp;NomZagMar&amp;"&gt; """&amp;$A$3&amp;""""&amp;" {i 0, t 002, l "&amp;$A$4&amp;" "&amp;$A$4&amp;", d 000}"</f>
-        <v>&lt;unit100&gt; "с/т Автомобилист" {i 0, t 002, l 217 217, d 000}</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>&lt;unit100&gt; "Яловица" {i 0, t 002, l 210 210, d 000}</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,2,4,1,"route"))</f>
-        <v>с/т Автомобилист</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>Яловица</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="str">
         <f ca="1">TEXT(INDIRECT(ADDRESS($B$1,1,4,1,"route")),"000")</f>
-        <v>217</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -1840,25 +1986,25 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="60.6640625" customWidth="1"/>
+    <col min="1" max="1" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>81</v>
       </c>
       <c r="B1" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="2"/>
@@ -1866,26 +2012,26 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,3,4,1,"route"))</f>
-        <v>zhurav</v>
+        <v>automob</v>
       </c>
       <c r="E2" s="16" t="str">
         <f ca="1">"&lt;unit"&amp;NomZagMar&amp;"&gt; """&amp;$A$3&amp;""""&amp;" {i 0, t 002, l "&amp;$A$4&amp;" "&amp;$A$4&amp;", d 000}"</f>
-        <v>&lt;unit100&gt; "с/т Журавинка" {i 0, t 002, l 218 218, d 000}</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>&lt;unit100&gt; "с/т Автомобилист" {i 0, t 002, l 207 207, d 000}</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,2,4,1,"route"))</f>
-        <v>с/т Журавинка</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>с/т Автомобилист</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="str">
         <f ca="1">TEXT(INDIRECT(ADDRESS($B$1,1,4,1,"route")),"000")</f>
-        <v>218</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -1894,25 +2040,25 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="60.6640625" customWidth="1"/>
+    <col min="1" max="1" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>81</v>
       </c>
       <c r="B1" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="2"/>
@@ -1920,26 +2066,26 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,3,4,1,"route"))</f>
-        <v>pov_zur</v>
+        <v>zhurav</v>
       </c>
       <c r="E2" s="16" t="str">
         <f ca="1">"&lt;unit"&amp;NomZagMar&amp;"&gt; """&amp;$A$3&amp;""""&amp;" {i 0, t 002, l "&amp;$A$4&amp;" "&amp;$A$4&amp;", d 000}"</f>
-        <v>&lt;unit100&gt; "пов. с/т Журавинка" {i 0, t 002, l 318 318, d 000}</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>&lt;unit100&gt; "с/т Журавинка" {i 0, t 002, l 214 214, d 000}</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,2,4,1,"route"))</f>
-        <v>пов. с/т Журавинка</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>с/т Журавинка</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="str">
         <f ca="1">TEXT(INDIRECT(ADDRESS($B$1,1,4,1,"route")),"000")</f>
-        <v>318</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -1948,20 +2094,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9B3545D-4820-44C8-A8E6-9D0F72BE936B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="60.77734375" style="6" customWidth="1"/>
+    <col min="1" max="1" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60.75" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>83</v>
       </c>
@@ -1975,7 +2121,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>87</v>
       </c>
@@ -1986,11 +2132,11 @@
         <v>96</v>
       </c>
       <c r="E2" s="16" t="str">
-        <f>"&lt;unit"&amp;B2&amp;"&gt; """&amp;A2&amp;""""&amp;" {v ""\"&amp;mp3_knst&amp;"\"&amp;C2&amp;".mp3"", w 01}"</f>
+        <f t="shared" ref="E2:E12" si="0">"&lt;unit"&amp;B2&amp;"&gt; """&amp;A2&amp;""""&amp;" {v ""\"&amp;mp3_knst&amp;"\"&amp;C2&amp;".mp3"", w 01}"</f>
         <v>&lt;unit921&gt; "Автовокзал" {v "\mp3_knst\av.mp3", w 01}</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>89</v>
       </c>
@@ -2001,11 +2147,11 @@
         <v>98</v>
       </c>
       <c r="E3" s="16" t="str">
-        <f>"&lt;unit"&amp;B3&amp;"&gt; """&amp;A3&amp;""""&amp;" {v ""\"&amp;mp3_knst&amp;"\"&amp;C3&amp;".mp3"", w 01}"</f>
+        <f t="shared" si="0"/>
         <v>&lt;unit923&gt; "Гостиница" {v "\mp3_knst\gos.mp3", w 01}</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>88</v>
       </c>
@@ -2016,11 +2162,11 @@
         <v>97</v>
       </c>
       <c r="E4" s="16" t="str">
-        <f>"&lt;unit"&amp;B4&amp;"&gt; """&amp;A4&amp;""""&amp;" {v ""\"&amp;mp3_knst&amp;"\"&amp;C4&amp;".mp3"", w 01}"</f>
+        <f t="shared" si="0"/>
         <v>&lt;unit922&gt; "Диспетчерская станция" {v "\mp3_knst\ds.mp3", w 01}</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>86</v>
       </c>
@@ -2031,11 +2177,11 @@
         <v>95</v>
       </c>
       <c r="E5" s="16" t="str">
-        <f>"&lt;unit"&amp;B5&amp;"&gt; """&amp;A5&amp;""""&amp;" {v ""\"&amp;mp3_knst&amp;"\"&amp;C5&amp;".mp3"", w 01}"</f>
+        <f t="shared" si="0"/>
         <v>&lt;unit903&gt; "Конечная" {v "\mp3_knst\kanc.mp3", w 01}</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>86</v>
       </c>
@@ -2046,11 +2192,11 @@
         <v>99</v>
       </c>
       <c r="E6" s="16" t="str">
-        <f>"&lt;unit"&amp;B6&amp;"&gt; """&amp;A6&amp;""""&amp;" {v ""\"&amp;mp3_knst&amp;"\"&amp;C6&amp;".mp3"", w 01}"</f>
+        <f t="shared" si="0"/>
         <v>&lt;unit924&gt; "Конечная" {v "\mp3_knst\ko.mp3", w 01}</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>85</v>
       </c>
@@ -2061,11 +2207,11 @@
         <v>108</v>
       </c>
       <c r="E7" s="16" t="str">
-        <f>"&lt;unit"&amp;B7&amp;"&gt; """&amp;A7&amp;""""&amp;" {v ""\"&amp;mp3_knst&amp;"\"&amp;C7&amp;".mp3"", w 01}"</f>
+        <f t="shared" si="0"/>
         <v>&lt;unit902&gt; "Остановка" {v "\mp3_knst\ost.mp3", w 01}</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>109</v>
       </c>
@@ -2076,11 +2222,11 @@
         <v>94</v>
       </c>
       <c r="E8" s="16" t="str">
-        <f>"&lt;unit"&amp;B8&amp;"&gt; """&amp;A8&amp;""""&amp;" {v ""\"&amp;mp3_knst&amp;"\"&amp;C8&amp;".mp3"", w 01}"</f>
+        <f t="shared" si="0"/>
         <v>&lt;unit900&gt; "Остор., дв. закр. След. ост." {v "\mp3_knst\ostor.mp3", w 01}</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>90</v>
       </c>
@@ -2091,11 +2237,11 @@
         <v>100</v>
       </c>
       <c r="E9" s="16" t="str">
-        <f>"&lt;unit"&amp;B9&amp;"&gt; """&amp;A9&amp;""""&amp;" {v ""\"&amp;mp3_knst&amp;"\"&amp;C9&amp;".mp3"", w 01}"</f>
+        <f t="shared" si="0"/>
         <v>&lt;unit925&gt; "Площадь" {v "\mp3_knst\pl.mp3", w 01}</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>91</v>
       </c>
@@ -2106,11 +2252,11 @@
         <v>101</v>
       </c>
       <c r="E10" s="16" t="str">
-        <f>"&lt;unit"&amp;B10&amp;"&gt; """&amp;A10&amp;""""&amp;" {v ""\"&amp;mp3_knst&amp;"\"&amp;C10&amp;".mp3"", w 01}"</f>
+        <f t="shared" si="0"/>
         <v>&lt;unit926&gt; "Проспект" {v "\mp3_knst\pr.mp3", w 01}</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>92</v>
       </c>
@@ -2121,11 +2267,11 @@
         <v>102</v>
       </c>
       <c r="E11" s="16" t="str">
-        <f>"&lt;unit"&amp;B11&amp;"&gt; """&amp;A11&amp;""""&amp;" {v ""\"&amp;mp3_knst&amp;"\"&amp;C11&amp;".mp3"", w 01}"</f>
+        <f t="shared" si="0"/>
         <v>&lt;unit927&gt; "Станция метро" {v "\mp3_knst\sm.mp3", w 01}</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>93</v>
       </c>
@@ -2136,7 +2282,7 @@
         <v>103</v>
       </c>
       <c r="E12" s="16" t="str">
-        <f>"&lt;unit"&amp;B12&amp;"&gt; """&amp;A12&amp;""""&amp;" {v ""\"&amp;mp3_knst&amp;"\"&amp;C12&amp;".mp3"", w 01}"</f>
+        <f t="shared" si="0"/>
         <v>&lt;unit928&gt; "Улица" {v "\mp3_knst\ul.mp3", w 01}</v>
       </c>
     </row>
@@ -2150,25 +2296,25 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="60.6640625" customWidth="1"/>
+    <col min="1" max="1" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>81</v>
       </c>
       <c r="B1" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="2"/>
@@ -2176,26 +2322,26 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,3,4,1,"route"))</f>
-        <v>raduga</v>
+        <v>pov_zur</v>
       </c>
       <c r="E2" s="16" t="str">
         <f ca="1">"&lt;unit"&amp;NomZagMar&amp;"&gt; """&amp;$A$3&amp;""""&amp;" {i 0, t 002, l "&amp;$A$4&amp;" "&amp;$A$4&amp;", d 000}"</f>
-        <v>&lt;unit100&gt; "с/т Радуга" {i 0, t 002, l 040 040, d 000}</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>&lt;unit100&gt; "пов. с/т Журавинка" {i 0, t 002, l 614 614, d 000}</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,2,4,1,"route"))</f>
-        <v>с/т Радуга</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>пов. с/т Журавинка</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="str">
         <f ca="1">TEXT(INDIRECT(ADDRESS($B$1,1,4,1,"route")),"000")</f>
-        <v>040</v>
+        <v>614</v>
       </c>
     </row>
   </sheetData>
@@ -2204,25 +2350,25 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="60.6640625" customWidth="1"/>
+    <col min="1" max="1" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>81</v>
       </c>
       <c r="B1" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="2"/>
@@ -2230,26 +2376,26 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,3,4,1,"route"))</f>
-        <v>rodnik</v>
+        <v>raduga</v>
       </c>
       <c r="E2" s="16" t="str">
         <f ca="1">"&lt;unit"&amp;NomZagMar&amp;"&gt; """&amp;$A$3&amp;""""&amp;" {i 0, t 002, l "&amp;$A$4&amp;" "&amp;$A$4&amp;", d 000}"</f>
-        <v>&lt;unit100&gt; "с/т Родничок" {i 0, t 002, l 214 214, d 000}</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>&lt;unit100&gt; "с/т Радуга" {i 0, t 002, l 201 201, d 000}</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,2,4,1,"route"))</f>
-        <v>с/т Родничок</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>с/т Радуга</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="str">
         <f ca="1">TEXT(INDIRECT(ADDRESS($B$1,1,4,1,"route")),"000")</f>
-        <v>214</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -2258,25 +2404,25 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="60.6640625" customWidth="1"/>
+    <col min="1" max="1" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>81</v>
       </c>
       <c r="B1" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="2"/>
@@ -2284,26 +2430,26 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,3,4,1,"route"))</f>
-        <v>stroit</v>
+        <v>rodnik</v>
       </c>
       <c r="E2" s="16" t="str">
         <f ca="1">"&lt;unit"&amp;NomZagMar&amp;"&gt; """&amp;$A$3&amp;""""&amp;" {i 0, t 002, l "&amp;$A$4&amp;" "&amp;$A$4&amp;", d 000}"</f>
-        <v>&lt;unit100&gt; "с/т Строитель" {i 0, t 002, l 307 307, d 000}</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>&lt;unit100&gt; "с/т Родничок" {i 0, t 002, l 213 213, d 000}</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,2,4,1,"route"))</f>
-        <v>с/т Строитель</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>с/т Родничок</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="str">
         <f ca="1">TEXT(INDIRECT(ADDRESS($B$1,1,4,1,"route")),"000")</f>
-        <v>307</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -2312,25 +2458,25 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="60.6640625" customWidth="1"/>
+    <col min="1" max="1" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>81</v>
       </c>
       <c r="B1" s="2">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="2"/>
@@ -2338,26 +2484,26 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,3,4,1,"route"))</f>
-        <v>sluzhebn</v>
+        <v>stroit</v>
       </c>
       <c r="E2" s="16" t="str">
         <f ca="1">"&lt;unit"&amp;NomZagMar&amp;"&gt; """&amp;$A$3&amp;""""&amp;" {i 0, t 002, l "&amp;$A$4&amp;" "&amp;$A$4&amp;", d 000}"</f>
-        <v>&lt;unit100&gt; "СЛУЖЕБНЫЙ" {i 0, t 002, l 316 316, d 000}</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>&lt;unit100&gt; "с/т Строитель" {i 0, t 002, l 203 203, d 000}</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,2,4,1,"route"))</f>
-        <v>СЛУЖЕБНЫЙ</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>с/т Строитель</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="str">
         <f ca="1">TEXT(INDIRECT(ADDRESS($B$1,1,4,1,"route")),"000")</f>
-        <v>316</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -2366,25 +2512,25 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="60.6640625" customWidth="1"/>
+    <col min="1" max="1" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>81</v>
       </c>
       <c r="B1" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="2"/>
@@ -2392,26 +2538,26 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,3,4,1,"route"))</f>
-        <v>zakaz</v>
+        <v>sluzhebn</v>
       </c>
       <c r="E2" s="16" t="str">
         <f ca="1">"&lt;unit"&amp;NomZagMar&amp;"&gt; """&amp;$A$3&amp;""""&amp;" {i 0, t 002, l "&amp;$A$4&amp;" "&amp;$A$4&amp;", d 000}"</f>
-        <v>&lt;unit100&gt; "ЗАКАЗНОЙ" {i 0, t 002, l 201 201, d 000}</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>&lt;unit100&gt; "СЛУЖЕБНЫЙ" {i 0, t 002, l 600 600, d 000}</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,2,4,1,"route"))</f>
-        <v>ЗАКАЗНОЙ</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>СЛУЖЕБНЫЙ</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="str">
         <f ca="1">TEXT(INDIRECT(ADDRESS($B$1,1,4,1,"route")),"000")</f>
-        <v>201</v>
+        <v>600</v>
       </c>
     </row>
   </sheetData>
@@ -2420,25 +2566,25 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="60.6640625" customWidth="1"/>
+    <col min="1" max="1" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>81</v>
       </c>
       <c r="B1" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="2"/>
@@ -2446,26 +2592,26 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,3,4,1,"route"))</f>
-        <v>snekpro</v>
+        <v>zakaz</v>
       </c>
       <c r="E2" s="16" t="str">
         <f ca="1">"&lt;unit"&amp;NomZagMar&amp;"&gt; """&amp;$A$3&amp;""""&amp;" {i 0, t 002, l "&amp;$A$4&amp;" "&amp;$A$4&amp;", d 000}"</f>
-        <v>&lt;unit100&gt; "СНЕКПРО" {i 0, t 002, l 618 618, d 000}</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>&lt;unit100&gt; "ЗАКАЗНОЙ" {i 0, t 002, l 601 601, d 000}</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,2,4,1,"route"))</f>
-        <v>СНЕКПРО</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>ЗАКАЗНОЙ</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="str">
         <f ca="1">TEXT(INDIRECT(ADDRESS($B$1,1,4,1,"route")),"000")</f>
-        <v>618</v>
+        <v>601</v>
       </c>
     </row>
   </sheetData>
@@ -2474,25 +2620,25 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="60.6640625" customWidth="1"/>
+    <col min="1" max="1" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>81</v>
       </c>
       <c r="B1" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="2"/>
@@ -2500,26 +2646,26 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,3,4,1,"route"))</f>
-        <v>deti</v>
+        <v>snekpro</v>
       </c>
       <c r="E2" s="16" t="str">
         <f ca="1">"&lt;unit"&amp;NomZagMar&amp;"&gt; """&amp;$A$3&amp;""""&amp;" {i 0, t 002, l "&amp;$A$4&amp;" "&amp;$A$4&amp;", d 000}"</f>
-        <v>&lt;unit100&gt; "ДЕТИ" {i 0, t 002, l 202 202, d 000}</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>&lt;unit100&gt; "СНЕКПРО" {i 0, t 002, l 602 602, d 000}</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,2,4,1,"route"))</f>
-        <v>ДЕТИ</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>СНЕКПРО</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="str">
         <f ca="1">TEXT(INDIRECT(ADDRESS($B$1,1,4,1,"route")),"000")</f>
-        <v>202</v>
+        <v>602</v>
       </c>
     </row>
   </sheetData>
@@ -2528,25 +2674,25 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="60.6640625" customWidth="1"/>
+    <col min="1" max="1" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>81</v>
       </c>
       <c r="B1" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="2"/>
@@ -2554,26 +2700,80 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="str">
+        <f ca="1">INDIRECT(ADDRESS($B$1,3,4,1,"route"))</f>
+        <v>deti</v>
+      </c>
+      <c r="E2" s="16" t="str">
+        <f ca="1">"&lt;unit"&amp;NomZagMar&amp;"&gt; """&amp;$A$3&amp;""""&amp;" {i 0, t 002, l "&amp;$A$4&amp;" "&amp;$A$4&amp;", d 000}"</f>
+        <v>&lt;unit100&gt; "ДЕТИ" {i 0, t 002, l 603 603, d 000}</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="str">
+        <f ca="1">INDIRECT(ADDRESS($B$1,2,4,1,"route"))</f>
+        <v>ДЕТИ</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="str">
+        <f ca="1">TEXT(INDIRECT(ADDRESS($B$1,1,4,1,"route")),"000")</f>
+        <v>603</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="2">
+        <v>42</v>
+      </c>
+      <c r="C1" s="13"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,3,4,1,"route"))</f>
         <v>v_park</v>
       </c>
       <c r="E2" s="16" t="str">
         <f ca="1">"&lt;unit"&amp;NomZagMar&amp;"&gt; """&amp;$A$3&amp;""""&amp;" {i 0, t 002, l "&amp;$A$4&amp;" "&amp;$A$4&amp;", d 000}"</f>
-        <v>&lt;unit100&gt; "В ПАРК" {i 0, t 002, l 203 203, d 000}</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>&lt;unit100&gt; "В ПАРК" {i 0, t 002, l 604 604, d 000}</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,2,4,1,"route"))</f>
         <v>В ПАРК</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="str">
         <f ca="1">TEXT(INDIRECT(ADDRESS($B$1,1,4,1,"route")),"000")</f>
-        <v>203</v>
+        <v>604</v>
       </c>
     </row>
   </sheetData>
@@ -2582,25 +2782,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97F22EDD-E432-4467-B015-C349DE7ACC0C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.77734375" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.88671875" style="19" customWidth="1"/>
-    <col min="7" max="7" width="24.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.875" style="19" customWidth="1"/>
+    <col min="7" max="7" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="30.15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>280</v>
       </c>
@@ -2619,7 +2819,7 @@
       <c r="F1" s="18"/>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>182</v>
       </c>
@@ -2633,19 +2833,19 @@
         <v>112</v>
       </c>
       <c r="F2" s="19" t="str">
-        <f>IFERROR("c "&amp;VLOOKUP(A2,Punkti,2,FALSE),"")</f>
+        <f t="shared" ref="F2:F33" si="0">IFERROR("c "&amp;VLOOKUP(A2,Punkti,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="G2" t="str">
-        <f>"v ""\"&amp;mp3_ost&amp;"\"&amp;E2&amp;".mp3"""</f>
+        <f t="shared" ref="G2:G33" si="1">"v ""\"&amp;mp3_ost&amp;"\"&amp;E2&amp;".mp3"""</f>
         <v>v "\mp3_ost\8mikra.mp3"</v>
       </c>
-      <c r="H2" t="str">
-        <f t="shared" ref="H2:H62" si="0">_xlfn.TEXTJOIN(", ",TRUE,F2:G2)</f>
-        <v>v "\mp3_ost\8mikra.mp3"</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H2" t="e">
+        <f t="shared" ref="H2:H62" ca="1" si="2">_xlfn.TEXTJOIN(", ",TRUE,F2:G2)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>186</v>
       </c>
@@ -2659,19 +2859,19 @@
         <v>116</v>
       </c>
       <c r="F3" s="19" t="str">
-        <f>IFERROR("c "&amp;VLOOKUP(A3,Punkti,2,FALSE),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G3" t="str">
-        <f>"v ""\"&amp;mp3_ost&amp;"\"&amp;E3&amp;".mp3"""</f>
+        <f t="shared" si="1"/>
         <v>v "\mp3_ost\avtostan.mp3"</v>
       </c>
-      <c r="H3" t="str">
-        <f t="shared" si="0"/>
-        <v>v "\mp3_ost\avtostan.mp3"</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H3" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>187</v>
       </c>
@@ -2685,19 +2885,19 @@
         <v>117</v>
       </c>
       <c r="F4" s="19" t="str">
-        <f>IFERROR("c "&amp;VLOOKUP(A4,Punkti,2,FALSE),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G4" t="str">
-        <f>"v ""\"&amp;mp3_ost&amp;"\"&amp;E4&amp;".mp3"""</f>
+        <f t="shared" si="1"/>
         <v>v "\mp3_ost\azs.mp3"</v>
       </c>
-      <c r="H4" t="str">
-        <f t="shared" si="0"/>
-        <v>v "\mp3_ost\azs.mp3"</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H4" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>189</v>
       </c>
@@ -2711,19 +2911,19 @@
         <v>121</v>
       </c>
       <c r="F5" s="19" t="str">
-        <f>IFERROR("c "&amp;VLOOKUP(A5,Punkti,2,FALSE),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G5" t="str">
-        <f>"v ""\"&amp;mp3_ost&amp;"\"&amp;E5&amp;".mp3"""</f>
+        <f t="shared" si="1"/>
         <v>v "\mp3_ost\bol`nica.mp3"</v>
       </c>
-      <c r="H5" t="str">
-        <f t="shared" si="0"/>
-        <v>v "\mp3_ost\bol`nica.mp3"</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H5" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>270</v>
       </c>
@@ -2737,19 +2937,19 @@
         <v>166</v>
       </c>
       <c r="F6" s="19" t="str">
-        <f>IFERROR("c "&amp;VLOOKUP(A6,Punkti,2,FALSE),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G6" t="str">
-        <f>"v ""\"&amp;mp3_ost&amp;"\"&amp;E6&amp;".mp3"""</f>
+        <f t="shared" si="1"/>
         <v>v "\mp3_ost\vch.mp3"</v>
       </c>
-      <c r="H6" t="str">
-        <f t="shared" si="0"/>
-        <v>v "\mp3_ost\vch.mp3"</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H6" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>222</v>
       </c>
@@ -2763,19 +2963,19 @@
         <v>134</v>
       </c>
       <c r="F7" s="19" t="str">
-        <f>IFERROR("c "&amp;VLOOKUP(A7,Punkti,2,FALSE),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G7" t="str">
-        <f>"v ""\"&amp;mp3_ost&amp;"\"&amp;E7&amp;".mp3"""</f>
+        <f t="shared" si="1"/>
         <v>v "\mp3_ost\kladbvos.mp3"</v>
       </c>
-      <c r="H7" t="str">
-        <f t="shared" si="0"/>
-        <v>v "\mp3_ost\kladbvos.mp3"</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H7" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>214</v>
       </c>
@@ -2789,19 +2989,19 @@
         <v>126</v>
       </c>
       <c r="F8" s="19" t="str">
-        <f>IFERROR("c "&amp;VLOOKUP(A8,Punkti,2,FALSE),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G8" t="str">
-        <f>"v ""\"&amp;mp3_ost&amp;"\"&amp;E8&amp;".mp3"""</f>
+        <f t="shared" si="1"/>
         <v>v "\mp3_ost\gdk.mp3"</v>
       </c>
-      <c r="H8" t="str">
-        <f t="shared" si="0"/>
-        <v>v "\mp3_ost\gdk.mp3"</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H8" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>172</v>
       </c>
@@ -2815,19 +3015,19 @@
         <v>130</v>
       </c>
       <c r="F9" s="19" t="str">
-        <f>IFERROR("c "&amp;VLOOKUP(A9,Punkti,2,FALSE),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G9" t="str">
-        <f>"v ""\"&amp;mp3_ost&amp;"\"&amp;E9&amp;".mp3"""</f>
+        <f t="shared" si="1"/>
         <v>v "\mp3_ost\jd.mp3"</v>
       </c>
-      <c r="H9" t="str">
-        <f t="shared" si="0"/>
-        <v>v "\mp3_ost\jd.mp3"</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H9" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>171</v>
       </c>
@@ -2841,19 +3041,19 @@
         <v>131</v>
       </c>
       <c r="F10" s="19" t="str">
-        <f>IFERROR("c "&amp;VLOOKUP(A10,Punkti,2,FALSE),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G10" t="str">
-        <f>"v ""\"&amp;mp3_ost&amp;"\"&amp;E10&amp;".mp3"""</f>
+        <f t="shared" si="1"/>
         <v>v "\mp3_ost\jen-gimn.mp3"</v>
       </c>
-      <c r="H10" t="str">
-        <f t="shared" si="0"/>
-        <v>v "\mp3_ost\jen-gimn.mp3"</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H10" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>277</v>
       </c>
@@ -2867,19 +3067,19 @@
         <v>128</v>
       </c>
       <c r="F11" s="19" t="str">
-        <f>IFERROR("c "&amp;VLOOKUP(A11,Punkti,2,FALSE),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G11" t="str">
-        <f>"v ""\"&amp;mp3_ost&amp;"\"&amp;E11&amp;".mp3"""</f>
+        <f t="shared" si="1"/>
         <v>v "\mp3_ost\inst-zve.mp3"</v>
       </c>
-      <c r="H11" t="str">
-        <f t="shared" si="0"/>
-        <v>v "\mp3_ost\inst-zve.mp3"</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H11" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>276</v>
       </c>
@@ -2893,19 +3093,19 @@
         <v>127</v>
       </c>
       <c r="F12" s="19" t="str">
-        <f>IFERROR("c "&amp;VLOOKUP(A12,Punkti,2,FALSE),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G12" t="str">
-        <f>"v ""\"&amp;mp3_ost&amp;"\"&amp;E12&amp;".mp3"""</f>
+        <f t="shared" si="1"/>
         <v>v "\mp3_ost\inst-zem.mp3"</v>
       </c>
-      <c r="H12" t="str">
-        <f t="shared" si="0"/>
-        <v>v "\mp3_ost\inst-zem.mp3"</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H12" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>170</v>
       </c>
@@ -2919,19 +3119,19 @@
         <v>129</v>
       </c>
       <c r="F13" s="19" t="str">
-        <f>IFERROR("c "&amp;VLOOKUP(A13,Punkti,2,FALSE),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G13" t="str">
-        <f>"v ""\"&amp;mp3_ost&amp;"\"&amp;E13&amp;".mp3"""</f>
+        <f t="shared" si="1"/>
         <v>v "\mp3_ost\itk.mp3"</v>
       </c>
-      <c r="H13" t="str">
-        <f t="shared" si="0"/>
-        <v>v "\mp3_ost\itk.mp3"</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H13" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>274</v>
       </c>
@@ -2945,19 +3145,19 @@
         <v>168</v>
       </c>
       <c r="F14" s="19" t="str">
-        <f>IFERROR("c "&amp;VLOOKUP(A14,Punkti,2,FALSE),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G14" t="str">
-        <f>"v ""\"&amp;mp3_ost&amp;"\"&amp;E14&amp;".mp3"""</f>
+        <f t="shared" si="1"/>
         <v>v "\mp3_ost\yunost`.mp3"</v>
       </c>
-      <c r="H14" t="str">
-        <f t="shared" si="0"/>
-        <v>v "\mp3_ost\yunost`.mp3"</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H14" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>223</v>
       </c>
@@ -2971,19 +3171,19 @@
         <v>136</v>
       </c>
       <c r="F15" s="19" t="str">
-        <f>IFERROR("c "&amp;VLOOKUP(A15,Punkti,2,FALSE),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G15" t="str">
-        <f>"v ""\"&amp;mp3_ost&amp;"\"&amp;E15&amp;".mp3"""</f>
+        <f t="shared" si="1"/>
         <v>v "\mp3_ost\kztsh.mp3"</v>
       </c>
-      <c r="H15" t="str">
-        <f t="shared" si="0"/>
-        <v>v "\mp3_ost\kztsh.mp3"</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H15" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>221</v>
       </c>
@@ -2997,19 +3197,19 @@
         <v>133</v>
       </c>
       <c r="F16" s="19" t="str">
-        <f>IFERROR("c "&amp;VLOOKUP(A16,Punkti,2,FALSE),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G16" t="str">
-        <f>"v ""\"&amp;mp3_ost&amp;"\"&amp;E16&amp;".mp3"""</f>
+        <f t="shared" si="1"/>
         <v>v "\mp3_ost\kastel.mp3"</v>
       </c>
-      <c r="H16" t="str">
-        <f t="shared" si="0"/>
-        <v>v "\mp3_ost\kastel.mp3"</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H16" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>228</v>
       </c>
@@ -3023,19 +3223,19 @@
         <v>141</v>
       </c>
       <c r="F17" s="19" t="str">
-        <f>IFERROR("c "&amp;VLOOKUP(A17,Punkti,2,FALSE),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G17" t="str">
-        <f>"v ""\"&amp;mp3_ost&amp;"\"&amp;E17&amp;".mp3"""</f>
+        <f t="shared" si="1"/>
         <v>v "\mp3_ost\lesoceh.mp3"</v>
       </c>
-      <c r="H17" t="str">
-        <f t="shared" si="0"/>
-        <v>v "\mp3_ost\lesoceh.mp3"</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H17" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>278</v>
       </c>
@@ -3049,19 +3249,19 @@
         <v>142</v>
       </c>
       <c r="F18" s="19" t="str">
-        <f>IFERROR("c "&amp;VLOOKUP(A18,Punkti,2,FALSE),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G18" t="str">
-        <f>"v ""\"&amp;mp3_ost&amp;"\"&amp;E18&amp;".mp3"""</f>
+        <f t="shared" si="1"/>
         <v>v "\mp3_ost\magazin.mp3"</v>
       </c>
-      <c r="H18" t="str">
-        <f t="shared" si="0"/>
-        <v>v "\mp3_ost\magazin.mp3"</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H18" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>184</v>
       </c>
@@ -3075,19 +3275,19 @@
         <v>308</v>
       </c>
       <c r="F19" s="19" t="str">
-        <f>IFERROR("c "&amp;VLOOKUP(A19,Punkti,2,FALSE),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G19" t="str">
-        <f>"v ""\"&amp;mp3_ost&amp;"\"&amp;E19&amp;".mp3"""</f>
+        <f t="shared" si="1"/>
         <v>v "\mp3_ost\308.mp3"</v>
       </c>
-      <c r="H19" t="str">
-        <f t="shared" si="0"/>
-        <v>v "\mp3_ost\308.mp3"</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H19" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>185</v>
       </c>
@@ -3101,19 +3301,19 @@
         <v>936</v>
       </c>
       <c r="F20" s="19" t="str">
-        <f>IFERROR("c "&amp;VLOOKUP(A20,Punkti,2,FALSE),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G20" t="str">
-        <f>"v ""\"&amp;mp3_ost&amp;"\"&amp;E20&amp;".mp3"""</f>
+        <f t="shared" si="1"/>
         <v>v "\mp3_ost\936.mp3"</v>
       </c>
-      <c r="H20" t="str">
-        <f t="shared" si="0"/>
-        <v>v "\mp3_ost\936.mp3"</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H20" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>245</v>
       </c>
@@ -3127,19 +3327,19 @@
         <v>151</v>
       </c>
       <c r="F21" s="19" t="str">
-        <f>IFERROR("c "&amp;VLOOKUP(A21,Punkti,2,FALSE),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G21" t="str">
-        <f>"v ""\"&amp;mp3_ost&amp;"\"&amp;E21&amp;".mp3"""</f>
+        <f t="shared" si="1"/>
         <v>v "\mp3_ost\pojarnay.mp3"</v>
       </c>
-      <c r="H21" t="str">
-        <f t="shared" si="0"/>
-        <v>v "\mp3_ost\pojarnay.mp3"</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H21" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>235</v>
       </c>
@@ -3153,19 +3353,19 @@
         <v>148</v>
       </c>
       <c r="F22" s="19" t="str">
-        <f>IFERROR("c "&amp;VLOOKUP(A22,Punkti,2,FALSE),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G22" t="str">
-        <f>"v ""\"&amp;mp3_ost&amp;"\"&amp;E22&amp;".mp3"""</f>
+        <f t="shared" si="1"/>
         <v>v "\mp3_ost\paliklin.mp3"</v>
       </c>
-      <c r="H22" t="str">
-        <f t="shared" si="0"/>
-        <v>v "\mp3_ost\paliklin.mp3"</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H22" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>243</v>
       </c>
@@ -3179,19 +3379,19 @@
         <v>150</v>
       </c>
       <c r="F23" s="19" t="str">
-        <f>IFERROR("c "&amp;VLOOKUP(A23,Punkti,2,FALSE),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G23" t="str">
-        <f>"v ""\"&amp;mp3_ost&amp;"\"&amp;E23&amp;".mp3"""</f>
+        <f t="shared" si="1"/>
         <v>v "\mp3_ost\pochta.mp3"</v>
       </c>
-      <c r="H23" t="str">
-        <f t="shared" si="0"/>
-        <v>v "\mp3_ost\pochta.mp3"</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H23" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>272</v>
       </c>
@@ -3205,19 +3405,19 @@
         <v>167</v>
       </c>
       <c r="F24" s="19" t="str">
-        <f>IFERROR("c "&amp;VLOOKUP(A24,Punkti,2,FALSE),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G24" t="str">
-        <f>"v ""\"&amp;mp3_ost&amp;"\"&amp;E24&amp;".mp3"""</f>
+        <f t="shared" si="1"/>
         <v>v "\mp3_ost\venis`e.mp3"</v>
       </c>
-      <c r="H24" t="str">
-        <f t="shared" si="0"/>
-        <v>v "\mp3_ost\venis`e.mp3"</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H24" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>224</v>
       </c>
@@ -3231,19 +3431,19 @@
         <v>138</v>
       </c>
       <c r="F25" s="19" t="str">
-        <f>IFERROR("c "&amp;VLOOKUP(A25,Punkti,2,FALSE),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G25" t="str">
-        <f>"v ""\"&amp;mp3_ost&amp;"\"&amp;E25&amp;".mp3"""</f>
+        <f t="shared" si="1"/>
         <v>v "\mp3_ost\lenina.mp3"</v>
       </c>
-      <c r="H25" t="str">
-        <f t="shared" si="0"/>
-        <v>v "\mp3_ost\lenina.mp3"</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H25" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>177</v>
       </c>
@@ -3257,19 +3457,19 @@
         <v>144</v>
       </c>
       <c r="F26" s="19" t="str">
-        <f>IFERROR("c "&amp;VLOOKUP(A26,Punkti,2,FALSE),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G26" t="str">
-        <f>"v ""\"&amp;mp3_ost&amp;"\"&amp;E26&amp;".mp3"""</f>
+        <f t="shared" si="1"/>
         <v>v "\mp3_ost\mira.mp3"</v>
       </c>
-      <c r="H26" t="str">
-        <f t="shared" si="0"/>
-        <v>v "\mp3_ost\mira.mp3"</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H26" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>252</v>
       </c>
@@ -3283,19 +3483,19 @@
         <v>156</v>
       </c>
       <c r="F27" s="19" t="str">
-        <f>IFERROR("c "&amp;VLOOKUP(A27,Punkti,2,FALSE),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G27" t="str">
-        <f>"v ""\"&amp;mp3_ost&amp;"\"&amp;E27&amp;".mp3"""</f>
+        <f t="shared" si="1"/>
         <v>v "\mp3_ost\skarwnw.mp3"</v>
       </c>
-      <c r="H27" t="str">
-        <f t="shared" si="0"/>
-        <v>v "\mp3_ost\skarwnw.mp3"</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H27" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>251</v>
       </c>
@@ -3309,19 +3509,19 @@
         <v>155</v>
       </c>
       <c r="F28" s="19" t="str">
-        <f>IFERROR("c "&amp;VLOOKUP(A28,Punkti,2,FALSE),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G28" t="str">
-        <f>"v ""\"&amp;mp3_ost&amp;"\"&amp;E28&amp;".mp3"""</f>
+        <f t="shared" si="1"/>
         <v>v "\mp3_ost\sberbank.mp3"</v>
       </c>
-      <c r="H28" t="str">
-        <f t="shared" si="0"/>
-        <v>v "\mp3_ost\sberbank.mp3"</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H28" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>258</v>
       </c>
@@ -3335,19 +3535,19 @@
         <v>159</v>
       </c>
       <c r="F29" s="19" t="str">
-        <f>IFERROR("c "&amp;VLOOKUP(A29,Punkti,2,FALSE),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G29" t="str">
-        <f>"v ""\"&amp;mp3_ost&amp;"\"&amp;E29&amp;".mp3"""</f>
+        <f t="shared" si="1"/>
         <v>v "\mp3_ost\svitanak.mp3"</v>
       </c>
-      <c r="H29" t="str">
-        <f t="shared" si="0"/>
-        <v>v "\mp3_ost\svitanak.mp3"</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H29" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>249</v>
       </c>
@@ -3361,19 +3561,19 @@
         <v>154</v>
       </c>
       <c r="F30" s="19" t="str">
-        <f>IFERROR("c "&amp;VLOOKUP(A30,Punkti,2,FALSE),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G30" t="str">
-        <f>"v ""\"&amp;mp3_ost&amp;"\"&amp;E30&amp;".mp3"""</f>
+        <f t="shared" si="1"/>
         <v>v "\mp3_ost\rwnok.mp3"</v>
       </c>
-      <c r="H30" t="str">
-        <f t="shared" si="0"/>
-        <v>v "\mp3_ost\rwnok.mp3"</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H30" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>255</v>
       </c>
@@ -3387,19 +3587,19 @@
         <v>157</v>
       </c>
       <c r="F31" s="19" t="str">
-        <f>IFERROR("c "&amp;VLOOKUP(A31,Punkti,2,FALSE),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G31" t="str">
-        <f>"v ""\"&amp;mp3_ost&amp;"\"&amp;E31&amp;".mp3"""</f>
+        <f t="shared" si="1"/>
         <v>v "\mp3_ost\sudob-kl.mp3"</v>
       </c>
-      <c r="H31" t="str">
-        <f t="shared" si="0"/>
-        <v>v "\mp3_ost\sudob-kl.mp3"</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H31" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>179</v>
       </c>
@@ -3413,19 +3613,19 @@
         <v>110</v>
       </c>
       <c r="F32" s="19" t="str">
-        <f>IFERROR("c "&amp;VLOOKUP(A32,Punkti,2,FALSE),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G32" t="str">
-        <f>"v ""\"&amp;mp3_ost&amp;"\"&amp;E32&amp;".mp3"""</f>
+        <f t="shared" si="1"/>
         <v>v "\mp3_ost\5ssh.mp3"</v>
       </c>
-      <c r="H32" t="str">
-        <f t="shared" si="0"/>
-        <v>v "\mp3_ost\5ssh.mp3"</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H32" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>183</v>
       </c>
@@ -3439,19 +3639,19 @@
         <v>113</v>
       </c>
       <c r="F33" s="19" t="str">
-        <f>IFERROR("c "&amp;VLOOKUP(A33,Punkti,2,FALSE),"")</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G33" t="str">
-        <f>"v ""\"&amp;mp3_ost&amp;"\"&amp;E33&amp;".mp3"""</f>
+        <f t="shared" si="1"/>
         <v>v "\mp3_ost\8ssh.mp3"</v>
       </c>
-      <c r="H33" t="str">
-        <f t="shared" si="0"/>
-        <v>v "\mp3_ost\8ssh.mp3"</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H33" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>261</v>
       </c>
@@ -3465,19 +3665,19 @@
         <v>161</v>
       </c>
       <c r="F34" s="19" t="str">
-        <f>IFERROR("c "&amp;VLOOKUP(A34,Punkti,2,FALSE),"")</f>
+        <f t="shared" ref="F34:F62" si="3">IFERROR("c "&amp;VLOOKUP(A34,Punkti,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="G34" t="str">
-        <f>"v ""\"&amp;mp3_ost&amp;"\"&amp;E34&amp;".mp3"""</f>
+        <f t="shared" ref="G34:G62" si="4">"v ""\"&amp;mp3_ost&amp;"\"&amp;E34&amp;".mp3"""</f>
         <v>v "\mp3_ost\tamoj.mp3"</v>
       </c>
-      <c r="H34" t="str">
-        <f t="shared" si="0"/>
-        <v>v "\mp3_ost\tamoj.mp3"</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H34" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>263</v>
       </c>
@@ -3491,19 +3691,19 @@
         <v>162</v>
       </c>
       <c r="F35" s="19" t="str">
-        <f>IFERROR("c "&amp;VLOOKUP(A35,Punkti,2,FALSE),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G35" t="str">
-        <f>"v ""\"&amp;mp3_ost&amp;"\"&amp;E35&amp;".mp3"""</f>
+        <f t="shared" si="4"/>
         <v>v "\mp3_ost\tc.mp3"</v>
       </c>
-      <c r="H35" t="str">
-        <f t="shared" si="0"/>
-        <v>v "\mp3_ost\tc.mp3"</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H35" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>279</v>
       </c>
@@ -3517,19 +3717,19 @@
         <v>119</v>
       </c>
       <c r="F36" s="19" t="str">
-        <f>IFERROR("c "&amp;VLOOKUP(A36,Punkti,2,FALSE),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G36" t="str">
-        <f>"v ""\"&amp;mp3_ost&amp;"\"&amp;E36&amp;".mp3"""</f>
+        <f t="shared" si="4"/>
         <v>v "\mp3_ost\belaz.mp3"</v>
       </c>
-      <c r="H36" t="str">
-        <f t="shared" si="0"/>
-        <v>v "\mp3_ost\belaz.mp3"</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H36" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>265</v>
       </c>
@@ -3543,19 +3743,19 @@
         <v>163</v>
       </c>
       <c r="F37" s="19" t="str">
-        <f>IFERROR("c "&amp;VLOOKUP(A37,Punkti,2,FALSE),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G37" t="str">
-        <f>"v ""\"&amp;mp3_ost&amp;"\"&amp;E37&amp;".mp3"""</f>
+        <f t="shared" si="4"/>
         <v>v "\mp3_ost\tec.mp3"</v>
       </c>
-      <c r="H37" t="str">
-        <f t="shared" si="0"/>
-        <v>v "\mp3_ost\tec.mp3"</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H37" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>93</v>
       </c>
@@ -3572,19 +3772,19 @@
         <v>114</v>
       </c>
       <c r="F38" s="19" t="str">
-        <f>IFERROR("c "&amp;VLOOKUP(A38,Punkti,2,FALSE),"")</f>
+        <f t="shared" si="3"/>
         <v>c 928</v>
       </c>
       <c r="G38" t="str">
-        <f>"v ""\"&amp;mp3_ost&amp;"\"&amp;E38&amp;".mp3"""</f>
+        <f t="shared" si="4"/>
         <v>v "\mp3_ost\50letokt.mp3"</v>
       </c>
-      <c r="H38" t="str">
-        <f t="shared" si="0"/>
-        <v>c 928, v "\mp3_ost\50letokt.mp3"</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H38" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>93</v>
       </c>
@@ -3601,19 +3801,19 @@
         <v>111</v>
       </c>
       <c r="F39" s="19" t="str">
-        <f>IFERROR("c "&amp;VLOOKUP(A39,Punkti,2,FALSE),"")</f>
+        <f t="shared" si="3"/>
         <v>c 928</v>
       </c>
       <c r="G39" t="str">
-        <f>"v ""\"&amp;mp3_ost&amp;"\"&amp;E39&amp;".mp3"""</f>
+        <f t="shared" si="4"/>
         <v>v "\mp3_ost\8marta.mp3"</v>
       </c>
-      <c r="H39" t="str">
-        <f t="shared" si="0"/>
-        <v>c 928, v "\mp3_ost\8marta.mp3"</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H39" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>93</v>
       </c>
@@ -3630,19 +3830,19 @@
         <v>115</v>
       </c>
       <c r="F40" s="19" t="str">
-        <f>IFERROR("c "&amp;VLOOKUP(A40,Punkti,2,FALSE),"")</f>
+        <f t="shared" si="3"/>
         <v>c 928</v>
       </c>
       <c r="G40" t="str">
-        <f>"v ""\"&amp;mp3_ost&amp;"\"&amp;E40&amp;".mp3"""</f>
+        <f t="shared" si="4"/>
         <v>v "\mp3_ost\avtomobi.mp3"</v>
       </c>
-      <c r="H40" t="str">
-        <f t="shared" si="0"/>
-        <v>c 928, v "\mp3_ost\avtomobi.mp3"</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H40" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>93</v>
       </c>
@@ -3659,19 +3859,19 @@
         <v>118</v>
       </c>
       <c r="F41" s="19" t="str">
-        <f>IFERROR("c "&amp;VLOOKUP(A41,Punkti,2,FALSE),"")</f>
+        <f t="shared" si="3"/>
         <v>c 928</v>
       </c>
       <c r="G41" t="str">
-        <f>"v ""\"&amp;mp3_ost&amp;"\"&amp;E41&amp;".mp3"""</f>
+        <f t="shared" si="4"/>
         <v>v "\mp3_ost\bajora.mp3"</v>
       </c>
-      <c r="H41" t="str">
-        <f t="shared" si="0"/>
-        <v>c 928, v "\mp3_ost\bajora.mp3"</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H41" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>93</v>
       </c>
@@ -3688,19 +3888,19 @@
         <v>120</v>
       </c>
       <c r="F42" s="19" t="str">
-        <f>IFERROR("c "&amp;VLOOKUP(A42,Punkti,2,FALSE),"")</f>
+        <f t="shared" si="3"/>
         <v>c 928</v>
       </c>
       <c r="G42" t="str">
-        <f>"v ""\"&amp;mp3_ost&amp;"\"&amp;E42&amp;".mp3"""</f>
+        <f t="shared" si="4"/>
         <v>v "\mp3_ost\boguslav.mp3"</v>
       </c>
-      <c r="H42" t="str">
-        <f t="shared" si="0"/>
-        <v>c 928, v "\mp3_ost\boguslav.mp3"</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H42" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>93</v>
       </c>
@@ -3717,19 +3917,19 @@
         <v>125</v>
       </c>
       <c r="F43" s="19" t="str">
-        <f>IFERROR("c "&amp;VLOOKUP(A43,Punkti,2,FALSE),"")</f>
+        <f t="shared" si="3"/>
         <v>c 928</v>
       </c>
       <c r="G43" t="str">
-        <f>"v ""\"&amp;mp3_ost&amp;"\"&amp;E43&amp;".mp3"""</f>
+        <f t="shared" si="4"/>
         <v>v "\mp3_ost\gagarina.mp3"</v>
       </c>
-      <c r="H43" t="str">
-        <f t="shared" si="0"/>
-        <v>c 928, v "\mp3_ost\gagarina.mp3"</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H43" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>93</v>
       </c>
@@ -3746,19 +3946,19 @@
         <v>123</v>
       </c>
       <c r="F44" s="19" t="str">
-        <f>IFERROR("c "&amp;VLOOKUP(A44,Punkti,2,FALSE),"")</f>
+        <f t="shared" si="3"/>
         <v>c 928</v>
       </c>
       <c r="G44" t="str">
-        <f>"v ""\"&amp;mp3_ost&amp;"\"&amp;E44&amp;".mp3"""</f>
+        <f t="shared" si="4"/>
         <v>v "\mp3_ost\darojnay.mp3"</v>
       </c>
-      <c r="H44" t="str">
-        <f t="shared" si="0"/>
-        <v>c 928, v "\mp3_ost\darojnay.mp3"</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H44" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>93</v>
       </c>
@@ -3775,19 +3975,19 @@
         <v>132</v>
       </c>
       <c r="F45" s="19" t="str">
-        <f>IFERROR("c "&amp;VLOOKUP(A45,Punkti,2,FALSE),"")</f>
+        <f t="shared" si="3"/>
         <v>c 928</v>
       </c>
       <c r="G45" t="str">
-        <f>"v ""\"&amp;mp3_ost&amp;"\"&amp;E45&amp;".mp3"""</f>
+        <f t="shared" si="4"/>
         <v>v "\mp3_ost\kalinina.mp3"</v>
       </c>
-      <c r="H45" t="str">
-        <f t="shared" si="0"/>
-        <v>c 928, v "\mp3_ost\kalinina.mp3"</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H45" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>93</v>
       </c>
@@ -3804,19 +4004,19 @@
         <v>135</v>
       </c>
       <c r="F46" s="19" t="str">
-        <f>IFERROR("c "&amp;VLOOKUP(A46,Punkti,2,FALSE),"")</f>
+        <f t="shared" si="3"/>
         <v>c 928</v>
       </c>
       <c r="G46" t="str">
-        <f>"v ""\"&amp;mp3_ost&amp;"\"&amp;E46&amp;".mp3"""</f>
+        <f t="shared" si="4"/>
         <v>v "\mp3_ost\kupriyan.mp3"</v>
       </c>
-      <c r="H46" t="str">
-        <f t="shared" si="0"/>
-        <v>c 928, v "\mp3_ost\kupriyan.mp3"</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H46" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>93</v>
       </c>
@@ -3833,19 +4033,19 @@
         <v>139</v>
       </c>
       <c r="F47" s="19" t="str">
-        <f>IFERROR("c "&amp;VLOOKUP(A47,Punkti,2,FALSE),"")</f>
+        <f t="shared" si="3"/>
         <v>c 928</v>
       </c>
       <c r="G47" t="str">
-        <f>"v ""\"&amp;mp3_ost&amp;"\"&amp;E47&amp;".mp3"""</f>
+        <f t="shared" si="4"/>
         <v>v "\mp3_ost\leninska.mp3"</v>
       </c>
-      <c r="H47" t="str">
-        <f t="shared" si="0"/>
-        <v>c 928, v "\mp3_ost\leninska.mp3"</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H47" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>93</v>
       </c>
@@ -3862,19 +4062,19 @@
         <v>140</v>
       </c>
       <c r="F48" s="19" t="str">
-        <f>IFERROR("c "&amp;VLOOKUP(A48,Punkti,2,FALSE),"")</f>
+        <f t="shared" si="3"/>
         <v>c 928</v>
       </c>
       <c r="G48" t="str">
-        <f>"v ""\"&amp;mp3_ost&amp;"\"&amp;E48&amp;".mp3"""</f>
+        <f t="shared" si="4"/>
         <v>v "\mp3_ost\lesnaya.mp3"</v>
       </c>
-      <c r="H48" t="str">
-        <f t="shared" si="0"/>
-        <v>c 928, v "\mp3_ost\lesnaya.mp3"</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H48" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>93</v>
       </c>
@@ -3891,19 +4091,19 @@
         <v>137</v>
       </c>
       <c r="F49" s="19" t="str">
-        <f>IFERROR("c "&amp;VLOOKUP(A49,Punkti,2,FALSE),"")</f>
+        <f t="shared" si="3"/>
         <v>c 928</v>
       </c>
       <c r="G49" t="str">
-        <f>"v ""\"&amp;mp3_ost&amp;"\"&amp;E49&amp;".mp3"""</f>
+        <f t="shared" si="4"/>
         <v>v "\mp3_ost\lag.mp3"</v>
       </c>
-      <c r="H49" t="str">
-        <f t="shared" si="0"/>
-        <v>c 928, v "\mp3_ost\lag.mp3"</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H49" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>93</v>
       </c>
@@ -3920,19 +4120,19 @@
         <v>143</v>
       </c>
       <c r="F50" s="19" t="str">
-        <f>IFERROR("c "&amp;VLOOKUP(A50,Punkti,2,FALSE),"")</f>
+        <f t="shared" si="3"/>
         <v>c 928</v>
       </c>
       <c r="G50" t="str">
-        <f>"v ""\"&amp;mp3_ost&amp;"\"&amp;E50&amp;".mp3"""</f>
+        <f t="shared" si="4"/>
         <v>v "\mp3_ost\magistra.mp3"</v>
       </c>
-      <c r="H50" t="str">
-        <f t="shared" si="0"/>
-        <v>c 928, v "\mp3_ost\magistra.mp3"</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H50" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>93</v>
       </c>
@@ -3949,19 +4149,19 @@
         <v>145</v>
       </c>
       <c r="F51" s="19" t="str">
-        <f>IFERROR("c "&amp;VLOOKUP(A51,Punkti,2,FALSE),"")</f>
+        <f t="shared" si="3"/>
         <v>c 928</v>
       </c>
       <c r="G51" t="str">
-        <f>"v ""\"&amp;mp3_ost&amp;"\"&amp;E51&amp;".mp3"""</f>
+        <f t="shared" si="4"/>
         <v>v "\mp3_ost\moskovsk.mp3"</v>
       </c>
-      <c r="H51" t="str">
-        <f t="shared" si="0"/>
-        <v>c 928, v "\mp3_ost\moskovsk.mp3"</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H51" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>93</v>
       </c>
@@ -3978,19 +4178,19 @@
         <v>146</v>
       </c>
       <c r="F52" s="19" t="str">
-        <f>IFERROR("c "&amp;VLOOKUP(A52,Punkti,2,FALSE),"")</f>
+        <f t="shared" si="3"/>
         <v>c 928</v>
       </c>
       <c r="G52" t="str">
-        <f>"v ""\"&amp;mp3_ost&amp;"\"&amp;E52&amp;".mp3"""</f>
+        <f t="shared" si="4"/>
         <v>v "\mp3_ost\nagornay.mp3"</v>
       </c>
-      <c r="H52" t="str">
-        <f t="shared" si="0"/>
-        <v>c 928, v "\mp3_ost\nagornay.mp3"</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H52" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>93</v>
       </c>
@@ -4007,19 +4207,19 @@
         <v>147</v>
       </c>
       <c r="F53" s="19" t="str">
-        <f>IFERROR("c "&amp;VLOOKUP(A53,Punkti,2,FALSE),"")</f>
+        <f t="shared" si="3"/>
         <v>c 928</v>
       </c>
       <c r="G53" t="str">
-        <f>"v ""\"&amp;mp3_ost&amp;"\"&amp;E53&amp;".mp3"""</f>
+        <f t="shared" si="4"/>
         <v>v "\mp3_ost\ostrovsk.mp3"</v>
       </c>
-      <c r="H53" t="str">
-        <f t="shared" si="0"/>
-        <v>c 928, v "\mp3_ost\ostrovsk.mp3"</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H53" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>93</v>
       </c>
@@ -4036,19 +4236,19 @@
         <v>149</v>
       </c>
       <c r="F54" s="19" t="str">
-        <f>IFERROR("c "&amp;VLOOKUP(A54,Punkti,2,FALSE),"")</f>
+        <f t="shared" si="3"/>
         <v>c 928</v>
       </c>
       <c r="G54" t="str">
-        <f>"v ""\"&amp;mp3_ost&amp;"\"&amp;E54&amp;".mp3"""</f>
+        <f t="shared" si="4"/>
         <v>v "\mp3_ost\partizan.mp3"</v>
       </c>
-      <c r="H54" t="str">
-        <f t="shared" si="0"/>
-        <v>c 928, v "\mp3_ost\partizan.mp3"</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H54" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>93</v>
       </c>
@@ -4065,19 +4265,19 @@
         <v>152</v>
       </c>
       <c r="F55" s="19" t="str">
-        <f>IFERROR("c "&amp;VLOOKUP(A55,Punkti,2,FALSE),"")</f>
+        <f t="shared" si="3"/>
         <v>c 928</v>
       </c>
       <c r="G55" t="str">
-        <f>"v ""\"&amp;mp3_ost&amp;"\"&amp;E55&amp;".mp3"""</f>
+        <f t="shared" si="4"/>
         <v>v "\mp3_ost\pyaschan.mp3"</v>
       </c>
-      <c r="H55" t="str">
-        <f t="shared" si="0"/>
-        <v>c 928, v "\mp3_ost\pyaschan.mp3"</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H55" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>93</v>
       </c>
@@ -4094,19 +4294,19 @@
         <v>153</v>
       </c>
       <c r="F56" s="19" t="str">
-        <f>IFERROR("c "&amp;VLOOKUP(A56,Punkti,2,FALSE),"")</f>
+        <f t="shared" si="3"/>
         <v>c 928</v>
       </c>
       <c r="G56" t="str">
-        <f>"v ""\"&amp;mp3_ost&amp;"\"&amp;E56&amp;".mp3"""</f>
+        <f t="shared" si="4"/>
         <v>v "\mp3_ost\rokosovs.mp3"</v>
       </c>
-      <c r="H56" t="str">
-        <f t="shared" si="0"/>
-        <v>c 928, v "\mp3_ost\rokosovs.mp3"</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H56" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>93</v>
       </c>
@@ -4123,19 +4323,19 @@
         <v>158</v>
       </c>
       <c r="F57" s="19" t="str">
-        <f>IFERROR("c "&amp;VLOOKUP(A57,Punkti,2,FALSE),"")</f>
+        <f t="shared" si="3"/>
         <v>c 928</v>
       </c>
       <c r="G57" t="str">
-        <f>"v ""\"&amp;mp3_ost&amp;"\"&amp;E57&amp;".mp3"""</f>
+        <f t="shared" si="4"/>
         <v>v "\mp3_ost\suhogrya.mp3"</v>
       </c>
-      <c r="H57" t="str">
-        <f t="shared" si="0"/>
-        <v>c 928, v "\mp3_ost\suhogrya.mp3"</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H57" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>93</v>
       </c>
@@ -4152,19 +4352,19 @@
         <v>160</v>
       </c>
       <c r="F58" s="19" t="str">
-        <f>IFERROR("c "&amp;VLOOKUP(A58,Punkti,2,FALSE),"")</f>
+        <f t="shared" si="3"/>
         <v>c 928</v>
       </c>
       <c r="G58" t="str">
-        <f>"v ""\"&amp;mp3_ost&amp;"\"&amp;E58&amp;".mp3"""</f>
+        <f t="shared" si="4"/>
         <v>v "\mp3_ost\swrokvas.mp3"</v>
       </c>
-      <c r="H58" t="str">
-        <f t="shared" si="0"/>
-        <v>c 928, v "\mp3_ost\swrokvas.mp3"</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H58" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>93</v>
       </c>
@@ -4181,19 +4381,19 @@
         <v>164</v>
       </c>
       <c r="F59" s="19" t="str">
-        <f>IFERROR("c "&amp;VLOOKUP(A59,Punkti,2,FALSE),"")</f>
+        <f t="shared" si="3"/>
         <v>c 928</v>
       </c>
       <c r="G59" t="str">
-        <f>"v ""\"&amp;mp3_ost&amp;"\"&amp;E59&amp;".mp3"""</f>
+        <f t="shared" si="4"/>
         <v>v "\mp3_ost\truda.mp3"</v>
       </c>
-      <c r="H59" t="str">
-        <f t="shared" si="0"/>
-        <v>c 928, v "\mp3_ost\truda.mp3"</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H59" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>268</v>
       </c>
@@ -4207,19 +4407,19 @@
         <v>165</v>
       </c>
       <c r="F60" s="19" t="str">
-        <f>IFERROR("c "&amp;VLOOKUP(A60,Punkti,2,FALSE),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G60" t="str">
-        <f>"v ""\"&amp;mp3_ost&amp;"\"&amp;E60&amp;".mp3"""</f>
+        <f t="shared" si="4"/>
         <v>v "\mp3_ost\universa.mp3"</v>
       </c>
-      <c r="H60" t="str">
-        <f t="shared" si="0"/>
-        <v>v "\mp3_ost\universa.mp3"</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H60" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>208</v>
       </c>
@@ -4233,19 +4433,19 @@
         <v>122</v>
       </c>
       <c r="F61" s="19" t="str">
-        <f>IFERROR("c "&amp;VLOOKUP(A61,Punkti,2,FALSE),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G61" t="str">
-        <f>"v ""\"&amp;mp3_ost&amp;"\"&amp;E61&amp;".mp3"""</f>
+        <f t="shared" si="4"/>
         <v>v "\mp3_ost\carkva.mp3"</v>
       </c>
-      <c r="H61" t="str">
-        <f t="shared" si="0"/>
-        <v>v "\mp3_ost\carkva.mp3"</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H61" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>211</v>
       </c>
@@ -4259,21 +4459,21 @@
         <v>124</v>
       </c>
       <c r="F62" s="19" t="str">
-        <f>IFERROR("c "&amp;VLOOKUP(A62,Punkti,2,FALSE),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="G62" t="str">
-        <f>"v ""\"&amp;mp3_ost&amp;"\"&amp;E62&amp;".mp3"""</f>
+        <f t="shared" si="4"/>
         <v>v "\mp3_ost\elseti.mp3"</v>
       </c>
-      <c r="H62" t="str">
-        <f t="shared" si="0"/>
-        <v>v "\mp3_ost\elseti.mp3"</v>
+      <c r="H62" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#NAME?</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A62" xr:uid="{E5E950AE-C261-41B6-B07F-B741432F5CAD}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A62">
       <formula1>Pref_Punktov</formula1>
     </dataValidation>
   </dataValidations>
@@ -4282,22 +4482,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.21875" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.25" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="60.6640625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="60.625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -4311,7 +4511,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="3" customFormat="1" ht="12.45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="3" customFormat="1" ht="11.55" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>79</v>
       </c>
@@ -4325,7 +4525,10 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
+        <v>1</v>
+      </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
@@ -4337,7 +4540,10 @@
         <v>&lt;type00&gt; "1 Труда - КЗТШ" {1.ini}</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <v>2</v>
+      </c>
       <c r="B4" t="s">
         <v>32</v>
       </c>
@@ -4349,7 +4555,10 @@
         <v>&lt;type01&gt; "2 Бажора-Пож. часть" {2.ini}</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
+        <v>3</v>
+      </c>
       <c r="B5" t="s">
         <v>31</v>
       </c>
@@ -4361,7 +4570,10 @@
         <v>&lt;type02&gt; "3 Кузн.3-Новогрядск." {3.ini}</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
+        <v>4</v>
+      </c>
       <c r="B6" t="s">
         <v>12</v>
       </c>
@@ -4373,7 +4585,10 @@
         <v>&lt;type03&gt; "4 Советская-Косьё" {4.ini}</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
+        <v>5</v>
+      </c>
       <c r="B7" t="s">
         <v>13</v>
       </c>
@@ -4385,7 +4600,10 @@
         <v>&lt;type04&gt; "5 в/ч-Рокосовского" {5.ini}</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
+        <v>6</v>
+      </c>
       <c r="B8" t="s">
         <v>34</v>
       </c>
@@ -4397,7 +4615,10 @@
         <v>&lt;type05&gt; "6 Советск.-Пож.часть" {6.ini}</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
+        <v>60</v>
+      </c>
       <c r="B9" t="s">
         <v>33</v>
       </c>
@@ -4409,7 +4630,10 @@
         <v>&lt;type06&gt; "6а Советск.-9 мр-н" {6a.ini}</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
+        <v>7</v>
+      </c>
       <c r="B10" t="s">
         <v>14</v>
       </c>
@@ -4421,7 +4645,10 @@
         <v>&lt;type07&gt; "7 в/ч-Магистральная" {7.ini}</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
+        <v>8</v>
+      </c>
       <c r="B11" t="s">
         <v>15</v>
       </c>
@@ -4433,7 +4660,10 @@
         <v>&lt;type08&gt; "8 АС Жодино-КЗТШ" {8.ini}</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="12">
+        <v>80</v>
+      </c>
       <c r="B12" t="s">
         <v>16</v>
       </c>
@@ -4445,7 +4675,10 @@
         <v>&lt;type09&gt; "8a АС Жодино-КЗТШ" {8a.ini}</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="12">
+        <v>81</v>
+      </c>
       <c r="B13" t="s">
         <v>17</v>
       </c>
@@ -4457,7 +4690,10 @@
         <v>&lt;type10&gt; "8_ КЗТШ-АС Жодино" {8_.ini}</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
+        <v>9</v>
+      </c>
       <c r="B14" t="s">
         <v>18</v>
       </c>
@@ -4469,7 +4705,10 @@
         <v>&lt;type11&gt; "9 Бажора-КЗТШ" {9.ini}</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="12">
+        <v>11</v>
+      </c>
       <c r="B15" t="s">
         <v>35</v>
       </c>
@@ -4481,10 +4720,13 @@
         <v>&lt;type12&gt; "11 Труда-Вост.кладб." {11.ini}</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E16" s="16"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="12">
+        <v>10</v>
+      </c>
       <c r="B17" t="s">
         <v>56</v>
       </c>
@@ -4496,10 +4738,10 @@
         <v>&lt;type14&gt; "Город 1 Смолевичи" {gor1smol.ini}</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E18" s="16"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>208</v>
       </c>
@@ -4514,9 +4756,9 @@
         <v>&lt;type16&gt; "Барсуки" {barsuki.ini}</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B20" t="s">
         <v>62</v>
@@ -4529,7 +4771,7 @@
         <v>&lt;type17&gt; "Будагово" {budagovo.ini}</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>219</v>
       </c>
@@ -4544,9 +4786,9 @@
         <v>&lt;type18&gt; "Замлынье" {zamlinie.ini}</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="B22" t="s">
         <v>76</v>
@@ -4559,9 +4801,9 @@
         <v>&lt;type19&gt; "Зеленый Бор" {zel_bor.ini}</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="B23" t="s">
         <v>66</v>
@@ -4574,9 +4816,9 @@
         <v>&lt;type20&gt; "Логойск" {logoisk.ini}</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="B24" t="s">
         <v>65</v>
@@ -4589,9 +4831,9 @@
         <v>&lt;type21&gt; "Лютка" {ljutka.ini}</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B25" t="s">
         <v>67</v>
@@ -4604,9 +4846,9 @@
         <v>&lt;type22&gt; "Напалки" {napalki.ini}</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="B26" t="s">
         <v>71</v>
@@ -4619,9 +4861,9 @@
         <v>&lt;type23&gt; "Сутоки" {sutoki.ini}</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B27" t="s">
         <v>72</v>
@@ -4634,9 +4876,9 @@
         <v>&lt;type24&gt; "Точилище" {tochil.ini}</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="B28" t="s">
         <v>73</v>
@@ -4649,9 +4891,9 @@
         <v>&lt;type25&gt; "Юзефово" {uzefovo.ini}</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B29" t="s">
         <v>64</v>
@@ -4664,12 +4906,12 @@
         <v>&lt;type26&gt; "Яловица" {jalov.ini}</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E30" s="16"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="12">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="B31" t="s">
         <v>57</v>
@@ -4682,9 +4924,9 @@
         <v>&lt;type28&gt; "с/т Автомобилист" {automob.ini}</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="12">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B32" t="s">
         <v>60</v>
@@ -4697,9 +4939,9 @@
         <v>&lt;type29&gt; "с/т Журавинка" {zhurav.ini}</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="12">
-        <v>318</v>
+        <v>614</v>
       </c>
       <c r="B33" t="s">
         <v>61</v>
@@ -4712,9 +4954,9 @@
         <v>&lt;type30&gt; "пов. с/т Журавинка" {pov_zur.ini}</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="12">
-        <v>40</v>
+        <v>201</v>
       </c>
       <c r="B34" t="s">
         <v>58</v>
@@ -4727,9 +4969,9 @@
         <v>&lt;type31&gt; "с/т Радуга" {raduga.ini}</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="12">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B35" t="s">
         <v>68</v>
@@ -4742,9 +4984,9 @@
         <v>&lt;type32&gt; "с/т Родничок" {rodnik.ini}</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="12">
-        <v>307</v>
+        <v>203</v>
       </c>
       <c r="B36" t="s">
         <v>59</v>
@@ -4757,12 +4999,12 @@
         <v>&lt;type33&gt; "с/т Строитель" {stroit.ini}</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E37" s="16"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="12">
-        <v>316</v>
+        <v>600</v>
       </c>
       <c r="B38" t="s">
         <v>69</v>
@@ -4775,9 +5017,9 @@
         <v>&lt;type35&gt; "СЛУЖЕБНЫЙ" {sluzhebn.ini}</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="12">
-        <v>201</v>
+        <v>601</v>
       </c>
       <c r="B39" t="s">
         <v>75</v>
@@ -4790,9 +5032,9 @@
         <v>&lt;type36&gt; "ЗАКАЗНОЙ" {zakaz.ini}</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="12">
-        <v>618</v>
+        <v>602</v>
       </c>
       <c r="B40" t="s">
         <v>70</v>
@@ -4805,9 +5047,9 @@
         <v>&lt;type37&gt; "СНЕКПРО" {snekpro.ini}</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="12">
-        <v>202</v>
+        <v>603</v>
       </c>
       <c r="B41" t="s">
         <v>63</v>
@@ -4820,9 +5062,9 @@
         <v>&lt;type38&gt; "ДЕТИ" {deti.ini}</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="12">
-        <v>203</v>
+        <v>604</v>
       </c>
       <c r="B42" t="s">
         <v>74</v>
@@ -4839,8 +5081,9 @@
   <sortState ref="B19:F29">
     <sortCondition ref="B19:B29"/>
   </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="C4:C15" numberStoredAsText="1"/>
   </ignoredErrors>
@@ -4848,32 +5091,743 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E44"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="21"/>
+    <col min="4" max="4" width="16.25" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.25" style="22" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="20">
+        <f>route!A3</f>
+        <v>1</v>
+      </c>
+      <c r="B2" t="str">
+        <f>route!B3</f>
+        <v>1 Труда - КЗТШ</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>300</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="20">
+        <f>route!A4</f>
+        <v>2</v>
+      </c>
+      <c r="B3" t="str">
+        <f>route!B4</f>
+        <v>2 Бажора-Пож. часть</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>301</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="20">
+        <f>route!A5</f>
+        <v>3</v>
+      </c>
+      <c r="B4" t="str">
+        <f>route!B5</f>
+        <v>3 Кузн.3-Новогрядск.</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>305</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="20">
+        <f>route!A6</f>
+        <v>4</v>
+      </c>
+      <c r="B5" t="str">
+        <f>route!B6</f>
+        <v>4 Советская-Косьё</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>302</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="20">
+        <f>route!A7</f>
+        <v>5</v>
+      </c>
+      <c r="B6" t="str">
+        <f>route!B7</f>
+        <v>5 в/ч-Рокосовского</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="20">
+        <f>route!A8</f>
+        <v>6</v>
+      </c>
+      <c r="B7" t="str">
+        <f>route!B8</f>
+        <v>6 Советск.-Пож.часть</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>302</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="20">
+        <f>route!A9</f>
+        <v>60</v>
+      </c>
+      <c r="B8" t="str">
+        <f>route!B9</f>
+        <v>6а Советск.-9 мр-н</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>310</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>302</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="20">
+        <f>route!A10</f>
+        <v>7</v>
+      </c>
+      <c r="B9" t="str">
+        <f>route!B10</f>
+        <v>7 в/ч-Магистральная</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="20">
+        <f>route!A11</f>
+        <v>8</v>
+      </c>
+      <c r="B10" t="str">
+        <f>route!B11</f>
+        <v>8 АС Жодино-КЗТШ</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="20">
+        <f>route!A12</f>
+        <v>80</v>
+      </c>
+      <c r="B11" t="str">
+        <f>route!B12</f>
+        <v>8a АС Жодино-КЗТШ</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>313</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="20">
+        <f>route!A13</f>
+        <v>81</v>
+      </c>
+      <c r="B12" t="str">
+        <f>route!B13</f>
+        <v>8_ КЗТШ-АС Жодино</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>314</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="20">
+        <f>route!A14</f>
+        <v>9</v>
+      </c>
+      <c r="B13" t="str">
+        <f>route!B14</f>
+        <v>9 Бажора-КЗТШ</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>301</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="20">
+        <f>route!A15</f>
+        <v>11</v>
+      </c>
+      <c r="B14" t="str">
+        <f>route!B15</f>
+        <v>11 Труда-Вост.кладб.</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>300</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="20"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="20">
+        <f>route!A17</f>
+        <v>10</v>
+      </c>
+      <c r="B16" t="str">
+        <f>route!B17</f>
+        <v>Город 1 Смолевичи</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>317</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="20"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="20">
+        <f>route!A19</f>
+        <v>208</v>
+      </c>
+      <c r="B18" t="str">
+        <f>route!B19</f>
+        <v>Барсуки</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>320</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="20">
+        <f>route!A20</f>
+        <v>212</v>
+      </c>
+      <c r="B19" t="str">
+        <f>route!B20</f>
+        <v>Будагово</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>321</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>320</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="20">
+        <f>route!A21</f>
+        <v>219</v>
+      </c>
+      <c r="B20" t="str">
+        <f>route!B21</f>
+        <v>Замлынье</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>320</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="20">
+        <f>route!A22</f>
+        <v>211</v>
+      </c>
+      <c r="B21" t="str">
+        <f>route!B22</f>
+        <v>Зеленый Бор</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>324</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>320</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="20">
+        <f>route!A23</f>
+        <v>197</v>
+      </c>
+      <c r="B22" t="str">
+        <f>route!B23</f>
+        <v>Логойск</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>320</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="20">
+        <f>route!A24</f>
+        <v>204</v>
+      </c>
+      <c r="B23" t="str">
+        <f>route!B24</f>
+        <v>Лютка</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>323</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>320</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="20">
+        <f>route!A25</f>
+        <v>205</v>
+      </c>
+      <c r="B24" t="str">
+        <f>route!B25</f>
+        <v>Напалки</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>326</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>320</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="20">
+        <f>route!A26</f>
+        <v>216</v>
+      </c>
+      <c r="B25" t="str">
+        <f>route!B26</f>
+        <v>Сутоки</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>320</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="20">
+        <f>route!A27</f>
+        <v>209</v>
+      </c>
+      <c r="B26" t="str">
+        <f>route!B27</f>
+        <v>Точилище</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>320</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="20">
+        <f>route!A28</f>
+        <v>202</v>
+      </c>
+      <c r="B27" t="str">
+        <f>route!B28</f>
+        <v>Юзефово</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>330</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>320</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="20">
+        <f>route!A29</f>
+        <v>210</v>
+      </c>
+      <c r="B28" t="str">
+        <f>route!B29</f>
+        <v>Яловица</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>331</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>320</v>
+      </c>
+      <c r="E28" s="22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="20"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="20">
+        <f>route!A31</f>
+        <v>207</v>
+      </c>
+      <c r="B30" t="str">
+        <f>route!B31</f>
+        <v>с/т Автомобилист</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>332</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>320</v>
+      </c>
+      <c r="E30" s="22" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="20">
+        <f>route!A32</f>
+        <v>214</v>
+      </c>
+      <c r="B31" t="str">
+        <f>route!B32</f>
+        <v>с/т Журавинка</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>333</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>320</v>
+      </c>
+      <c r="E31" s="22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="20">
+        <f>route!A33</f>
+        <v>614</v>
+      </c>
+      <c r="B32" t="str">
+        <f>route!B33</f>
+        <v>пов. с/т Журавинка</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>333</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>320</v>
+      </c>
+      <c r="E32" s="22" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="20">
+        <f>route!A34</f>
+        <v>201</v>
+      </c>
+      <c r="B33" t="str">
+        <f>route!B34</f>
+        <v>с/т Радуга</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>334</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>320</v>
+      </c>
+      <c r="E33" s="22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="20">
+        <f>route!A35</f>
+        <v>213</v>
+      </c>
+      <c r="B34" t="str">
+        <f>route!B35</f>
+        <v>с/т Родничок</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>335</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>320</v>
+      </c>
+      <c r="E34" s="22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="20">
+        <f>route!A36</f>
+        <v>203</v>
+      </c>
+      <c r="B35" t="str">
+        <f>route!B36</f>
+        <v>с/т Строитель</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>336</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>320</v>
+      </c>
+      <c r="E35" s="22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="20"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="20">
+        <f>route!A38</f>
+        <v>600</v>
+      </c>
+      <c r="B37" t="str">
+        <f>route!B38</f>
+        <v>СЛУЖЕБНЫЙ</v>
+      </c>
+      <c r="D37" s="22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="20">
+        <f>route!A39</f>
+        <v>601</v>
+      </c>
+      <c r="B38" t="str">
+        <f>route!B39</f>
+        <v>ЗАКАЗНОЙ</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="20">
+        <f>route!A40</f>
+        <v>602</v>
+      </c>
+      <c r="B39" t="str">
+        <f>route!B40</f>
+        <v>СНЕКПРО</v>
+      </c>
+      <c r="D39" s="22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="20">
+        <f>route!A41</f>
+        <v>603</v>
+      </c>
+      <c r="B40" t="str">
+        <f>route!B41</f>
+        <v>ДЕТИ</v>
+      </c>
+      <c r="D40" s="22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="20">
+        <f>route!A42</f>
+        <v>604</v>
+      </c>
+      <c r="B41" t="str">
+        <f>route!B42</f>
+        <v>В ПАРК</v>
+      </c>
+      <c r="D41" s="22" t="s">
+        <v>339</v>
+      </c>
+      <c r="E41" s="22" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="20"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="20"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="20"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="60.6640625" customWidth="1"/>
+    <col min="1" max="1" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>81</v>
       </c>
@@ -4886,7 +5840,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,3,4,1,"route"))</f>
         <v>barsuki</v>
@@ -4896,13 +5850,13 @@
         <v>&lt;unit100&gt; "Барсуки" {i 0, t 002, l 208 208, d 000}</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,2,4,1,"route"))</f>
         <v>Барсуки</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="str">
         <f ca="1">TEXT(INDIRECT(ADDRESS($B$1,1,4,1,"route")),"000")</f>
         <v>208</v>
@@ -4913,21 +5867,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="60.6640625" customWidth="1"/>
+    <col min="1" max="1" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>81</v>
       </c>
@@ -4940,26 +5894,26 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,3,4,1,"route"))</f>
         <v>budagovo</v>
       </c>
       <c r="E2" s="16" t="str">
         <f ca="1">"&lt;unit"&amp;NomZagMar&amp;"&gt; """&amp;$A$3&amp;""""&amp;" {i 0, t 002, l "&amp;$A$4&amp;" "&amp;$A$4&amp;", d 000}"</f>
-        <v>&lt;unit100&gt; "Будагово" {i 0, t 002, l 216 216, d 000}</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>&lt;unit100&gt; "Будагово" {i 0, t 002, l 212 212, d 000}</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,2,4,1,"route"))</f>
         <v>Будагово</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="str">
         <f ca="1">TEXT(INDIRECT(ADDRESS($B$1,1,4,1,"route")),"000")</f>
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -4967,21 +5921,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="60.6640625" customWidth="1"/>
+    <col min="1" max="1" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>81</v>
       </c>
@@ -4994,7 +5948,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,3,4,1,"route"))</f>
         <v>zamlinie</v>
@@ -5004,70 +5958,16 @@
         <v>&lt;unit100&gt; "Замлынье" {i 0, t 002, l 219 219, d 000}</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,2,4,1,"route"))</f>
         <v>Замлынье</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="str">
         <f ca="1">TEXT(INDIRECT(ADDRESS($B$1,1,4,1,"route")),"000")</f>
         <v>219</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="60.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="B1" s="2">
-        <v>22</v>
-      </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="str">
-        <f ca="1">INDIRECT(ADDRESS($B$1,3,4,1,"route"))</f>
-        <v>zel_bor</v>
-      </c>
-      <c r="E2" s="16" t="str">
-        <f ca="1">"&lt;unit"&amp;NomZagMar&amp;"&gt; """&amp;$A$3&amp;""""&amp;" {i 0, t 002, l "&amp;$A$4&amp;" "&amp;$A$4&amp;", d 000}"</f>
-        <v>&lt;unit100&gt; "Зеленый Бор" {i 0, t 002, l 204 204, d 000}</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="str">
-        <f ca="1">INDIRECT(ADDRESS($B$1,2,4,1,"route"))</f>
-        <v>Зеленый Бор</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="str">
-        <f ca="1">TEXT(INDIRECT(ADDRESS($B$1,1,4,1,"route")),"000")</f>
-        <v>204</v>
       </c>
     </row>
   </sheetData>

--- a/gBuse/!_Маршруты_!/Жодино (глобальная переделка)/Помощник по составлению машрутов для СИТ.xlsx
+++ b/gBuse/!_Маршруты_!/Жодино (глобальная переделка)/Помощник по составлению машрутов для СИТ.xlsx
@@ -11,30 +11,31 @@
     <sheet name="Константы" sheetId="37" r:id="rId2"/>
     <sheet name="Остановки" sheetId="38" r:id="rId3"/>
     <sheet name="route" sheetId="1" r:id="rId4"/>
-    <sheet name="Табло" sheetId="40" r:id="rId5"/>
-    <sheet name="1" sheetId="4" r:id="rId6"/>
-    <sheet name="barsuki" sheetId="3" r:id="rId7"/>
-    <sheet name="budagovo" sheetId="16" r:id="rId8"/>
-    <sheet name="zamlinie" sheetId="17" r:id="rId9"/>
-    <sheet name="zel_bor" sheetId="18" r:id="rId10"/>
-    <sheet name="logoisk" sheetId="19" r:id="rId11"/>
-    <sheet name="ljutka" sheetId="20" r:id="rId12"/>
-    <sheet name="napalki" sheetId="21" r:id="rId13"/>
-    <sheet name="sutoki" sheetId="22" r:id="rId14"/>
-    <sheet name="tochil" sheetId="23" r:id="rId15"/>
-    <sheet name="uzefovo" sheetId="24" r:id="rId16"/>
-    <sheet name="jalov" sheetId="25" r:id="rId17"/>
-    <sheet name="automob" sheetId="26" r:id="rId18"/>
-    <sheet name="zhurav" sheetId="27" r:id="rId19"/>
-    <sheet name="pov_zur" sheetId="28" r:id="rId20"/>
-    <sheet name="raduga" sheetId="29" r:id="rId21"/>
-    <sheet name="rodnik" sheetId="30" r:id="rId22"/>
-    <sheet name="stroit" sheetId="31" r:id="rId23"/>
-    <sheet name="sluzhebn" sheetId="32" r:id="rId24"/>
-    <sheet name="zakaz" sheetId="33" r:id="rId25"/>
-    <sheet name="snekpro" sheetId="34" r:id="rId26"/>
-    <sheet name="deti" sheetId="35" r:id="rId27"/>
-    <sheet name="v_park" sheetId="36" r:id="rId28"/>
+    <sheet name="route (2)" sheetId="41" r:id="rId5"/>
+    <sheet name="Табло" sheetId="40" r:id="rId6"/>
+    <sheet name="1" sheetId="4" r:id="rId7"/>
+    <sheet name="barsuki" sheetId="3" r:id="rId8"/>
+    <sheet name="budagovo" sheetId="16" r:id="rId9"/>
+    <sheet name="zamlinie" sheetId="17" r:id="rId10"/>
+    <sheet name="zel_bor" sheetId="18" r:id="rId11"/>
+    <sheet name="logoisk" sheetId="19" r:id="rId12"/>
+    <sheet name="ljutka" sheetId="20" r:id="rId13"/>
+    <sheet name="napalki" sheetId="21" r:id="rId14"/>
+    <sheet name="sutoki" sheetId="22" r:id="rId15"/>
+    <sheet name="tochil" sheetId="23" r:id="rId16"/>
+    <sheet name="uzefovo" sheetId="24" r:id="rId17"/>
+    <sheet name="jalov" sheetId="25" r:id="rId18"/>
+    <sheet name="automob" sheetId="26" r:id="rId19"/>
+    <sheet name="zhurav" sheetId="27" r:id="rId20"/>
+    <sheet name="pov_zur" sheetId="28" r:id="rId21"/>
+    <sheet name="raduga" sheetId="29" r:id="rId22"/>
+    <sheet name="rodnik" sheetId="30" r:id="rId23"/>
+    <sheet name="stroit" sheetId="31" r:id="rId24"/>
+    <sheet name="sluzhebn" sheetId="32" r:id="rId25"/>
+    <sheet name="zakaz" sheetId="33" r:id="rId26"/>
+    <sheet name="snekpro" sheetId="34" r:id="rId27"/>
+    <sheet name="deti" sheetId="35" r:id="rId28"/>
+    <sheet name="v_park" sheetId="36" r:id="rId29"/>
   </sheets>
   <definedNames>
     <definedName name="mp3_knst">Настройки!$B$3</definedName>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="341">
   <si>
     <t>Номер маршрута</t>
   </si>
@@ -1572,7 +1573,7 @@
         <v>81</v>
       </c>
       <c r="B1" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="2"/>
@@ -1583,23 +1584,23 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,3,4,1,"route"))</f>
-        <v>zel_bor</v>
+        <v>zamlinie</v>
       </c>
       <c r="E2" s="16" t="str">
         <f ca="1">"&lt;unit"&amp;NomZagMar&amp;"&gt; """&amp;$A$3&amp;""""&amp;" {i 0, t 002, l "&amp;$A$4&amp;" "&amp;$A$4&amp;", d 000}"</f>
-        <v>&lt;unit100&gt; "Зеленый Бор" {i 0, t 002, l 211 211, d 000}</v>
+        <v>&lt;unit100&gt; "Замлынье" {i 0, t 002, l 219 219, d 000}</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,2,4,1,"route"))</f>
-        <v>Зеленый Бор</v>
+        <v>Замлынье</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="str">
         <f ca="1">TEXT(INDIRECT(ADDRESS($B$1,1,4,1,"route")),"000")</f>
-        <v>211</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -1626,7 +1627,7 @@
         <v>81</v>
       </c>
       <c r="B1" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="2"/>
@@ -1637,23 +1638,23 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,3,4,1,"route"))</f>
-        <v>logoisk</v>
+        <v>zel_bor</v>
       </c>
       <c r="E2" s="16" t="str">
         <f ca="1">"&lt;unit"&amp;NomZagMar&amp;"&gt; """&amp;$A$3&amp;""""&amp;" {i 0, t 002, l "&amp;$A$4&amp;" "&amp;$A$4&amp;", d 000}"</f>
-        <v>&lt;unit100&gt; "Логойск" {i 0, t 002, l 197 197, d 000}</v>
+        <v>&lt;unit100&gt; "Зеленый Бор" {i 0, t 002, l 211 211, d 000}</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,2,4,1,"route"))</f>
-        <v>Логойск</v>
+        <v>Зеленый Бор</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="str">
         <f ca="1">TEXT(INDIRECT(ADDRESS($B$1,1,4,1,"route")),"000")</f>
-        <v>197</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -1680,7 +1681,7 @@
         <v>81</v>
       </c>
       <c r="B1" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="2"/>
@@ -1691,23 +1692,23 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,3,4,1,"route"))</f>
-        <v>ljutka</v>
+        <v>logoisk</v>
       </c>
       <c r="E2" s="16" t="str">
         <f ca="1">"&lt;unit"&amp;NomZagMar&amp;"&gt; """&amp;$A$3&amp;""""&amp;" {i 0, t 002, l "&amp;$A$4&amp;" "&amp;$A$4&amp;", d 000}"</f>
-        <v>&lt;unit100&gt; "Лютка" {i 0, t 002, l 204 204, d 000}</v>
+        <v>&lt;unit100&gt; "Логойск" {i 0, t 002, l 197 197, d 000}</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,2,4,1,"route"))</f>
-        <v>Лютка</v>
+        <v>Логойск</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="str">
         <f ca="1">TEXT(INDIRECT(ADDRESS($B$1,1,4,1,"route")),"000")</f>
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -1734,7 +1735,7 @@
         <v>81</v>
       </c>
       <c r="B1" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="2"/>
@@ -1745,23 +1746,23 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,3,4,1,"route"))</f>
-        <v>napalki</v>
+        <v>ljutka</v>
       </c>
       <c r="E2" s="16" t="str">
         <f ca="1">"&lt;unit"&amp;NomZagMar&amp;"&gt; """&amp;$A$3&amp;""""&amp;" {i 0, t 002, l "&amp;$A$4&amp;" "&amp;$A$4&amp;", d 000}"</f>
-        <v>&lt;unit100&gt; "Напалки" {i 0, t 002, l 205 205, d 000}</v>
+        <v>&lt;unit100&gt; "Лютка" {i 0, t 002, l 204 204, d 000}</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,2,4,1,"route"))</f>
-        <v>Напалки</v>
+        <v>Лютка</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="str">
         <f ca="1">TEXT(INDIRECT(ADDRESS($B$1,1,4,1,"route")),"000")</f>
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -1788,7 +1789,7 @@
         <v>81</v>
       </c>
       <c r="B1" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="2"/>
@@ -1799,23 +1800,23 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,3,4,1,"route"))</f>
-        <v>sutoki</v>
+        <v>napalki</v>
       </c>
       <c r="E2" s="16" t="str">
         <f ca="1">"&lt;unit"&amp;NomZagMar&amp;"&gt; """&amp;$A$3&amp;""""&amp;" {i 0, t 002, l "&amp;$A$4&amp;" "&amp;$A$4&amp;", d 000}"</f>
-        <v>&lt;unit100&gt; "Сутоки" {i 0, t 002, l 216 216, d 000}</v>
+        <v>&lt;unit100&gt; "Напалки" {i 0, t 002, l 205 205, d 000}</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,2,4,1,"route"))</f>
-        <v>Сутоки</v>
+        <v>Напалки</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="str">
         <f ca="1">TEXT(INDIRECT(ADDRESS($B$1,1,4,1,"route")),"000")</f>
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -1842,7 +1843,7 @@
         <v>81</v>
       </c>
       <c r="B1" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="2"/>
@@ -1853,23 +1854,23 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,3,4,1,"route"))</f>
-        <v>tochil</v>
+        <v>sutoki</v>
       </c>
       <c r="E2" s="16" t="str">
         <f ca="1">"&lt;unit"&amp;NomZagMar&amp;"&gt; """&amp;$A$3&amp;""""&amp;" {i 0, t 002, l "&amp;$A$4&amp;" "&amp;$A$4&amp;", d 000}"</f>
-        <v>&lt;unit100&gt; "Точилище" {i 0, t 002, l 209 209, d 000}</v>
+        <v>&lt;unit100&gt; "Сутоки" {i 0, t 002, l 216 216, d 000}</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,2,4,1,"route"))</f>
-        <v>Точилище</v>
+        <v>Сутоки</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="str">
         <f ca="1">TEXT(INDIRECT(ADDRESS($B$1,1,4,1,"route")),"000")</f>
-        <v>209</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -1896,7 +1897,7 @@
         <v>81</v>
       </c>
       <c r="B1" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="2"/>
@@ -1907,23 +1908,23 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,3,4,1,"route"))</f>
-        <v>uzefovo</v>
+        <v>tochil</v>
       </c>
       <c r="E2" s="16" t="str">
         <f ca="1">"&lt;unit"&amp;NomZagMar&amp;"&gt; """&amp;$A$3&amp;""""&amp;" {i 0, t 002, l "&amp;$A$4&amp;" "&amp;$A$4&amp;", d 000}"</f>
-        <v>&lt;unit100&gt; "Юзефово" {i 0, t 002, l 202 202, d 000}</v>
+        <v>&lt;unit100&gt; "Точилище" {i 0, t 002, l 209 209, d 000}</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,2,4,1,"route"))</f>
-        <v>Юзефово</v>
+        <v>Точилище</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="str">
         <f ca="1">TEXT(INDIRECT(ADDRESS($B$1,1,4,1,"route")),"000")</f>
-        <v>202</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -1950,7 +1951,7 @@
         <v>81</v>
       </c>
       <c r="B1" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="2"/>
@@ -1961,23 +1962,23 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,3,4,1,"route"))</f>
-        <v>jalov</v>
+        <v>uzefovo</v>
       </c>
       <c r="E2" s="16" t="str">
         <f ca="1">"&lt;unit"&amp;NomZagMar&amp;"&gt; """&amp;$A$3&amp;""""&amp;" {i 0, t 002, l "&amp;$A$4&amp;" "&amp;$A$4&amp;", d 000}"</f>
-        <v>&lt;unit100&gt; "Яловица" {i 0, t 002, l 210 210, d 000}</v>
+        <v>&lt;unit100&gt; "Юзефово" {i 0, t 002, l 202 202, d 000}</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,2,4,1,"route"))</f>
-        <v>Яловица</v>
+        <v>Юзефово</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="str">
         <f ca="1">TEXT(INDIRECT(ADDRESS($B$1,1,4,1,"route")),"000")</f>
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -2004,7 +2005,7 @@
         <v>81</v>
       </c>
       <c r="B1" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="2"/>
@@ -2015,23 +2016,23 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,3,4,1,"route"))</f>
-        <v>automob</v>
+        <v>jalov</v>
       </c>
       <c r="E2" s="16" t="str">
         <f ca="1">"&lt;unit"&amp;NomZagMar&amp;"&gt; """&amp;$A$3&amp;""""&amp;" {i 0, t 002, l "&amp;$A$4&amp;" "&amp;$A$4&amp;", d 000}"</f>
-        <v>&lt;unit100&gt; "с/т Автомобилист" {i 0, t 002, l 207 207, d 000}</v>
+        <v>&lt;unit100&gt; "Яловица" {i 0, t 002, l 210 210, d 000}</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,2,4,1,"route"))</f>
-        <v>с/т Автомобилист</v>
+        <v>Яловица</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="str">
         <f ca="1">TEXT(INDIRECT(ADDRESS($B$1,1,4,1,"route")),"000")</f>
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -2058,7 +2059,7 @@
         <v>81</v>
       </c>
       <c r="B1" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="2"/>
@@ -2069,23 +2070,23 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,3,4,1,"route"))</f>
-        <v>zhurav</v>
+        <v>automob</v>
       </c>
       <c r="E2" s="16" t="str">
         <f ca="1">"&lt;unit"&amp;NomZagMar&amp;"&gt; """&amp;$A$3&amp;""""&amp;" {i 0, t 002, l "&amp;$A$4&amp;" "&amp;$A$4&amp;", d 000}"</f>
-        <v>&lt;unit100&gt; "с/т Журавинка" {i 0, t 002, l 214 214, d 000}</v>
+        <v>&lt;unit100&gt; "с/т Автомобилист" {i 0, t 002, l 207 207, d 000}</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,2,4,1,"route"))</f>
-        <v>с/т Журавинка</v>
+        <v>с/т Автомобилист</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="str">
         <f ca="1">TEXT(INDIRECT(ADDRESS($B$1,1,4,1,"route")),"000")</f>
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -2314,7 +2315,7 @@
         <v>81</v>
       </c>
       <c r="B1" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="2"/>
@@ -2325,23 +2326,23 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,3,4,1,"route"))</f>
-        <v>pov_zur</v>
+        <v>zhurav</v>
       </c>
       <c r="E2" s="16" t="str">
         <f ca="1">"&lt;unit"&amp;NomZagMar&amp;"&gt; """&amp;$A$3&amp;""""&amp;" {i 0, t 002, l "&amp;$A$4&amp;" "&amp;$A$4&amp;", d 000}"</f>
-        <v>&lt;unit100&gt; "пов. с/т Журавинка" {i 0, t 002, l 614 614, d 000}</v>
+        <v>&lt;unit100&gt; "с/т Журавинка" {i 0, t 002, l 214 214, d 000}</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,2,4,1,"route"))</f>
-        <v>пов. с/т Журавинка</v>
+        <v>с/т Журавинка</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="str">
         <f ca="1">TEXT(INDIRECT(ADDRESS($B$1,1,4,1,"route")),"000")</f>
-        <v>614</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -2368,7 +2369,7 @@
         <v>81</v>
       </c>
       <c r="B1" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="2"/>
@@ -2379,23 +2380,23 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,3,4,1,"route"))</f>
-        <v>raduga</v>
+        <v>pov_zur</v>
       </c>
       <c r="E2" s="16" t="str">
         <f ca="1">"&lt;unit"&amp;NomZagMar&amp;"&gt; """&amp;$A$3&amp;""""&amp;" {i 0, t 002, l "&amp;$A$4&amp;" "&amp;$A$4&amp;", d 000}"</f>
-        <v>&lt;unit100&gt; "с/т Радуга" {i 0, t 002, l 201 201, d 000}</v>
+        <v>&lt;unit100&gt; "пов. с/т Журавинка" {i 0, t 002, l 614 614, d 000}</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,2,4,1,"route"))</f>
-        <v>с/т Радуга</v>
+        <v>пов. с/т Журавинка</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="str">
         <f ca="1">TEXT(INDIRECT(ADDRESS($B$1,1,4,1,"route")),"000")</f>
-        <v>201</v>
+        <v>614</v>
       </c>
     </row>
   </sheetData>
@@ -2422,7 +2423,7 @@
         <v>81</v>
       </c>
       <c r="B1" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="2"/>
@@ -2433,23 +2434,23 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,3,4,1,"route"))</f>
-        <v>rodnik</v>
+        <v>raduga</v>
       </c>
       <c r="E2" s="16" t="str">
         <f ca="1">"&lt;unit"&amp;NomZagMar&amp;"&gt; """&amp;$A$3&amp;""""&amp;" {i 0, t 002, l "&amp;$A$4&amp;" "&amp;$A$4&amp;", d 000}"</f>
-        <v>&lt;unit100&gt; "с/т Родничок" {i 0, t 002, l 213 213, d 000}</v>
+        <v>&lt;unit100&gt; "с/т Радуга" {i 0, t 002, l 201 201, d 000}</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,2,4,1,"route"))</f>
-        <v>с/т Родничок</v>
+        <v>с/т Радуга</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="str">
         <f ca="1">TEXT(INDIRECT(ADDRESS($B$1,1,4,1,"route")),"000")</f>
-        <v>213</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -2476,7 +2477,7 @@
         <v>81</v>
       </c>
       <c r="B1" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="2"/>
@@ -2487,23 +2488,23 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,3,4,1,"route"))</f>
-        <v>stroit</v>
+        <v>rodnik</v>
       </c>
       <c r="E2" s="16" t="str">
         <f ca="1">"&lt;unit"&amp;NomZagMar&amp;"&gt; """&amp;$A$3&amp;""""&amp;" {i 0, t 002, l "&amp;$A$4&amp;" "&amp;$A$4&amp;", d 000}"</f>
-        <v>&lt;unit100&gt; "с/т Строитель" {i 0, t 002, l 203 203, d 000}</v>
+        <v>&lt;unit100&gt; "с/т Родничок" {i 0, t 002, l 213 213, d 000}</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,2,4,1,"route"))</f>
-        <v>с/т Строитель</v>
+        <v>с/т Родничок</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="str">
         <f ca="1">TEXT(INDIRECT(ADDRESS($B$1,1,4,1,"route")),"000")</f>
-        <v>203</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -2530,7 +2531,7 @@
         <v>81</v>
       </c>
       <c r="B1" s="2">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="2"/>
@@ -2541,23 +2542,23 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,3,4,1,"route"))</f>
-        <v>sluzhebn</v>
+        <v>stroit</v>
       </c>
       <c r="E2" s="16" t="str">
         <f ca="1">"&lt;unit"&amp;NomZagMar&amp;"&gt; """&amp;$A$3&amp;""""&amp;" {i 0, t 002, l "&amp;$A$4&amp;" "&amp;$A$4&amp;", d 000}"</f>
-        <v>&lt;unit100&gt; "СЛУЖЕБНЫЙ" {i 0, t 002, l 600 600, d 000}</v>
+        <v>&lt;unit100&gt; "с/т Строитель" {i 0, t 002, l 203 203, d 000}</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,2,4,1,"route"))</f>
-        <v>СЛУЖЕБНЫЙ</v>
+        <v>с/т Строитель</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="str">
         <f ca="1">TEXT(INDIRECT(ADDRESS($B$1,1,4,1,"route")),"000")</f>
-        <v>600</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -2584,7 +2585,7 @@
         <v>81</v>
       </c>
       <c r="B1" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="2"/>
@@ -2595,23 +2596,23 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,3,4,1,"route"))</f>
-        <v>zakaz</v>
+        <v>sluzhebn</v>
       </c>
       <c r="E2" s="16" t="str">
         <f ca="1">"&lt;unit"&amp;NomZagMar&amp;"&gt; """&amp;$A$3&amp;""""&amp;" {i 0, t 002, l "&amp;$A$4&amp;" "&amp;$A$4&amp;", d 000}"</f>
-        <v>&lt;unit100&gt; "ЗАКАЗНОЙ" {i 0, t 002, l 601 601, d 000}</v>
+        <v>&lt;unit100&gt; "СЛУЖЕБНЫЙ" {i 0, t 002, l 600 600, d 000}</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,2,4,1,"route"))</f>
-        <v>ЗАКАЗНОЙ</v>
+        <v>СЛУЖЕБНЫЙ</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="str">
         <f ca="1">TEXT(INDIRECT(ADDRESS($B$1,1,4,1,"route")),"000")</f>
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
   </sheetData>
@@ -2638,7 +2639,7 @@
         <v>81</v>
       </c>
       <c r="B1" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="2"/>
@@ -2649,23 +2650,23 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,3,4,1,"route"))</f>
-        <v>snekpro</v>
+        <v>zakaz</v>
       </c>
       <c r="E2" s="16" t="str">
         <f ca="1">"&lt;unit"&amp;NomZagMar&amp;"&gt; """&amp;$A$3&amp;""""&amp;" {i 0, t 002, l "&amp;$A$4&amp;" "&amp;$A$4&amp;", d 000}"</f>
-        <v>&lt;unit100&gt; "СНЕКПРО" {i 0, t 002, l 602 602, d 000}</v>
+        <v>&lt;unit100&gt; "ЗАКАЗНОЙ" {i 0, t 002, l 601 601, d 000}</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,2,4,1,"route"))</f>
-        <v>СНЕКПРО</v>
+        <v>ЗАКАЗНОЙ</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="str">
         <f ca="1">TEXT(INDIRECT(ADDRESS($B$1,1,4,1,"route")),"000")</f>
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
   </sheetData>
@@ -2692,7 +2693,7 @@
         <v>81</v>
       </c>
       <c r="B1" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="2"/>
@@ -2703,23 +2704,23 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,3,4,1,"route"))</f>
-        <v>deti</v>
+        <v>snekpro</v>
       </c>
       <c r="E2" s="16" t="str">
         <f ca="1">"&lt;unit"&amp;NomZagMar&amp;"&gt; """&amp;$A$3&amp;""""&amp;" {i 0, t 002, l "&amp;$A$4&amp;" "&amp;$A$4&amp;", d 000}"</f>
-        <v>&lt;unit100&gt; "ДЕТИ" {i 0, t 002, l 603 603, d 000}</v>
+        <v>&lt;unit100&gt; "СНЕКПРО" {i 0, t 002, l 602 602, d 000}</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,2,4,1,"route"))</f>
-        <v>ДЕТИ</v>
+        <v>СНЕКПРО</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="str">
         <f ca="1">TEXT(INDIRECT(ADDRESS($B$1,1,4,1,"route")),"000")</f>
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
   </sheetData>
@@ -2728,6 +2729,60 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="2">
+        <v>41</v>
+      </c>
+      <c r="C1" s="13"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="str">
+        <f ca="1">INDIRECT(ADDRESS($B$1,3,4,1,"route"))</f>
+        <v>deti</v>
+      </c>
+      <c r="E2" s="16" t="str">
+        <f ca="1">"&lt;unit"&amp;NomZagMar&amp;"&gt; """&amp;$A$3&amp;""""&amp;" {i 0, t 002, l "&amp;$A$4&amp;" "&amp;$A$4&amp;", d 000}"</f>
+        <v>&lt;unit100&gt; "ДЕТИ" {i 0, t 002, l 603 603, d 000}</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="str">
+        <f ca="1">INDIRECT(ADDRESS($B$1,2,4,1,"route"))</f>
+        <v>ДЕТИ</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="str">
+        <f ca="1">TEXT(INDIRECT(ADDRESS($B$1,1,4,1,"route")),"000")</f>
+        <v>603</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -5092,6 +5147,318 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.25" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="12">
+        <v>60</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="12">
+        <v>80</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
+        <v>81</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="12">
+        <v>197</v>
+      </c>
+      <c r="B15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="12">
+        <v>201</v>
+      </c>
+      <c r="B16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="12">
+        <v>202</v>
+      </c>
+      <c r="B17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="12">
+        <v>203</v>
+      </c>
+      <c r="B18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="12">
+        <v>204</v>
+      </c>
+      <c r="B19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="12">
+        <v>205</v>
+      </c>
+      <c r="B20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="12">
+        <v>207</v>
+      </c>
+      <c r="B21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="12">
+        <v>208</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="12">
+        <v>209</v>
+      </c>
+      <c r="B23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="12">
+        <v>210</v>
+      </c>
+      <c r="B24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="12">
+        <v>211</v>
+      </c>
+      <c r="B25" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="12">
+        <v>212</v>
+      </c>
+      <c r="B26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="12">
+        <v>213</v>
+      </c>
+      <c r="B27" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="12">
+        <v>214</v>
+      </c>
+      <c r="B28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="12">
+        <v>216</v>
+      </c>
+      <c r="B29" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="12">
+        <v>219</v>
+      </c>
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="12">
+        <v>600</v>
+      </c>
+      <c r="B31" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="12">
+        <v>601</v>
+      </c>
+      <c r="B32" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="12">
+        <v>602</v>
+      </c>
+      <c r="B33" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="12">
+        <v>603</v>
+      </c>
+      <c r="B34" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="12">
+        <v>604</v>
+      </c>
+      <c r="B35" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="12">
+        <v>614</v>
+      </c>
+      <c r="B36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A1:E42">
+    <sortCondition ref="A1:A42"/>
+  </sortState>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
@@ -5801,7 +6168,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -5809,60 +6176,6 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="60.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="B1" s="2">
-        <v>19</v>
-      </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="str">
-        <f ca="1">INDIRECT(ADDRESS($B$1,3,4,1,"route"))</f>
-        <v>barsuki</v>
-      </c>
-      <c r="E2" s="16" t="str">
-        <f ca="1">"&lt;unit"&amp;NomZagMar&amp;"&gt; """&amp;$A$3&amp;""""&amp;" {i 0, t 002, l "&amp;$A$4&amp;" "&amp;$A$4&amp;", d 000}"</f>
-        <v>&lt;unit100&gt; "Барсуки" {i 0, t 002, l 208 208, d 000}</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="str">
-        <f ca="1">INDIRECT(ADDRESS($B$1,2,4,1,"route"))</f>
-        <v>Барсуки</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="str">
-        <f ca="1">TEXT(INDIRECT(ADDRESS($B$1,1,4,1,"route")),"000")</f>
-        <v>208</v>
-      </c>
-    </row>
-  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5886,7 +6199,7 @@
         <v>81</v>
       </c>
       <c r="B1" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="2"/>
@@ -5897,23 +6210,23 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,3,4,1,"route"))</f>
-        <v>budagovo</v>
+        <v>barsuki</v>
       </c>
       <c r="E2" s="16" t="str">
         <f ca="1">"&lt;unit"&amp;NomZagMar&amp;"&gt; """&amp;$A$3&amp;""""&amp;" {i 0, t 002, l "&amp;$A$4&amp;" "&amp;$A$4&amp;", d 000}"</f>
-        <v>&lt;unit100&gt; "Будагово" {i 0, t 002, l 212 212, d 000}</v>
+        <v>&lt;unit100&gt; "Барсуки" {i 0, t 002, l 208 208, d 000}</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,2,4,1,"route"))</f>
-        <v>Будагово</v>
+        <v>Барсуки</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="str">
         <f ca="1">TEXT(INDIRECT(ADDRESS($B$1,1,4,1,"route")),"000")</f>
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -5940,7 +6253,7 @@
         <v>81</v>
       </c>
       <c r="B1" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="2"/>
@@ -5951,23 +6264,23 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,3,4,1,"route"))</f>
-        <v>zamlinie</v>
+        <v>budagovo</v>
       </c>
       <c r="E2" s="16" t="str">
         <f ca="1">"&lt;unit"&amp;NomZagMar&amp;"&gt; """&amp;$A$3&amp;""""&amp;" {i 0, t 002, l "&amp;$A$4&amp;" "&amp;$A$4&amp;", d 000}"</f>
-        <v>&lt;unit100&gt; "Замлынье" {i 0, t 002, l 219 219, d 000}</v>
+        <v>&lt;unit100&gt; "Будагово" {i 0, t 002, l 212 212, d 000}</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,2,4,1,"route"))</f>
-        <v>Замлынье</v>
+        <v>Будагово</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="str">
         <f ca="1">TEXT(INDIRECT(ADDRESS($B$1,1,4,1,"route")),"000")</f>
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>

--- a/gBuse/!_Маршруты_!/Жодино (глобальная переделка)/Помощник по составлению машрутов для СИТ.xlsx
+++ b/gBuse/!_Маршруты_!/Жодино (глобальная переделка)/Помощник по составлению машрутов для СИТ.xlsx
@@ -2,48 +2,49 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-122" yWindow="-122" windowWidth="25377" windowHeight="13762" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="-122" yWindow="-122" windowWidth="25377" windowHeight="13762" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Настройки" sheetId="2" r:id="rId1"/>
     <sheet name="Константы" sheetId="37" r:id="rId2"/>
     <sheet name="Остановки" sheetId="38" r:id="rId3"/>
     <sheet name="route" sheetId="1" r:id="rId4"/>
-    <sheet name="route (2)" sheetId="41" r:id="rId5"/>
-    <sheet name="Табло" sheetId="40" r:id="rId6"/>
-    <sheet name="1" sheetId="4" r:id="rId7"/>
-    <sheet name="barsuki" sheetId="3" r:id="rId8"/>
-    <sheet name="budagovo" sheetId="16" r:id="rId9"/>
-    <sheet name="zamlinie" sheetId="17" r:id="rId10"/>
-    <sheet name="zel_bor" sheetId="18" r:id="rId11"/>
-    <sheet name="logoisk" sheetId="19" r:id="rId12"/>
-    <sheet name="ljutka" sheetId="20" r:id="rId13"/>
-    <sheet name="napalki" sheetId="21" r:id="rId14"/>
-    <sheet name="sutoki" sheetId="22" r:id="rId15"/>
-    <sheet name="tochil" sheetId="23" r:id="rId16"/>
-    <sheet name="uzefovo" sheetId="24" r:id="rId17"/>
-    <sheet name="jalov" sheetId="25" r:id="rId18"/>
-    <sheet name="automob" sheetId="26" r:id="rId19"/>
-    <sheet name="zhurav" sheetId="27" r:id="rId20"/>
-    <sheet name="pov_zur" sheetId="28" r:id="rId21"/>
-    <sheet name="raduga" sheetId="29" r:id="rId22"/>
-    <sheet name="rodnik" sheetId="30" r:id="rId23"/>
-    <sheet name="stroit" sheetId="31" r:id="rId24"/>
-    <sheet name="sluzhebn" sheetId="32" r:id="rId25"/>
-    <sheet name="zakaz" sheetId="33" r:id="rId26"/>
-    <sheet name="snekpro" sheetId="34" r:id="rId27"/>
-    <sheet name="deti" sheetId="35" r:id="rId28"/>
-    <sheet name="v_park" sheetId="36" r:id="rId29"/>
+    <sheet name="Табло" sheetId="40" r:id="rId5"/>
+    <sheet name="1" sheetId="42" r:id="rId6"/>
+    <sheet name="barsuki" sheetId="3" r:id="rId7"/>
+    <sheet name="budagovo" sheetId="16" r:id="rId8"/>
+    <sheet name="zamlinie" sheetId="17" r:id="rId9"/>
+    <sheet name="zel_bor" sheetId="18" r:id="rId10"/>
+    <sheet name="logoisk" sheetId="19" r:id="rId11"/>
+    <sheet name="ljutka" sheetId="20" r:id="rId12"/>
+    <sheet name="napalki" sheetId="21" r:id="rId13"/>
+    <sheet name="sutoki" sheetId="22" r:id="rId14"/>
+    <sheet name="tochil" sheetId="23" r:id="rId15"/>
+    <sheet name="uzefovo" sheetId="24" r:id="rId16"/>
+    <sheet name="jalov" sheetId="25" r:id="rId17"/>
+    <sheet name="automob" sheetId="26" r:id="rId18"/>
+    <sheet name="zhurav" sheetId="27" r:id="rId19"/>
+    <sheet name="pov_zur" sheetId="28" r:id="rId20"/>
+    <sheet name="raduga" sheetId="29" r:id="rId21"/>
+    <sheet name="rodnik" sheetId="30" r:id="rId22"/>
+    <sheet name="stroit" sheetId="31" r:id="rId23"/>
+    <sheet name="sluzhebn" sheetId="32" r:id="rId24"/>
+    <sheet name="zakaz" sheetId="33" r:id="rId25"/>
+    <sheet name="snekpro" sheetId="34" r:id="rId26"/>
+    <sheet name="deti" sheetId="35" r:id="rId27"/>
+    <sheet name="v_park" sheetId="36" r:id="rId28"/>
   </sheets>
   <definedNames>
     <definedName name="mp3_knst">Настройки!$B$3</definedName>
     <definedName name="mp3_ost">Настройки!$B$4</definedName>
     <definedName name="NomZagMar">Настройки!$B$2</definedName>
     <definedName name="NumRoute">Настройки!$B$1</definedName>
+    <definedName name="Ostanovki">Остановки!$B$2:$H$62</definedName>
     <definedName name="Pref_Punktov">Константы!$A$2:$A$12</definedName>
     <definedName name="Punkti">Константы!$A$2:$B$12</definedName>
+    <definedName name="Zag_Ost">Остановки!$B$2:$B$62</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -60,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="345">
   <si>
     <t>Номер маршрута</t>
   </si>
@@ -1084,6 +1085,18 @@
   </si>
   <si>
     <t>СЛЕДУЕТ В ПАРК</t>
+  </si>
+  <si>
+    <t>Прямой</t>
+  </si>
+  <si>
+    <t>Обратный</t>
+  </si>
+  <si>
+    <t>Переход</t>
+  </si>
+  <si>
+    <t>----- Прямой -----</t>
   </si>
 </sst>
 </file>
@@ -1166,7 +1179,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1226,6 +1239,10 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1506,6 +1523,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист1"/>
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1556,6 +1574,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист9"/>
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1573,7 +1592,7 @@
         <v>81</v>
       </c>
       <c r="B1" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="2"/>
@@ -1584,23 +1603,23 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,3,4,1,"route"))</f>
-        <v>zamlinie</v>
+        <v>zel_bor</v>
       </c>
       <c r="E2" s="16" t="str">
         <f ca="1">"&lt;unit"&amp;NomZagMar&amp;"&gt; """&amp;$A$3&amp;""""&amp;" {i 0, t 002, l "&amp;$A$4&amp;" "&amp;$A$4&amp;", d 000}"</f>
-        <v>&lt;unit100&gt; "Замлынье" {i 0, t 002, l 219 219, d 000}</v>
+        <v>&lt;unit100&gt; "Зеленый Бор" {i 0, t 002, l 211 211, d 000}</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,2,4,1,"route"))</f>
-        <v>Замлынье</v>
+        <v>Зеленый Бор</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="str">
         <f ca="1">TEXT(INDIRECT(ADDRESS($B$1,1,4,1,"route")),"000")</f>
-        <v>219</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -1610,6 +1629,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист10"/>
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1627,7 +1647,7 @@
         <v>81</v>
       </c>
       <c r="B1" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="2"/>
@@ -1638,23 +1658,23 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,3,4,1,"route"))</f>
-        <v>zel_bor</v>
+        <v>logoisk</v>
       </c>
       <c r="E2" s="16" t="str">
         <f ca="1">"&lt;unit"&amp;NomZagMar&amp;"&gt; """&amp;$A$3&amp;""""&amp;" {i 0, t 002, l "&amp;$A$4&amp;" "&amp;$A$4&amp;", d 000}"</f>
-        <v>&lt;unit100&gt; "Зеленый Бор" {i 0, t 002, l 211 211, d 000}</v>
+        <v>&lt;unit100&gt; "Логойск" {i 0, t 002, l 197 197, d 000}</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,2,4,1,"route"))</f>
-        <v>Зеленый Бор</v>
+        <v>Логойск</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="str">
         <f ca="1">TEXT(INDIRECT(ADDRESS($B$1,1,4,1,"route")),"000")</f>
-        <v>211</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -1664,6 +1684,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист11"/>
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1681,7 +1702,7 @@
         <v>81</v>
       </c>
       <c r="B1" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="2"/>
@@ -1692,23 +1713,23 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,3,4,1,"route"))</f>
-        <v>logoisk</v>
+        <v>ljutka</v>
       </c>
       <c r="E2" s="16" t="str">
         <f ca="1">"&lt;unit"&amp;NomZagMar&amp;"&gt; """&amp;$A$3&amp;""""&amp;" {i 0, t 002, l "&amp;$A$4&amp;" "&amp;$A$4&amp;", d 000}"</f>
-        <v>&lt;unit100&gt; "Логойск" {i 0, t 002, l 197 197, d 000}</v>
+        <v>&lt;unit100&gt; "Лютка" {i 0, t 002, l 204 204, d 000}</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,2,4,1,"route"))</f>
-        <v>Логойск</v>
+        <v>Лютка</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="str">
         <f ca="1">TEXT(INDIRECT(ADDRESS($B$1,1,4,1,"route")),"000")</f>
-        <v>197</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -1718,6 +1739,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист12"/>
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1735,7 +1757,7 @@
         <v>81</v>
       </c>
       <c r="B1" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="2"/>
@@ -1746,23 +1768,23 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,3,4,1,"route"))</f>
-        <v>ljutka</v>
+        <v>napalki</v>
       </c>
       <c r="E2" s="16" t="str">
         <f ca="1">"&lt;unit"&amp;NomZagMar&amp;"&gt; """&amp;$A$3&amp;""""&amp;" {i 0, t 002, l "&amp;$A$4&amp;" "&amp;$A$4&amp;", d 000}"</f>
-        <v>&lt;unit100&gt; "Лютка" {i 0, t 002, l 204 204, d 000}</v>
+        <v>&lt;unit100&gt; "Напалки" {i 0, t 002, l 205 205, d 000}</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,2,4,1,"route"))</f>
-        <v>Лютка</v>
+        <v>Напалки</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="str">
         <f ca="1">TEXT(INDIRECT(ADDRESS($B$1,1,4,1,"route")),"000")</f>
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -1772,6 +1794,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист13"/>
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1789,7 +1812,7 @@
         <v>81</v>
       </c>
       <c r="B1" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="2"/>
@@ -1800,23 +1823,23 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,3,4,1,"route"))</f>
-        <v>napalki</v>
+        <v>sutoki</v>
       </c>
       <c r="E2" s="16" t="str">
         <f ca="1">"&lt;unit"&amp;NomZagMar&amp;"&gt; """&amp;$A$3&amp;""""&amp;" {i 0, t 002, l "&amp;$A$4&amp;" "&amp;$A$4&amp;", d 000}"</f>
-        <v>&lt;unit100&gt; "Напалки" {i 0, t 002, l 205 205, d 000}</v>
+        <v>&lt;unit100&gt; "Сутоки" {i 0, t 002, l 216 216, d 000}</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,2,4,1,"route"))</f>
-        <v>Напалки</v>
+        <v>Сутоки</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="str">
         <f ca="1">TEXT(INDIRECT(ADDRESS($B$1,1,4,1,"route")),"000")</f>
-        <v>205</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -1826,6 +1849,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист14"/>
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1843,7 +1867,7 @@
         <v>81</v>
       </c>
       <c r="B1" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="2"/>
@@ -1854,23 +1878,23 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,3,4,1,"route"))</f>
-        <v>sutoki</v>
+        <v>tochil</v>
       </c>
       <c r="E2" s="16" t="str">
         <f ca="1">"&lt;unit"&amp;NomZagMar&amp;"&gt; """&amp;$A$3&amp;""""&amp;" {i 0, t 002, l "&amp;$A$4&amp;" "&amp;$A$4&amp;", d 000}"</f>
-        <v>&lt;unit100&gt; "Сутоки" {i 0, t 002, l 216 216, d 000}</v>
+        <v>&lt;unit100&gt; "Точилище" {i 0, t 002, l 209 209, d 000}</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,2,4,1,"route"))</f>
-        <v>Сутоки</v>
+        <v>Точилище</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="str">
         <f ca="1">TEXT(INDIRECT(ADDRESS($B$1,1,4,1,"route")),"000")</f>
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -1880,6 +1904,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист15"/>
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1897,7 +1922,7 @@
         <v>81</v>
       </c>
       <c r="B1" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="2"/>
@@ -1908,23 +1933,23 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,3,4,1,"route"))</f>
-        <v>tochil</v>
+        <v>uzefovo</v>
       </c>
       <c r="E2" s="16" t="str">
         <f ca="1">"&lt;unit"&amp;NomZagMar&amp;"&gt; """&amp;$A$3&amp;""""&amp;" {i 0, t 002, l "&amp;$A$4&amp;" "&amp;$A$4&amp;", d 000}"</f>
-        <v>&lt;unit100&gt; "Точилище" {i 0, t 002, l 209 209, d 000}</v>
+        <v>&lt;unit100&gt; "Юзефово" {i 0, t 002, l 202 202, d 000}</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,2,4,1,"route"))</f>
-        <v>Точилище</v>
+        <v>Юзефово</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="str">
         <f ca="1">TEXT(INDIRECT(ADDRESS($B$1,1,4,1,"route")),"000")</f>
-        <v>209</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -1934,6 +1959,7 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист16"/>
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1951,7 +1977,7 @@
         <v>81</v>
       </c>
       <c r="B1" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="2"/>
@@ -1962,23 +1988,23 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,3,4,1,"route"))</f>
-        <v>uzefovo</v>
+        <v>jalov</v>
       </c>
       <c r="E2" s="16" t="str">
         <f ca="1">"&lt;unit"&amp;NomZagMar&amp;"&gt; """&amp;$A$3&amp;""""&amp;" {i 0, t 002, l "&amp;$A$4&amp;" "&amp;$A$4&amp;", d 000}"</f>
-        <v>&lt;unit100&gt; "Юзефово" {i 0, t 002, l 202 202, d 000}</v>
+        <v>&lt;unit100&gt; "Яловица" {i 0, t 002, l 210 210, d 000}</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,2,4,1,"route"))</f>
-        <v>Юзефово</v>
+        <v>Яловица</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="str">
         <f ca="1">TEXT(INDIRECT(ADDRESS($B$1,1,4,1,"route")),"000")</f>
-        <v>202</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -1988,6 +2014,7 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист17"/>
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2005,7 +2032,7 @@
         <v>81</v>
       </c>
       <c r="B1" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="2"/>
@@ -2016,23 +2043,23 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,3,4,1,"route"))</f>
-        <v>jalov</v>
+        <v>automob</v>
       </c>
       <c r="E2" s="16" t="str">
         <f ca="1">"&lt;unit"&amp;NomZagMar&amp;"&gt; """&amp;$A$3&amp;""""&amp;" {i 0, t 002, l "&amp;$A$4&amp;" "&amp;$A$4&amp;", d 000}"</f>
-        <v>&lt;unit100&gt; "Яловица" {i 0, t 002, l 210 210, d 000}</v>
+        <v>&lt;unit100&gt; "с/т Автомобилист" {i 0, t 002, l 207 207, d 000}</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,2,4,1,"route"))</f>
-        <v>Яловица</v>
+        <v>с/т Автомобилист</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="str">
         <f ca="1">TEXT(INDIRECT(ADDRESS($B$1,1,4,1,"route")),"000")</f>
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -2042,6 +2069,7 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист18"/>
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2059,7 +2087,7 @@
         <v>81</v>
       </c>
       <c r="B1" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="2"/>
@@ -2070,23 +2098,23 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,3,4,1,"route"))</f>
-        <v>automob</v>
+        <v>zhurav</v>
       </c>
       <c r="E2" s="16" t="str">
         <f ca="1">"&lt;unit"&amp;NomZagMar&amp;"&gt; """&amp;$A$3&amp;""""&amp;" {i 0, t 002, l "&amp;$A$4&amp;" "&amp;$A$4&amp;", d 000}"</f>
-        <v>&lt;unit100&gt; "с/т Автомобилист" {i 0, t 002, l 207 207, d 000}</v>
+        <v>&lt;unit100&gt; "с/т Журавинка" {i 0, t 002, l 214 214, d 000}</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,2,4,1,"route"))</f>
-        <v>с/т Автомобилист</v>
+        <v>с/т Журавинка</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="str">
         <f ca="1">TEXT(INDIRECT(ADDRESS($B$1,1,4,1,"route")),"000")</f>
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -2096,6 +2124,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист2"/>
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2298,6 +2327,7 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист19"/>
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2315,7 +2345,7 @@
         <v>81</v>
       </c>
       <c r="B1" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="2"/>
@@ -2326,23 +2356,23 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,3,4,1,"route"))</f>
-        <v>zhurav</v>
+        <v>pov_zur</v>
       </c>
       <c r="E2" s="16" t="str">
         <f ca="1">"&lt;unit"&amp;NomZagMar&amp;"&gt; """&amp;$A$3&amp;""""&amp;" {i 0, t 002, l "&amp;$A$4&amp;" "&amp;$A$4&amp;", d 000}"</f>
-        <v>&lt;unit100&gt; "с/т Журавинка" {i 0, t 002, l 214 214, d 000}</v>
+        <v>&lt;unit100&gt; "пов. с/т Журавинка" {i 0, t 002, l 614 614, d 000}</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,2,4,1,"route"))</f>
-        <v>с/т Журавинка</v>
+        <v>пов. с/т Журавинка</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="str">
         <f ca="1">TEXT(INDIRECT(ADDRESS($B$1,1,4,1,"route")),"000")</f>
-        <v>214</v>
+        <v>614</v>
       </c>
     </row>
   </sheetData>
@@ -2352,6 +2382,7 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист20"/>
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2369,7 +2400,7 @@
         <v>81</v>
       </c>
       <c r="B1" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="2"/>
@@ -2380,23 +2411,23 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,3,4,1,"route"))</f>
-        <v>pov_zur</v>
+        <v>raduga</v>
       </c>
       <c r="E2" s="16" t="str">
         <f ca="1">"&lt;unit"&amp;NomZagMar&amp;"&gt; """&amp;$A$3&amp;""""&amp;" {i 0, t 002, l "&amp;$A$4&amp;" "&amp;$A$4&amp;", d 000}"</f>
-        <v>&lt;unit100&gt; "пов. с/т Журавинка" {i 0, t 002, l 614 614, d 000}</v>
+        <v>&lt;unit100&gt; "с/т Радуга" {i 0, t 002, l 201 201, d 000}</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,2,4,1,"route"))</f>
-        <v>пов. с/т Журавинка</v>
+        <v>с/т Радуга</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="str">
         <f ca="1">TEXT(INDIRECT(ADDRESS($B$1,1,4,1,"route")),"000")</f>
-        <v>614</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -2406,6 +2437,7 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист21"/>
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2423,7 +2455,7 @@
         <v>81</v>
       </c>
       <c r="B1" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="2"/>
@@ -2434,23 +2466,23 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,3,4,1,"route"))</f>
-        <v>raduga</v>
+        <v>rodnik</v>
       </c>
       <c r="E2" s="16" t="str">
         <f ca="1">"&lt;unit"&amp;NomZagMar&amp;"&gt; """&amp;$A$3&amp;""""&amp;" {i 0, t 002, l "&amp;$A$4&amp;" "&amp;$A$4&amp;", d 000}"</f>
-        <v>&lt;unit100&gt; "с/т Радуга" {i 0, t 002, l 201 201, d 000}</v>
+        <v>&lt;unit100&gt; "с/т Родничок" {i 0, t 002, l 213 213, d 000}</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,2,4,1,"route"))</f>
-        <v>с/т Радуга</v>
+        <v>с/т Родничок</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="str">
         <f ca="1">TEXT(INDIRECT(ADDRESS($B$1,1,4,1,"route")),"000")</f>
-        <v>201</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -2460,6 +2492,7 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист22"/>
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2477,7 +2510,7 @@
         <v>81</v>
       </c>
       <c r="B1" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="2"/>
@@ -2488,23 +2521,23 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,3,4,1,"route"))</f>
-        <v>rodnik</v>
+        <v>stroit</v>
       </c>
       <c r="E2" s="16" t="str">
         <f ca="1">"&lt;unit"&amp;NomZagMar&amp;"&gt; """&amp;$A$3&amp;""""&amp;" {i 0, t 002, l "&amp;$A$4&amp;" "&amp;$A$4&amp;", d 000}"</f>
-        <v>&lt;unit100&gt; "с/т Родничок" {i 0, t 002, l 213 213, d 000}</v>
+        <v>&lt;unit100&gt; "с/т Строитель" {i 0, t 002, l 203 203, d 000}</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,2,4,1,"route"))</f>
-        <v>с/т Родничок</v>
+        <v>с/т Строитель</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="str">
         <f ca="1">TEXT(INDIRECT(ADDRESS($B$1,1,4,1,"route")),"000")</f>
-        <v>213</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -2514,6 +2547,7 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист23"/>
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2531,7 +2565,7 @@
         <v>81</v>
       </c>
       <c r="B1" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="2"/>
@@ -2542,23 +2576,23 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,3,4,1,"route"))</f>
-        <v>stroit</v>
+        <v>sluzhebn</v>
       </c>
       <c r="E2" s="16" t="str">
         <f ca="1">"&lt;unit"&amp;NomZagMar&amp;"&gt; """&amp;$A$3&amp;""""&amp;" {i 0, t 002, l "&amp;$A$4&amp;" "&amp;$A$4&amp;", d 000}"</f>
-        <v>&lt;unit100&gt; "с/т Строитель" {i 0, t 002, l 203 203, d 000}</v>
+        <v>&lt;unit100&gt; "СЛУЖЕБНЫЙ" {i 0, t 002, l 600 600, d 000}</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,2,4,1,"route"))</f>
-        <v>с/т Строитель</v>
+        <v>СЛУЖЕБНЫЙ</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="str">
         <f ca="1">TEXT(INDIRECT(ADDRESS($B$1,1,4,1,"route")),"000")</f>
-        <v>203</v>
+        <v>600</v>
       </c>
     </row>
   </sheetData>
@@ -2568,6 +2602,7 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист24"/>
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2585,7 +2620,7 @@
         <v>81</v>
       </c>
       <c r="B1" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="2"/>
@@ -2596,23 +2631,23 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,3,4,1,"route"))</f>
-        <v>sluzhebn</v>
+        <v>zakaz</v>
       </c>
       <c r="E2" s="16" t="str">
         <f ca="1">"&lt;unit"&amp;NomZagMar&amp;"&gt; """&amp;$A$3&amp;""""&amp;" {i 0, t 002, l "&amp;$A$4&amp;" "&amp;$A$4&amp;", d 000}"</f>
-        <v>&lt;unit100&gt; "СЛУЖЕБНЫЙ" {i 0, t 002, l 600 600, d 000}</v>
+        <v>&lt;unit100&gt; "ЗАКАЗНОЙ" {i 0, t 002, l 601 601, d 000}</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,2,4,1,"route"))</f>
-        <v>СЛУЖЕБНЫЙ</v>
+        <v>ЗАКАЗНОЙ</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="str">
         <f ca="1">TEXT(INDIRECT(ADDRESS($B$1,1,4,1,"route")),"000")</f>
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
   </sheetData>
@@ -2622,6 +2657,7 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист25"/>
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2639,7 +2675,7 @@
         <v>81</v>
       </c>
       <c r="B1" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="2"/>
@@ -2650,23 +2686,23 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,3,4,1,"route"))</f>
-        <v>zakaz</v>
+        <v>snekpro</v>
       </c>
       <c r="E2" s="16" t="str">
         <f ca="1">"&lt;unit"&amp;NomZagMar&amp;"&gt; """&amp;$A$3&amp;""""&amp;" {i 0, t 002, l "&amp;$A$4&amp;" "&amp;$A$4&amp;", d 000}"</f>
-        <v>&lt;unit100&gt; "ЗАКАЗНОЙ" {i 0, t 002, l 601 601, d 000}</v>
+        <v>&lt;unit100&gt; "СНЕКПРО" {i 0, t 002, l 602 602, d 000}</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,2,4,1,"route"))</f>
-        <v>ЗАКАЗНОЙ</v>
+        <v>СНЕКПРО</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="str">
         <f ca="1">TEXT(INDIRECT(ADDRESS($B$1,1,4,1,"route")),"000")</f>
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
   </sheetData>
@@ -2676,6 +2712,7 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист26"/>
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2693,7 +2730,7 @@
         <v>81</v>
       </c>
       <c r="B1" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="2"/>
@@ -2704,23 +2741,23 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,3,4,1,"route"))</f>
-        <v>snekpro</v>
+        <v>deti</v>
       </c>
       <c r="E2" s="16" t="str">
         <f ca="1">"&lt;unit"&amp;NomZagMar&amp;"&gt; """&amp;$A$3&amp;""""&amp;" {i 0, t 002, l "&amp;$A$4&amp;" "&amp;$A$4&amp;", d 000}"</f>
-        <v>&lt;unit100&gt; "СНЕКПРО" {i 0, t 002, l 602 602, d 000}</v>
+        <v>&lt;unit100&gt; "ДЕТИ" {i 0, t 002, l 603 603, d 000}</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="str">
         <f ca="1">INDIRECT(ADDRESS($B$1,2,4,1,"route"))</f>
-        <v>СНЕКПРО</v>
+        <v>ДЕТИ</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="str">
         <f ca="1">TEXT(INDIRECT(ADDRESS($B$1,1,4,1,"route")),"000")</f>
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
   </sheetData>
@@ -2730,6 +2767,7 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист27"/>
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2747,60 +2785,6 @@
         <v>81</v>
       </c>
       <c r="B1" s="2">
-        <v>41</v>
-      </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="str">
-        <f ca="1">INDIRECT(ADDRESS($B$1,3,4,1,"route"))</f>
-        <v>deti</v>
-      </c>
-      <c r="E2" s="16" t="str">
-        <f ca="1">"&lt;unit"&amp;NomZagMar&amp;"&gt; """&amp;$A$3&amp;""""&amp;" {i 0, t 002, l "&amp;$A$4&amp;" "&amp;$A$4&amp;", d 000}"</f>
-        <v>&lt;unit100&gt; "ДЕТИ" {i 0, t 002, l 603 603, d 000}</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="str">
-        <f ca="1">INDIRECT(ADDRESS($B$1,2,4,1,"route"))</f>
-        <v>ДЕТИ</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="str">
-        <f ca="1">TEXT(INDIRECT(ADDRESS($B$1,1,4,1,"route")),"000")</f>
-        <v>603</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="60.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="B1" s="2">
         <v>42</v>
       </c>
       <c r="C1" s="13"/>
@@ -2838,10 +2822,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист3"/>
   <dimension ref="A1:H62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H52" sqref="H52"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -4538,9 +4523,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист4"/>
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
@@ -5147,318 +5133,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B36"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.25" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
-        <v>60</v>
-      </c>
-      <c r="B12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="12">
-        <v>80</v>
-      </c>
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="12">
-        <v>81</v>
-      </c>
-      <c r="B14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="12">
-        <v>197</v>
-      </c>
-      <c r="B15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="12">
-        <v>201</v>
-      </c>
-      <c r="B16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="12">
-        <v>202</v>
-      </c>
-      <c r="B17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="12">
-        <v>203</v>
-      </c>
-      <c r="B18" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="12">
-        <v>204</v>
-      </c>
-      <c r="B19" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="12">
-        <v>205</v>
-      </c>
-      <c r="B20" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="12">
-        <v>207</v>
-      </c>
-      <c r="B21" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="12">
-        <v>208</v>
-      </c>
-      <c r="B22" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="12">
-        <v>209</v>
-      </c>
-      <c r="B23" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="12">
-        <v>210</v>
-      </c>
-      <c r="B24" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="12">
-        <v>211</v>
-      </c>
-      <c r="B25" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="12">
-        <v>212</v>
-      </c>
-      <c r="B26" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="12">
-        <v>213</v>
-      </c>
-      <c r="B27" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="12">
-        <v>214</v>
-      </c>
-      <c r="B28" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="12">
-        <v>216</v>
-      </c>
-      <c r="B29" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="12">
-        <v>219</v>
-      </c>
-      <c r="B30" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="12">
-        <v>600</v>
-      </c>
-      <c r="B31" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="12">
-        <v>601</v>
-      </c>
-      <c r="B32" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="12">
-        <v>602</v>
-      </c>
-      <c r="B33" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="12">
-        <v>603</v>
-      </c>
-      <c r="B34" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="12">
-        <v>604</v>
-      </c>
-      <c r="B35" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="12">
-        <v>614</v>
-      </c>
-      <c r="B36" t="s">
-        <v>61</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState ref="A1:E42">
-    <sortCondition ref="A1:A42"/>
-  </sortState>
-  <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист5"/>
   <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
@@ -6168,20 +5843,261 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <sheetPr codeName="Лист28"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="22.625" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.125" style="25" customWidth="1"/>
+    <col min="5" max="5" width="20.75" style="25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.125" style="25" customWidth="1"/>
+    <col min="7" max="7" width="60.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="2">
+        <v>3</v>
+      </c>
+      <c r="C1" s="13"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="15">
+        <f ca="1">INDIRECT(ADDRESS($B$1,3,4,1,"route"))</f>
+        <v>1</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>343</v>
+      </c>
+      <c r="G2" s="16" t="str">
+        <f ca="1">"&lt;unit"&amp;NomZagMar&amp;"&gt; """&amp;$A$3&amp;""""&amp;" {i 0, t 002, l "&amp;$A$4&amp;" "&amp;$A$4&amp;", d 000}"</f>
+        <v>&lt;unit100&gt; "1 Труда - КЗТШ" {i 0, t 002, l 001 001, d 000}</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="str">
+        <f ca="1">INDIRECT(ADDRESS($B$1,2,4,1,"route"))</f>
+        <v>1 Труда - КЗТШ</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>341</v>
+      </c>
+      <c r="D3" s="25">
+        <v>4</v>
+      </c>
+      <c r="G3" t="str">
+        <f>"&lt;unit"&amp;TEXT(B3,"000")&amp;"&gt; """&amp;C3&amp;""" {}"</f>
+        <v>&lt;unit001&gt; "Прямой" {}</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="str">
+        <f ca="1">TEXT(INDIRECT(ADDRESS($B$1,1,4,1,"route")),"000")</f>
+        <v>001</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>342</v>
+      </c>
+      <c r="G4" t="str">
+        <f>"&lt;unit"&amp;TEXT(B4,"000")&amp;"&gt; """&amp;C4&amp;""" {}"</f>
+        <v>&lt;unit002&gt; "Обратный" {}</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="15"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>344</v>
+      </c>
+      <c r="D6" s="25">
+        <v>4</v>
+      </c>
+      <c r="G6" t="str">
+        <f>"&lt;unit"&amp;TEXT(B6,"000")&amp;"&gt; """&amp;C6&amp;""" {}"</f>
+        <v>&lt;unit003&gt; "----- Прямой -----" {}</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>295</v>
+      </c>
+      <c r="E8" s="25" t="str">
+        <f>VLOOKUP(C8,Ostanovki,6,FALSE)</f>
+        <v>v "\mp3_ost\truda.mp3"</v>
+      </c>
+      <c r="G8" t="str">
+        <f>"&lt;unit"&amp;TEXT(B8,"000")&amp;"&gt; """&amp;C8&amp;""" {}"</f>
+        <v>&lt;unit004&gt; "ул.Труда" {}</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" ref="G9:G22" si="0">"&lt;unit"&amp;TEXT(B9,"000")&amp;"&gt; """&amp;C9&amp;""" {}"</f>
+        <v>&lt;unit005&gt; "" {}</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;unit006&gt; "" {}</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;unit007&gt; "" {}</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;unit008&gt; "" {}</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>9</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;unit009&gt; "" {}</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;unit010&gt; "" {}</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>11</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;unit011&gt; "" {}</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>12</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;unit012&gt; "" {}</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>13</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;unit013&gt; "" {}</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>14</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;unit014&gt; "" {}</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>15</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;unit015&gt; "" {}</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>16</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;unit016&gt; "" {}</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>17</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;unit017&gt; "" {}</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>18</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;unit018&gt; "" {}</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8:C22">
+      <formula1>Zag_Ost</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист6"/>
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6234,8 +6150,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист7"/>
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6286,4 +6203,59 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист8"/>
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="2">
+        <v>21</v>
+      </c>
+      <c r="C1" s="13"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="str">
+        <f ca="1">INDIRECT(ADDRESS($B$1,3,4,1,"route"))</f>
+        <v>zamlinie</v>
+      </c>
+      <c r="E2" s="16" t="str">
+        <f ca="1">"&lt;unit"&amp;NomZagMar&amp;"&gt; """&amp;$A$3&amp;""""&amp;" {i 0, t 002, l "&amp;$A$4&amp;" "&amp;$A$4&amp;", d 000}"</f>
+        <v>&lt;unit100&gt; "Замлынье" {i 0, t 002, l 219 219, d 000}</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="str">
+        <f ca="1">INDIRECT(ADDRESS($B$1,2,4,1,"route"))</f>
+        <v>Замлынье</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="str">
+        <f ca="1">TEXT(INDIRECT(ADDRESS($B$1,1,4,1,"route")),"000")</f>
+        <v>219</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>